--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deltion\GAM\cohort2015-2016\jaar2\gamelab\GL2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
   <si>
     <t>Maandag</t>
   </si>
@@ -171,6 +166,27 @@
   </si>
   <si>
     <t>Naam 7</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Roos</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>Danial</t>
   </si>
 </sst>
 </file>
@@ -836,11 +852,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Invoer" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,7 +1126,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1121,19 +1137,19 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="121" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="121" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1141,25 +1157,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="92" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>34</v>
@@ -1513,7 +1529,7 @@
       <c r="J11" s="84"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>2</v>
       </c>
@@ -1577,7 +1593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1708,7 @@
       <c r="I17" s="100"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1723,7 @@
       <c r="J18" s="83"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1752,7 @@
       <c r="J19" s="84"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1781,7 @@
       <c r="J20" s="84"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1810,7 @@
       <c r="J21" s="84"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1915,7 @@
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1930,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1959,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1988,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2017,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +2046,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2075,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2113,7 @@
       <c r="J32" s="40"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
@@ -2106,7 +2122,7 @@
       <c r="H33" s="100"/>
       <c r="I33" s="100"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2137,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2152,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2167,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2184,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2199,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2214,7 @@
       <c r="J39" s="22"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="100"/>
       <c r="D40" s="100"/>
       <c r="E40" s="100"/>
@@ -2207,7 +2223,7 @@
       <c r="H40" s="100"/>
       <c r="I40" s="100"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2238,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2267,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2280,7 +2296,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2325,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2354,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2383,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -2405,7 +2421,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="100"/>
       <c r="D48" s="100"/>
       <c r="E48" s="100"/>
@@ -2414,7 +2430,7 @@
       <c r="H48" s="100"/>
       <c r="I48" s="100"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2445,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2474,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -2487,7 +2503,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2532,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2561,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2574,7 +2590,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2628,7 @@
       <c r="J55" s="45"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="100"/>
       <c r="D56" s="100"/>
       <c r="E56" s="100"/>
@@ -2621,7 +2637,7 @@
       <c r="H56" s="100"/>
       <c r="I56" s="100"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2636,7 +2652,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2681,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2710,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -2723,7 +2739,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2752,7 +2768,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2781,7 +2797,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2835,7 @@
       <c r="J63" s="45"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="116"/>
       <c r="D64" s="116"/>
@@ -2830,7 +2846,7 @@
       <c r="I64" s="116"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2861,7 @@
       <c r="J65" s="25"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2890,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -2903,7 +2919,7 @@
       <c r="J67" s="27"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2948,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -2961,7 +2977,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +3006,7 @@
       <c r="J70" s="29"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3044,7 @@
       <c r="J71" s="45"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="100"/>
       <c r="D72" s="100"/>
       <c r="E72" s="100"/>
@@ -3037,7 +3053,7 @@
       <c r="H72" s="100"/>
       <c r="I72" s="100"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3052,7 +3068,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3097,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3110,7 +3126,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3139,7 +3155,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -3168,7 +3184,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -3197,7 +3213,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -3235,7 +3251,7 @@
       <c r="J79" s="45"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="100"/>
       <c r="D80" s="100"/>
       <c r="E80" s="100"/>
@@ -3244,7 +3260,7 @@
       <c r="H80" s="100"/>
       <c r="I80" s="100"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3275,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3304,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +3333,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3362,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3391,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -3404,7 +3420,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3458,7 @@
       <c r="J87" s="45"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="100"/>
       <c r="D88" s="100"/>
       <c r="E88" s="100"/>
@@ -3451,7 +3467,7 @@
       <c r="H88" s="100"/>
       <c r="I88" s="100"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -3466,7 +3482,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3511,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -3524,7 +3540,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -3553,7 +3569,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -3582,7 +3598,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3627,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3665,7 @@
       <c r="J95" s="45"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="100"/>
       <c r="D96" s="100"/>
       <c r="E96" s="100"/>
@@ -3658,7 +3674,7 @@
       <c r="H96" s="100"/>
       <c r="I96" s="100"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -3673,7 +3689,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3718,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -3731,7 +3747,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3776,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3789,7 +3805,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3834,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +3872,7 @@
       <c r="J103" s="40"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="100"/>
       <c r="D104" s="100"/>
       <c r="E104" s="100"/>
@@ -3865,7 +3881,7 @@
       <c r="H104" s="100"/>
       <c r="I104" s="100"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>24</v>
       </c>
@@ -3880,7 +3896,7 @@
       <c r="J105" s="18"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
@@ -3895,7 +3911,7 @@
       <c r="J106" s="20"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +3926,7 @@
       <c r="J107" s="20"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>2</v>
       </c>
@@ -3927,7 +3943,7 @@
       <c r="J108" s="20"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3958,7 @@
       <c r="J109" s="20"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="s">
         <v>4</v>
       </c>
@@ -3957,7 +3973,7 @@
       <c r="J110" s="22"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="100"/>
       <c r="D111" s="100"/>
       <c r="E111" s="100"/>
@@ -3966,7 +3982,7 @@
       <c r="H111" s="100"/>
       <c r="I111" s="100"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -3981,7 +3997,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +4026,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +4055,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4084,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -4097,7 +4113,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -4126,7 +4142,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4180,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="100"/>
       <c r="D119" s="100"/>
       <c r="E119" s="100"/>
@@ -4173,7 +4189,7 @@
       <c r="H119" s="100"/>
       <c r="I119" s="100"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -4188,7 +4204,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4233,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4262,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4275,7 +4291,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4304,7 +4320,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +4349,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -4371,7 +4387,7 @@
       <c r="J126" s="40"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="100"/>
       <c r="D127" s="100"/>
       <c r="E127" s="100"/>
@@ -4380,7 +4396,7 @@
       <c r="H127" s="100"/>
       <c r="I127" s="100"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -4395,7 +4411,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4440,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -4453,7 +4469,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4482,7 +4498,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -4511,7 +4527,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -4540,7 +4556,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -4578,7 +4594,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="100"/>
       <c r="D135" s="100"/>
       <c r="E135" s="100"/>
@@ -4587,7 +4603,7 @@
       <c r="H135" s="100"/>
       <c r="I135" s="100"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -4602,7 +4618,7 @@
       <c r="J136" s="25"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4647,7 @@
       <c r="J137" s="27"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4676,7 @@
       <c r="J138" s="27"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -4689,7 +4705,7 @@
       <c r="J139" s="27"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -4718,7 +4734,7 @@
       <c r="J140" s="27"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -4747,7 +4763,7 @@
       <c r="J141" s="29"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4801,7 @@
       <c r="J142" s="122"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="30"/>
       <c r="C143" s="100"/>
       <c r="D143" s="100"/>
@@ -4796,7 +4812,7 @@
       <c r="I143" s="100"/>
       <c r="J143" s="31"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -4811,7 +4827,7 @@
       <c r="J144" s="25"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -4840,7 +4856,7 @@
       <c r="J145" s="27"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4869,7 +4885,7 @@
       <c r="J146" s="27"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -4898,7 +4914,7 @@
       <c r="J147" s="27"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4927,7 +4943,7 @@
       <c r="J148" s="27"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -4956,7 +4972,7 @@
       <c r="J149" s="29"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -4994,7 +5010,7 @@
       <c r="J150" s="40"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="100"/>
       <c r="D151" s="100"/>
       <c r="E151" s="100"/>
@@ -5003,7 +5019,7 @@
       <c r="H151" s="100"/>
       <c r="I151" s="100"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -5018,7 +5034,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -5047,7 +5063,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5092,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5105,7 +5121,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5134,7 +5150,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -5163,7 +5179,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5217,7 @@
       <c r="J158" s="40"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="100"/>
       <c r="D159" s="100"/>
       <c r="E159" s="100"/>
@@ -5210,7 +5226,7 @@
       <c r="H159" s="100"/>
       <c r="I159" s="100"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -5225,7 +5241,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -5254,7 +5270,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5299,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5312,7 +5328,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -5341,7 +5357,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -5370,7 +5386,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -5408,7 +5424,7 @@
       <c r="J166" s="40"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="100"/>
       <c r="D167" s="100"/>
       <c r="E167" s="100"/>
@@ -5417,7 +5433,7 @@
       <c r="H167" s="100"/>
       <c r="I167" s="100"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -5432,7 +5448,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -5461,7 +5477,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -5490,7 +5506,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5519,7 +5535,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5548,7 +5564,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -5577,7 +5593,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -5615,7 +5631,7 @@
       <c r="J174" s="40"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C175" s="100"/>
       <c r="D175" s="100"/>
       <c r="E175" s="100"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Maandag</t>
   </si>
@@ -147,27 +147,6 @@
     <t>MEI VAKANTIE</t>
   </si>
   <si>
-    <t>Naam 1</t>
-  </si>
-  <si>
-    <t>Naam 2</t>
-  </si>
-  <si>
-    <t>Naam 3</t>
-  </si>
-  <si>
-    <t>Naam 4</t>
-  </si>
-  <si>
-    <t>Naam 5</t>
-  </si>
-  <si>
-    <t>Naam 6</t>
-  </si>
-  <si>
-    <t>Naam 7</t>
-  </si>
-  <si>
     <t>Sven</t>
   </si>
   <si>
@@ -187,6 +166,15 @@
   </si>
   <si>
     <t>Danial</t>
+  </si>
+  <si>
+    <t>Paco ziek.</t>
+  </si>
+  <si>
+    <t>Roos tandarts. Harold Tandarts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco migraine. Trein </t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,7 +1125,7 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,30 +1140,30 @@
     <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G1" s="91" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1" s="92" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>34</v>
@@ -1190,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1205,218 +1193,240 @@
       <c r="J2" s="1"/>
       <c r="K2" s="47">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" s="63">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="69" t="e">
+        <v>18</v>
+      </c>
+      <c r="M2" s="69">
         <f>L2/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="N2" s="58" t="str">
+        <f>C1</f>
+        <v>Roos</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
       <c r="C3" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="10"/>
       <c r="L3" s="64">
         <f>D8+D16+D24+D32+D47+D55+D63+D71+D79+D87+D95+D103+D118+D126+D134+D142+D150+D158+D166+D174</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="70" t="e">
+        <v>17</v>
+      </c>
+      <c r="M3" s="70">
         <f>L3/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="N3" s="59" t="str">
+        <f>D1</f>
+        <v>Harold</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
       <c r="C4" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="10"/>
       <c r="L4" s="65">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="71" t="e">
+        <v>19</v>
+      </c>
+      <c r="M4" s="71">
         <f>L4/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="N4" s="60" t="str">
+        <f>E1</f>
+        <v>Patrick</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
       <c r="C5" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="50">
         <v>0</v>
       </c>
       <c r="I5" s="51">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="66">
         <f>F8+F16+F24+F32+F47+F55+F63+F71+F79+F87+F95+F103+F118+F126+F134+F142+F150+F158+F166+F174</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="72" t="e">
+        <v>19</v>
+      </c>
+      <c r="M5" s="72">
         <f>L5/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="N5" s="61" t="str">
+        <f>F1</f>
+        <v>Erwin</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
       <c r="C6" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="50">
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="51">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="67">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="73" t="e">
+        <v>19</v>
+      </c>
+      <c r="M6" s="73">
         <f>L6/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="N6" s="41" t="str">
+        <f>G1</f>
+        <v>Sven</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13">
+        <v>8</v>
+      </c>
       <c r="C7" s="115">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" s="113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="113">
         <v>0</v>
       </c>
       <c r="I7" s="114">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="68">
         <f>H8+H87+H24+H32+H47+H55+H63+H71+H79+H95+H103+H118+H126+H134+H142+H150+H158+H166+H174+H16</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="74" t="e">
+        <v>9</v>
+      </c>
+      <c r="M7" s="74">
         <f>L7/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>47</v>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="N7" s="62" t="str">
+        <f>H1</f>
+        <v>Paco</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1424,48 +1434,50 @@
         <v>7</v>
       </c>
       <c r="B8" s="47">
-        <v>0</v>
+        <f>SUM(B3:B7)</f>
+        <v>19</v>
       </c>
       <c r="C8" s="97">
         <f t="shared" ref="C8:G8" si="0">SUM(C3:C7)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F8" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G8" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H8" s="98">
         <f>SUM(H3:H7)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I8" s="99">
         <f>SUM(I3:I7)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="10"/>
       <c r="L8" s="53">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="54" t="e">
+        <v>19</v>
+      </c>
+      <c r="M8" s="54">
         <f>L8/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="N8" s="57" t="str">
+        <f>I1</f>
+        <v>Danial</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1495,9 +1507,9 @@
       <c r="L10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42">
         <f>SUM(M2:M9)</f>
-        <v>#DIV/0!</v>
+        <v>6.3157894736842106</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12588"/>
@@ -13,16 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$D$1:$D$175</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="81">
   <si>
     <t>Maandag</t>
   </si>
@@ -211,6 +206,60 @@
   </si>
   <si>
     <t>Gemotiveerd, nam feedback van level design feedback sessie goed op</t>
+  </si>
+  <si>
+    <t>Gemotiveerd, wist niet dat workflow ook gamelab is</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>wilt aan eigen project werken tijdens workflow, wilt geen face to face afspraken maken</t>
+  </si>
+  <si>
+    <t>Gemotiveerd, pakt level design velen malen beter op</t>
+  </si>
+  <si>
+    <t>tandarts, niet thuis gewerkt</t>
+  </si>
+  <si>
+    <t>Ongemotiveerd, let niet op bij programmer besprekingen</t>
+  </si>
+  <si>
+    <t>Afgeleid omdat ze niet wist wat ze kon doen, pakte werk op na uitleg wat ze kon doen</t>
+  </si>
+  <si>
+    <t>Voelt zich misselijk, wilt thuis werken</t>
+  </si>
+  <si>
+    <t>Half uur te laat, niet gemeld</t>
+  </si>
+  <si>
+    <t>half uur te laat, niet gemeld</t>
+  </si>
+  <si>
+    <t>Harold tandarts</t>
+  </si>
+  <si>
+    <t>Harold onwel thuis vanwege tandarts afspraak van afgelopen donderdag</t>
+  </si>
+  <si>
+    <t>onwel door tandarts afspraak, wilt thuis werken heeft praktisch niks gedaaan met feedback op GDD</t>
+  </si>
+  <si>
+    <t>Bus vertraging, heeft het gemeld.</t>
+  </si>
+  <si>
+    <t>Pakte de draad weer op, veranderde zijn houding is niet gaan gamen.</t>
+  </si>
+  <si>
+    <t>Gemotiveerd, heeft door dat hij minder tijd in 1 bepaald stuk moet stoppen</t>
+  </si>
+  <si>
+    <t>Gemotiveerd, uml zelf opgepakt</t>
+  </si>
+  <si>
+    <t>gemotiveerd, neemt suggesties voor komende teamlead taak goed op</t>
   </si>
 </sst>
 </file>
@@ -624,7 +673,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -956,6 +1005,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -971,9 +1023,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1234,7 +1283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1253,11 +1302,11 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="120" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="30.5546875" style="120" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="10.88671875" style="120" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="76.77734375" style="120" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="10.88671875" style="120" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="32.109375" style="120" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="10.88671875" style="120" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="10.88671875" style="120" customWidth="1"/>
@@ -1265,7 +1314,7 @@
     <col min="13" max="13" width="10.88671875" style="120" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="10.88671875" style="120" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="13.44140625" style="120" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
@@ -1340,15 +1389,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>1.1578947368421053</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1408,11 +1457,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>1.1052631578947369</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1472,11 +1521,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>1.2105263157894737</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1523,24 +1572,24 @@
       <c r="M5" s="49">
         <v>0</v>
       </c>
-      <c r="N5" s="49"/>
+      <c r="N5" s="49" t="s">
+        <v>64</v>
+      </c>
       <c r="O5" s="128">
         <v>2</v>
       </c>
-      <c r="P5" s="49" t="s">
-        <v>52</v>
-      </c>
+      <c r="P5" s="49"/>
       <c r="Q5" s="125" t="s">
         <v>49</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>1.2105263157894737</v>
+        <v>1.1052631578947369</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1600,11 +1649,11 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
-        <v>1.2105263157894737</v>
+        <v>1.1052631578947369</v>
       </c>
       <c r="U6" s="40" t="str">
         <f>K1</f>
@@ -1656,11 +1705,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.94736842105263153</v>
+        <v>0.97368421052631582</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1714,11 +1763,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>23</v>
+        <v>41.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>1.2105263157894737</v>
+        <v>1.0921052631578947</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1768,14 +1817,16 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>8.0526315789473681</v>
+        <v>7.1447368421052637</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="85">
+        <v>4</v>
+      </c>
       <c r="C11" s="48">
         <v>4</v>
       </c>
@@ -1815,9 +1866,7 @@
       <c r="O11" s="50">
         <v>4</v>
       </c>
-      <c r="P11" s="50" t="s">
-        <v>61</v>
-      </c>
+      <c r="P11" s="50"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
@@ -1825,33 +1874,47 @@
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="85"/>
+      <c r="B12" s="85">
+        <v>4</v>
+      </c>
       <c r="C12" s="48">
-        <v>0</v>
-      </c>
-      <c r="D12" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="49">
-        <v>0</v>
-      </c>
-      <c r="F12" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="49">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="K12" s="49">
-        <v>0</v>
-      </c>
-      <c r="L12" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="M12" s="49">
-        <v>0</v>
-      </c>
-      <c r="N12" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="O12" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="50"/>
       <c r="Q12" s="83"/>
@@ -1864,35 +1927,49 @@
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="85">
+        <v>2</v>
+      </c>
       <c r="C13" s="48">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="49">
-        <v>0</v>
-      </c>
-      <c r="F13" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="K13" s="49">
-        <v>0</v>
-      </c>
-      <c r="L13" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="M13" s="49">
-        <v>0</v>
-      </c>
-      <c r="N13" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="O13" s="50">
-        <v>0</v>
-      </c>
-      <c r="P13" s="50"/>
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>72</v>
+      </c>
       <c r="Q13" s="83"/>
       <c r="R13" s="10"/>
       <c r="S13" s="75" t="s">
@@ -1903,36 +1980,50 @@
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="85">
+        <v>1</v>
+      </c>
       <c r="C14" s="48">
-        <v>0</v>
-      </c>
-      <c r="D14" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="49">
         <v>0</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="K14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="M14" s="49">
-        <v>0</v>
-      </c>
-      <c r="N14" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="O14" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="50"/>
-      <c r="Q14" s="83"/>
+      <c r="Q14" s="83" t="s">
+        <v>73</v>
+      </c>
       <c r="R14" s="10"/>
       <c r="S14" s="76" t="s">
         <v>38</v>
@@ -1942,36 +2033,52 @@
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="85">
+        <v>8</v>
+      </c>
       <c r="C15" s="114">
-        <v>0</v>
-      </c>
-      <c r="D15" s="112"/>
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>71</v>
+      </c>
       <c r="E15" s="112">
-        <v>0</v>
-      </c>
-      <c r="F15" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="112">
-        <v>0</v>
-      </c>
-      <c r="H15" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="112" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="112">
-        <v>0</v>
-      </c>
-      <c r="J15" s="112"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>61</v>
+      </c>
       <c r="K15" s="112">
-        <v>0</v>
-      </c>
-      <c r="L15" s="112"/>
+        <v>8</v>
+      </c>
+      <c r="L15" s="112" t="s">
+        <v>61</v>
+      </c>
       <c r="M15" s="112">
-        <v>0</v>
-      </c>
-      <c r="N15" s="112"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="112" t="s">
+        <v>61</v>
+      </c>
       <c r="O15" s="113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P15" s="50"/>
-      <c r="Q15" s="83"/>
+      <c r="Q15" s="83" t="s">
+        <v>74</v>
+      </c>
       <c r="R15" s="10"/>
       <c r="S15" s="77" t="s">
         <v>39</v>
@@ -1981,42 +2088,43 @@
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="42">
-        <v>0</v>
+      <c r="B16" s="46">
+        <f>SUM(B11:B15)</f>
+        <v>19</v>
       </c>
       <c r="C16" s="97">
         <f t="shared" ref="C16:K16" si="1">SUM(C11:C15)</f>
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="97">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="97">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H16" s="97"/>
       <c r="I16" s="97">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="97">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L16" s="97"/>
       <c r="M16" s="97">
         <f>SUM(M11:M15)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N16" s="97"/>
-      <c r="O16" s="97">
+      <c r="O16" s="131">
         <f>SUM(O11:O15)</f>
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="P16" s="97"/>
       <c r="Q16" s="84"/>
@@ -2070,31 +2178,43 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="48">
-        <v>0</v>
-      </c>
-      <c r="D19" s="49"/>
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="49">
-        <v>0</v>
-      </c>
-      <c r="F19" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="49">
-        <v>0</v>
-      </c>
-      <c r="H19" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="I19" s="49">
-        <v>0</v>
-      </c>
-      <c r="J19" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="K19" s="49">
-        <v>0</v>
-      </c>
-      <c r="L19" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="M19" s="49">
-        <v>0</v>
-      </c>
-      <c r="N19" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="O19" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P19" s="50"/>
       <c r="Q19" s="83"/>
@@ -2253,37 +2373,37 @@
       </c>
       <c r="C24" s="96">
         <f t="shared" ref="C24:K24" si="2">SUM(C19:C23)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="97"/>
       <c r="G24" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="97"/>
       <c r="K24" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97">
         <f>SUM(M19:M23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" s="97"/>
       <c r="O24" s="97">
         <f>SUM(O19:O23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P24" s="97"/>
       <c r="Q24" s="39"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Desktop\Gamelab2\Algemeen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12588"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23250" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$D$1:$D$175</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Maandag</t>
   </si>
@@ -260,6 +265,12 @@
   </si>
   <si>
     <t>gemotiveerd, neemt suggesties voor komende teamlead taak goed op</t>
+  </si>
+  <si>
+    <t>Danial GameJam</t>
+  </si>
+  <si>
+    <t>Werkt redelijk door.</t>
   </si>
 </sst>
 </file>
@@ -1012,17 +1023,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Invoer" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1283,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1293,36 +1307,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="120" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="120" customWidth="1"/>
-    <col min="6" max="6" width="76.77734375" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="120" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="120" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="120" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="120" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="120" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="120" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="76.7109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.42578125" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1389,22 +1403,22 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>1.0526315789473684</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1457,18 +1471,18 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.86842105263157898</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1521,18 +1535,18 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.94736842105263153</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1585,18 +1599,18 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>1.1052631578947369</v>
+        <v>1</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1649,18 +1663,18 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
-        <v>1.1052631578947369</v>
+        <v>1</v>
       </c>
       <c r="U6" s="40" t="str">
         <f>K1</f>
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1705,18 +1719,18 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.97368421052631582</v>
+        <v>0.89130434782608692</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1767,14 +1781,14 @@
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>1.0921052631578947</v>
+        <v>0.90217391304347827</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
@@ -1791,7 +1805,7 @@
       <c r="P9" s="99"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
@@ -1817,10 +1831,10 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>7.1447368421052637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.4239130434782608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1884,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
@@ -2150,7 +2164,7 @@
       <c r="P17" s="99"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2172,11 +2186,13 @@
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
       <c r="C19" s="48">
         <v>3.5</v>
       </c>
@@ -2220,43 +2236,59 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
       <c r="C20" s="48">
-        <v>0</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49">
-        <v>0</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49">
-        <v>0</v>
-      </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49">
-        <v>0</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49">
-        <v>0</v>
-      </c>
-      <c r="N20" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="O20" s="50">
         <v>0</v>
       </c>
       <c r="P20" s="50"/>
-      <c r="Q20" s="83"/>
+      <c r="Q20" s="83" t="s">
+        <v>81</v>
+      </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2324,7 @@
       <c r="Q21" s="83"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2360,7 @@
       <c r="Q22" s="83"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2364,41 +2396,41 @@
       <c r="Q23" s="83"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C24" s="96">
         <f t="shared" ref="C24:K24" si="2">SUM(C19:C23)</f>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="97"/>
       <c r="G24" s="97">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="97">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J24" s="97"/>
       <c r="K24" s="97">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97">
         <f>SUM(M19:M23)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N24" s="97"/>
       <c r="O24" s="97">
@@ -2409,7 +2441,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -2425,7 +2457,7 @@
       <c r="O25" s="99"/>
       <c r="P25" s="99"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2447,7 +2479,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2515,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2551,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2555,7 +2587,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2591,7 +2623,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2659,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2704,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="99"/>
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
@@ -2688,7 +2720,7 @@
       <c r="O33" s="99"/>
       <c r="P33" s="99"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +2742,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2764,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>1</v>
       </c>
@@ -2754,7 +2786,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2810,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>3</v>
       </c>
@@ -2800,7 +2832,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2854,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
@@ -2838,7 +2870,7 @@
       <c r="O40" s="99"/>
       <c r="P40" s="99"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2860,7 +2892,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2928,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -2932,7 +2964,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +3000,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +3036,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3072,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3117,7 @@
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="99"/>
       <c r="D48" s="99"/>
       <c r="E48" s="99"/>
@@ -3101,7 +3133,7 @@
       <c r="O48" s="99"/>
       <c r="P48" s="99"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3123,7 +3155,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3191,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3195,7 +3227,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3231,7 +3263,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3267,7 +3299,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3303,7 +3335,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -3348,7 +3380,7 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="99"/>
       <c r="D56" s="99"/>
       <c r="E56" s="99"/>
@@ -3364,7 +3396,7 @@
       <c r="O56" s="99"/>
       <c r="P56" s="99"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -3386,7 +3418,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3454,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3458,7 +3490,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3526,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3562,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -3566,7 +3598,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3643,7 @@
       <c r="Q63" s="44"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="115"/>
       <c r="D64" s="115"/>
@@ -3629,7 +3661,7 @@
       <c r="P64" s="115"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -3651,7 +3683,7 @@
       <c r="Q65" s="24"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3719,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3723,7 +3755,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3759,7 +3791,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3795,7 +3827,7 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3831,7 +3863,7 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +3908,7 @@
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="99"/>
       <c r="D72" s="99"/>
       <c r="E72" s="99"/>
@@ -3892,7 +3924,7 @@
       <c r="O72" s="99"/>
       <c r="P72" s="99"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -3914,7 +3946,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +3982,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -3986,7 +4018,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4022,7 +4054,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4058,7 +4090,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -4094,7 +4126,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -4139,7 +4171,7 @@
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="99"/>
       <c r="D80" s="99"/>
       <c r="E80" s="99"/>
@@ -4155,7 +4187,7 @@
       <c r="O80" s="99"/>
       <c r="P80" s="99"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -4177,7 +4209,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4213,7 +4245,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4281,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4285,7 +4317,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4353,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -4357,7 +4389,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -4402,7 +4434,7 @@
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="99"/>
       <c r="D88" s="99"/>
       <c r="E88" s="99"/>
@@ -4418,7 +4450,7 @@
       <c r="O88" s="99"/>
       <c r="P88" s="99"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -4440,7 +4472,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4508,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4512,7 +4544,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -4548,7 +4580,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -4584,7 +4616,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -4620,7 +4652,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4697,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="99"/>
       <c r="D96" s="99"/>
       <c r="E96" s="99"/>
@@ -4681,7 +4713,7 @@
       <c r="O96" s="99"/>
       <c r="P96" s="99"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4735,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -4739,7 +4771,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4807,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -4811,7 +4843,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -4847,7 +4879,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4915,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -4928,7 +4960,7 @@
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="99"/>
       <c r="D104" s="99"/>
       <c r="E104" s="99"/>
@@ -4944,7 +4976,7 @@
       <c r="O104" s="99"/>
       <c r="P104" s="99"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>24</v>
       </c>
@@ -4966,7 +4998,7 @@
       <c r="Q105" s="17"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>0</v>
       </c>
@@ -4988,7 +5020,7 @@
       <c r="Q106" s="19"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -5010,7 +5042,7 @@
       <c r="Q107" s="19"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>2</v>
       </c>
@@ -5034,7 +5066,7 @@
       <c r="Q108" s="19"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5088,7 @@
       <c r="Q109" s="19"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>4</v>
       </c>
@@ -5078,7 +5110,7 @@
       <c r="Q110" s="21"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="99"/>
       <c r="D111" s="99"/>
       <c r="E111" s="99"/>
@@ -5094,7 +5126,7 @@
       <c r="O111" s="99"/>
       <c r="P111" s="99"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -5116,7 +5148,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +5184,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -5188,7 +5220,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -5224,7 +5256,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -5260,7 +5292,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5328,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -5341,7 +5373,7 @@
       <c r="Q118" s="39"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="99"/>
       <c r="D119" s="99"/>
       <c r="E119" s="99"/>
@@ -5357,7 +5389,7 @@
       <c r="O119" s="99"/>
       <c r="P119" s="99"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -5379,7 +5411,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -5415,7 +5447,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -5451,7 +5483,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5519,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -5523,7 +5555,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -5559,7 +5591,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -5604,7 +5636,7 @@
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="99"/>
       <c r="D127" s="99"/>
       <c r="E127" s="99"/>
@@ -5620,7 +5652,7 @@
       <c r="O127" s="99"/>
       <c r="P127" s="99"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -5642,7 +5674,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5710,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -5714,7 +5746,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -5750,7 +5782,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5818,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -5822,7 +5854,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -5867,7 +5899,7 @@
       <c r="Q134" s="39"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="99"/>
       <c r="D135" s="99"/>
       <c r="E135" s="99"/>
@@ -5883,7 +5915,7 @@
       <c r="O135" s="99"/>
       <c r="P135" s="99"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -5905,7 +5937,7 @@
       <c r="Q136" s="24"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +5973,7 @@
       <c r="Q137" s="26"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -5977,7 +6009,7 @@
       <c r="Q138" s="26"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -6013,7 +6045,7 @@
       <c r="Q139" s="26"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -6049,7 +6081,7 @@
       <c r="Q140" s="26"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -6085,7 +6117,7 @@
       <c r="Q141" s="28"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -6130,7 +6162,7 @@
       <c r="Q142" s="121"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="29"/>
       <c r="C143" s="99"/>
       <c r="D143" s="99"/>
@@ -6148,7 +6180,7 @@
       <c r="P143" s="99"/>
       <c r="Q143" s="30"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -6170,7 +6202,7 @@
       <c r="Q144" s="24"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -6206,7 +6238,7 @@
       <c r="Q145" s="26"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -6242,7 +6274,7 @@
       <c r="Q146" s="26"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -6278,7 +6310,7 @@
       <c r="Q147" s="26"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6346,7 @@
       <c r="Q148" s="26"/>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -6350,7 +6382,7 @@
       <c r="Q149" s="28"/>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -6395,7 +6427,7 @@
       <c r="Q150" s="39"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C151" s="99"/>
       <c r="D151" s="99"/>
       <c r="E151" s="99"/>
@@ -6411,7 +6443,7 @@
       <c r="O151" s="99"/>
       <c r="P151" s="99"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -6433,7 +6465,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6501,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6537,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -6541,7 +6573,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -6577,7 +6609,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -6613,7 +6645,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -6658,7 +6690,7 @@
       <c r="Q158" s="39"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C159" s="99"/>
       <c r="D159" s="99"/>
       <c r="E159" s="99"/>
@@ -6674,7 +6706,7 @@
       <c r="O159" s="99"/>
       <c r="P159" s="99"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -6696,7 +6728,7 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -6732,7 +6764,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -6768,7 +6800,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -6804,7 +6836,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -6840,7 +6872,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -6876,7 +6908,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -6921,7 +6953,7 @@
       <c r="Q166" s="39"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C167" s="99"/>
       <c r="D167" s="99"/>
       <c r="E167" s="99"/>
@@ -6937,7 +6969,7 @@
       <c r="O167" s="99"/>
       <c r="P167" s="99"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -6959,7 +6991,7 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -6995,7 +7027,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -7031,7 +7063,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -7067,7 +7099,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -7103,7 +7135,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -7139,7 +7171,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -7184,7 +7216,7 @@
       <c r="Q174" s="39"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C175" s="99"/>
       <c r="D175" s="99"/>
       <c r="E175" s="99"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23250" windowHeight="12585"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23250" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="89">
   <si>
     <t>Maandag</t>
   </si>
@@ -271,6 +271,24 @@
   </si>
   <si>
     <t>Werkt redelijk door.</t>
+  </si>
+  <si>
+    <t>Treinlater genomen iets te laat.</t>
+  </si>
+  <si>
+    <t>Werkt redelijk door, maar nog wel veel filmpjes.</t>
+  </si>
+  <si>
+    <t>heeft moeite met het overleggen van GDD.</t>
+  </si>
+  <si>
+    <t>Gemotiveerd, werkt goed door</t>
+  </si>
+  <si>
+    <t>Was bezig met eigen project en kreeg een weerwoord van hem. Vond ik niet kunnen.</t>
+  </si>
+  <si>
+    <t>goed gewerkt</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1326,7 @@
   <dimension ref="A1:U175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1322,8 +1340,8 @@
     <col min="7" max="7" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" style="120" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.85546875" style="120" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1403,15 +1421,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.95652173913043481</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1471,11 +1489,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.80434782608695654</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1535,11 +1553,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.86956521739130432</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1599,7 +1617,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
@@ -1663,7 +1681,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1719,11 +1737,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.89130434782608692</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1781,7 +1799,7 @@
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.90217391304347827</v>
+        <v>0.78301886792452835</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1831,7 +1849,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4239130434782608</v>
+        <v>6.3490566037735841</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,14 +2276,14 @@
       <c r="G20" s="7">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
+      <c r="H20" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="I20" s="7">
         <v>4</v>
       </c>
-      <c r="J20" s="7">
-        <v>4</v>
+      <c r="J20" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="7">
         <v>4</v>
@@ -2292,103 +2310,145 @@
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
       <c r="C21" s="48">
-        <v>0</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49">
-        <v>0</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49">
-        <v>0</v>
-      </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49">
-        <v>0</v>
-      </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="48">
+        <v>2</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="48">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="48">
+        <v>2</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="48">
+        <v>2</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="48">
+        <v>2</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="48">
         <v>0</v>
       </c>
       <c r="P21" s="50"/>
-      <c r="Q21" s="83"/>
+      <c r="Q21" s="83" t="s">
+        <v>81</v>
+      </c>
       <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
       <c r="C22" s="48">
-        <v>0</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49">
-        <v>0</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49">
-        <v>0</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49">
-        <v>0</v>
-      </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49">
-        <v>0</v>
-      </c>
-      <c r="N22" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="48">
+        <v>1</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="48">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="48">
+        <v>1</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="48">
+        <v>1</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="48">
+        <v>1</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="O22" s="50">
         <v>0</v>
       </c>
       <c r="P22" s="50"/>
-      <c r="Q22" s="83"/>
+      <c r="Q22" s="83" t="s">
+        <v>81</v>
+      </c>
       <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
       <c r="C23" s="114">
-        <v>0</v>
-      </c>
-      <c r="D23" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>83</v>
+      </c>
       <c r="E23" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="112"/>
       <c r="G23" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="112">
-        <v>0</v>
-      </c>
-      <c r="J23" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="K23" s="112">
-        <v>0</v>
-      </c>
-      <c r="L23" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="M23" s="112">
-        <v>0</v>
-      </c>
-      <c r="N23" s="112"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="O23" s="113">
         <v>0</v>
       </c>
@@ -2401,36 +2461,36 @@
         <v>5</v>
       </c>
       <c r="B24" s="46">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C24" s="96">
         <f t="shared" ref="C24:K24" si="2">SUM(C19:C23)</f>
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="97">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F24" s="97"/>
       <c r="G24" s="97">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="97">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J24" s="97"/>
       <c r="K24" s="97">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97">
         <f>SUM(M19:M23)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N24" s="97"/>
       <c r="O24" s="97">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Desktop\Gamelab2\Algemeen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23250" windowHeight="12585"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23256" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$D$1:$D$175</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>Maandag</t>
   </si>
@@ -267,9 +262,6 @@
     <t>gemotiveerd, neemt suggesties voor komende teamlead taak goed op</t>
   </si>
   <si>
-    <t>Danial GameJam</t>
-  </si>
-  <si>
     <t>Werkt redelijk door.</t>
   </si>
   <si>
@@ -289,6 +281,18 @@
   </si>
   <si>
     <t>goed gewerkt</t>
+  </si>
+  <si>
+    <t>Danial Casual Connect</t>
+  </si>
+  <si>
+    <t>Danial Ziek</t>
+  </si>
+  <si>
+    <t>Presentaties</t>
+  </si>
+  <si>
+    <t>Na vakantie moeheid, wel goed aan het werk</t>
   </si>
 </sst>
 </file>
@@ -702,7 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1039,13 +1043,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Invoer" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,36 +1335,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41:M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="120" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="76.7109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.85546875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.85546875" style="120" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.85546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.85546875" style="120" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.42578125" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="120" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="76.6640625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.44140625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1421,22 +1431,22 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.94339622641509435</v>
+        <v>0.95945945945945943</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1489,18 +1499,18 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.83018867924528306</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1553,18 +1563,18 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.8867924528301887</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1627,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
@@ -1628,7 +1638,7 @@
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1691,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1692,7 +1702,7 @@
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1737,18 +1747,18 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.90566037735849059</v>
+        <v>0.93243243243243246</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1795,18 +1805,18 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>41.5</v>
+        <v>58.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.78301886792452835</v>
+        <v>0.79054054054054057</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
@@ -1849,7 +1859,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.3490566037735841</v>
+        <v>6.4797297297297289</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1912,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2130,7 @@
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="42">
         <f>SUM(B11:B15)</f>
         <v>19</v>
       </c>
@@ -2182,7 +2192,7 @@
       <c r="P17" s="99"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2214,7 @@
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2254,163 +2264,163 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10">
-        <v>4</v>
-      </c>
-      <c r="C20" s="48">
+      <c r="B20" s="85">
+        <v>4</v>
+      </c>
+      <c r="C20" s="49">
         <v>4</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="10">
         <v>4</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="7">
-        <v>4</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="7">
-        <v>4</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="K20" s="10">
         <v>4</v>
       </c>
       <c r="L20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="10">
         <v>4</v>
       </c>
       <c r="N20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="49">
         <v>0</v>
       </c>
       <c r="P20" s="50"/>
       <c r="Q20" s="83" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="85">
         <v>2</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>2</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="49">
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="48">
+        <v>84</v>
+      </c>
+      <c r="G21" s="49">
         <v>2</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="49">
         <v>2</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="48">
+      <c r="J21" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="49">
         <v>2</v>
       </c>
       <c r="L21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="49">
         <v>2</v>
       </c>
       <c r="N21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="49">
         <v>0</v>
       </c>
       <c r="P21" s="50"/>
       <c r="Q21" s="83" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="49">
         <v>1</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="49">
         <v>1</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="48">
+        <v>83</v>
+      </c>
+      <c r="G22" s="49">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="49">
         <v>1</v>
       </c>
-      <c r="J22" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="48">
+      <c r="J22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="49">
         <v>1</v>
       </c>
       <c r="L22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="48">
+      <c r="M22" s="49">
         <v>1</v>
       </c>
       <c r="N22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="49">
         <v>0</v>
       </c>
       <c r="P22" s="50"/>
       <c r="Q22" s="83" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2421,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="112">
         <v>4</v>
@@ -2434,8 +2444,8 @@
       <c r="I23" s="112">
         <v>4</v>
       </c>
-      <c r="J23" s="48" t="s">
-        <v>88</v>
+      <c r="J23" s="112" t="s">
+        <v>87</v>
       </c>
       <c r="K23" s="112">
         <v>4</v>
@@ -2453,14 +2463,17 @@
         <v>0</v>
       </c>
       <c r="P23" s="50"/>
-      <c r="Q23" s="83"/>
+      <c r="Q23" s="83" t="s">
+        <v>89</v>
+      </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="46">
+        <f>SUM(B18:B23)</f>
         <v>15</v>
       </c>
       <c r="C24" s="96">
@@ -2482,7 +2495,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J24" s="97"/>
+      <c r="J24" s="133"/>
       <c r="K24" s="97">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2501,7 +2514,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -2517,7 +2530,7 @@
       <c r="O25" s="99"/>
       <c r="P25" s="99"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2539,232 +2552,247 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10">
+        <v>4</v>
+      </c>
       <c r="C27" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="49"/>
       <c r="M27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" s="49"/>
       <c r="O27" s="50">
         <v>0</v>
       </c>
       <c r="P27" s="50"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10">
+        <v>4</v>
+      </c>
       <c r="C28" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="49"/>
       <c r="O28" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28" s="50"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10">
+        <v>4</v>
+      </c>
       <c r="C29" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29" s="49"/>
       <c r="M29" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="49"/>
       <c r="O29" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P29" s="50"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
       <c r="C30" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="49"/>
       <c r="K30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="49"/>
       <c r="M30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="49"/>
       <c r="O30" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="50"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
       <c r="C31" s="114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="112"/>
       <c r="E31" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="112"/>
       <c r="I31" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="112"/>
       <c r="K31" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="112"/>
       <c r="M31" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="112"/>
       <c r="O31" s="113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P31" s="50"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="46">
-        <v>0</v>
+      <c r="B32" s="132">
+        <f>SUM(B27:B31)</f>
+        <v>17</v>
       </c>
       <c r="C32" s="96">
         <f t="shared" ref="C32:K32" si="3">SUM(C27:C31)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F32" s="97"/>
       <c r="G32" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H32" s="97"/>
       <c r="I32" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J32" s="97"/>
       <c r="K32" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L32" s="97"/>
       <c r="M32" s="97">
         <f>SUM(M27:M31)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N32" s="97"/>
       <c r="O32" s="97">
         <f>SUM(O27:O31)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P32" s="97"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="99"/>
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
@@ -2780,7 +2808,7 @@
       <c r="O33" s="99"/>
       <c r="P33" s="99"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -2802,7 +2830,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2852,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +2874,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>2</v>
       </c>
@@ -2870,7 +2898,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>3</v>
       </c>
@@ -2892,7 +2920,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2942,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
@@ -2930,7 +2958,7 @@
       <c r="O40" s="99"/>
       <c r="P40" s="99"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2952,43 +2980,59 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="10">
+        <v>4</v>
+      </c>
       <c r="C42" s="48">
-        <v>0</v>
-      </c>
-      <c r="D42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="G42" s="49">
-        <v>0</v>
-      </c>
-      <c r="H42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="I42" s="49">
-        <v>0</v>
-      </c>
-      <c r="J42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="K42" s="49">
-        <v>0</v>
-      </c>
-      <c r="L42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="M42" s="49">
-        <v>0</v>
-      </c>
-      <c r="N42" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N42" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="O42" s="50">
-        <v>0</v>
-      </c>
-      <c r="P42" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="P42" s="50" t="s">
+        <v>91</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +3068,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3104,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +3140,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -3132,52 +3176,53 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="42">
-        <v>0</v>
+        <f>SUM(B42:B46)</f>
+        <v>4</v>
       </c>
       <c r="C47" s="96">
         <f t="shared" ref="C47:K47" si="4">SUM(C42:C46)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47" s="97"/>
       <c r="E47" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" s="97"/>
       <c r="G47" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="97"/>
       <c r="I47" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" s="97"/>
       <c r="K47" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47" s="97"/>
       <c r="M47" s="97">
         <f>SUM(M42:M46)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N47" s="97"/>
       <c r="O47" s="97">
         <f>SUM(O42:O46)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P47" s="97"/>
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="99"/>
       <c r="D48" s="99"/>
       <c r="E48" s="99"/>
@@ -3193,7 +3238,7 @@
       <c r="O48" s="99"/>
       <c r="P48" s="99"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3215,7 +3260,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +3296,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3287,7 +3332,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3368,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3359,7 +3404,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3440,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +3485,7 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="99"/>
       <c r="D56" s="99"/>
       <c r="E56" s="99"/>
@@ -3456,7 +3501,7 @@
       <c r="O56" s="99"/>
       <c r="P56" s="99"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -3478,7 +3523,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3559,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3550,7 +3595,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3631,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3667,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -3658,7 +3703,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3748,7 @@
       <c r="Q63" s="44"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="115"/>
       <c r="D64" s="115"/>
@@ -3721,7 +3766,7 @@
       <c r="P64" s="115"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +3788,7 @@
       <c r="Q65" s="24"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3824,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3815,7 +3860,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3851,7 +3896,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3932,7 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3968,7 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +4013,7 @@
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="99"/>
       <c r="D72" s="99"/>
       <c r="E72" s="99"/>
@@ -3984,7 +4029,7 @@
       <c r="O72" s="99"/>
       <c r="P72" s="99"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -4006,7 +4051,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4087,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -4078,7 +4123,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4114,7 +4159,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4150,7 +4195,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -4186,7 +4231,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4276,7 @@
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="99"/>
       <c r="D80" s="99"/>
       <c r="E80" s="99"/>
@@ -4247,7 +4292,7 @@
       <c r="O80" s="99"/>
       <c r="P80" s="99"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -4269,7 +4314,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4350,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4341,7 +4386,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4377,7 +4422,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4413,7 +4458,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4494,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4539,7 @@
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="99"/>
       <c r="D88" s="99"/>
       <c r="E88" s="99"/>
@@ -4510,7 +4555,7 @@
       <c r="O88" s="99"/>
       <c r="P88" s="99"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -4532,7 +4577,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4613,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4604,7 +4649,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -4640,7 +4685,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -4676,7 +4721,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4757,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -4757,7 +4802,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C96" s="99"/>
       <c r="D96" s="99"/>
       <c r="E96" s="99"/>
@@ -4773,7 +4818,7 @@
       <c r="O96" s="99"/>
       <c r="P96" s="99"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
@@ -4795,7 +4840,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4876,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -4867,7 +4912,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -4903,7 +4948,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -4939,7 +4984,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -4975,7 +5020,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -5020,7 +5065,7 @@
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="99"/>
       <c r="D104" s="99"/>
       <c r="E104" s="99"/>
@@ -5036,7 +5081,7 @@
       <c r="O104" s="99"/>
       <c r="P104" s="99"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>24</v>
       </c>
@@ -5058,7 +5103,7 @@
       <c r="Q105" s="17"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>0</v>
       </c>
@@ -5080,7 +5125,7 @@
       <c r="Q106" s="19"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5147,7 @@
       <c r="Q107" s="19"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5171,7 @@
       <c r="Q108" s="19"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>3</v>
       </c>
@@ -5148,7 +5193,7 @@
       <c r="Q109" s="19"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="33" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5215,7 @@
       <c r="Q110" s="21"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="99"/>
       <c r="D111" s="99"/>
       <c r="E111" s="99"/>
@@ -5186,7 +5231,7 @@
       <c r="O111" s="99"/>
       <c r="P111" s="99"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -5208,7 +5253,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5244,7 +5289,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -5280,7 +5325,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -5316,7 +5361,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5397,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5433,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -5433,7 +5478,7 @@
       <c r="Q118" s="39"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="99"/>
       <c r="D119" s="99"/>
       <c r="E119" s="99"/>
@@ -5449,7 +5494,7 @@
       <c r="O119" s="99"/>
       <c r="P119" s="99"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -5471,7 +5516,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -5507,7 +5552,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -5543,7 +5588,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +5624,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -5615,7 +5660,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -5651,7 +5696,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -5696,7 +5741,7 @@
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="99"/>
       <c r="D127" s="99"/>
       <c r="E127" s="99"/>
@@ -5712,7 +5757,7 @@
       <c r="O127" s="99"/>
       <c r="P127" s="99"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -5734,7 +5779,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -5770,7 +5815,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -5806,7 +5851,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -5842,7 +5887,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -5878,7 +5923,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -5914,7 +5959,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -5959,7 +6004,7 @@
       <c r="Q134" s="39"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="99"/>
       <c r="D135" s="99"/>
       <c r="E135" s="99"/>
@@ -5975,7 +6020,7 @@
       <c r="O135" s="99"/>
       <c r="P135" s="99"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -5997,7 +6042,7 @@
       <c r="Q136" s="24"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +6078,7 @@
       <c r="Q137" s="26"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -6069,7 +6114,7 @@
       <c r="Q138" s="26"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -6105,7 +6150,7 @@
       <c r="Q139" s="26"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -6141,7 +6186,7 @@
       <c r="Q140" s="26"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -6177,7 +6222,7 @@
       <c r="Q141" s="28"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -6222,7 +6267,7 @@
       <c r="Q142" s="121"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="29"/>
       <c r="C143" s="99"/>
       <c r="D143" s="99"/>
@@ -6240,7 +6285,7 @@
       <c r="P143" s="99"/>
       <c r="Q143" s="30"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -6262,7 +6307,7 @@
       <c r="Q144" s="24"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -6298,7 +6343,7 @@
       <c r="Q145" s="26"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -6334,7 +6379,7 @@
       <c r="Q146" s="26"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -6370,7 +6415,7 @@
       <c r="Q147" s="26"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -6406,7 +6451,7 @@
       <c r="Q148" s="26"/>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -6442,7 +6487,7 @@
       <c r="Q149" s="28"/>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -6487,7 +6532,7 @@
       <c r="Q150" s="39"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="99"/>
       <c r="D151" s="99"/>
       <c r="E151" s="99"/>
@@ -6503,7 +6548,7 @@
       <c r="O151" s="99"/>
       <c r="P151" s="99"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -6525,7 +6570,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -6561,7 +6606,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -6597,7 +6642,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -6633,7 +6678,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -6669,7 +6714,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -6705,7 +6750,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +6795,7 @@
       <c r="Q158" s="39"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C159" s="99"/>
       <c r="D159" s="99"/>
       <c r="E159" s="99"/>
@@ -6766,7 +6811,7 @@
       <c r="O159" s="99"/>
       <c r="P159" s="99"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -6788,7 +6833,7 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +6869,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -6860,7 +6905,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -6896,7 +6941,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -6932,7 +6977,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
@@ -6968,7 +7013,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -7013,7 +7058,7 @@
       <c r="Q166" s="39"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C167" s="99"/>
       <c r="D167" s="99"/>
       <c r="E167" s="99"/>
@@ -7029,7 +7074,7 @@
       <c r="O167" s="99"/>
       <c r="P167" s="99"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -7051,7 +7096,7 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -7087,7 +7132,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -7123,7 +7168,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -7159,7 +7204,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -7195,7 +7240,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7276,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -7276,7 +7321,7 @@
       <c r="Q174" s="39"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C175" s="99"/>
       <c r="D175" s="99"/>
       <c r="E175" s="99"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="95">
   <si>
     <t>Maandag</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Na vakantie moeheid, wel goed aan het werk</t>
+  </si>
+  <si>
+    <t>After vakantie moeheid, wel goed aan het werk</t>
+  </si>
+  <si>
+    <t>Paco heeft de last van de griep</t>
+  </si>
+  <si>
+    <t>Paco ziek</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -911,25 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,6 +1038,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,28 +1351,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41:M42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="120" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="76.6640625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.109375" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.88671875" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="120" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.44140625" style="120" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="76.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.109375" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="70.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="58.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
@@ -1368,34 +1384,34 @@
       <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89" t="s">
+      <c r="H1" s="133"/>
+      <c r="I1" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91" t="s">
+      <c r="L1" s="135"/>
+      <c r="M1" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="124"/>
+      <c r="P1" s="118"/>
       <c r="Q1" s="51" t="s">
         <v>34</v>
       </c>
@@ -1409,44 +1425,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="95"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="89"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.95945945945945943</v>
+        <v>0.96341463414634143</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1489,28 +1505,28 @@
       <c r="N3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="128">
+      <c r="O3" s="122">
         <v>4</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="125"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.8783783783783784</v>
+        <v>0.8902439024390244</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1553,28 +1569,28 @@
       <c r="N4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="128">
+      <c r="O4" s="122">
         <v>3</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="125"/>
+      <c r="Q4" s="119"/>
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.91891891891891897</v>
+        <v>0.92682926829268297</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1617,17 +1633,17 @@
       <c r="N5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="122">
         <v>2</v>
       </c>
       <c r="P5" s="49"/>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="119" t="s">
         <v>49</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
@@ -1638,7 +1654,7 @@
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1681,17 +1697,17 @@
       <c r="N6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="128">
+      <c r="O6" s="122">
         <v>2</v>
       </c>
       <c r="P6" s="49"/>
-      <c r="Q6" s="125" t="s">
+      <c r="Q6" s="119" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1702,63 +1718,63 @@
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="C7" s="114">
+      <c r="C7" s="108">
         <v>8</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="112">
+      <c r="E7" s="106">
         <v>8</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="106">
         <v>8</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112">
+      <c r="H7" s="106"/>
+      <c r="I7" s="106">
         <v>8</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112">
+      <c r="J7" s="106"/>
+      <c r="K7" s="106">
         <v>8</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112">
+      <c r="L7" s="106"/>
+      <c r="M7" s="106">
         <v>5</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="129">
+      <c r="N7" s="106"/>
+      <c r="O7" s="123">
         <v>8</v>
       </c>
       <c r="P7" s="49"/>
-      <c r="Q7" s="126" t="s">
+      <c r="Q7" s="120" t="s">
         <v>59</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93243243243243246</v>
+        <v>0.91463414634146345</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1766,92 +1782,92 @@
         <f>SUM(B3:B7)</f>
         <v>19</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="90">
         <f t="shared" ref="C8:K8" si="0">SUM(C3:C7)</f>
         <v>18</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97">
+      <c r="F8" s="91"/>
+      <c r="G8" s="91">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97">
+      <c r="H8" s="91"/>
+      <c r="I8" s="91">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97">
+      <c r="J8" s="91"/>
+      <c r="K8" s="91">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97">
+      <c r="L8" s="91"/>
+      <c r="M8" s="91">
         <f>SUM(M3:M7)</f>
         <v>14</v>
       </c>
-      <c r="N8" s="97"/>
-      <c r="O8" s="130">
+      <c r="N8" s="91"/>
+      <c r="O8" s="124">
         <f>SUM(O3:O7)</f>
         <v>19</v>
       </c>
-      <c r="P8" s="98"/>
+      <c r="P8" s="92"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>58.5</v>
+        <v>66.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.79054054054054057</v>
+        <v>0.81097560975609762</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
+    <row r="9" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
       <c r="Q10" s="82"/>
       <c r="R10" s="10"/>
       <c r="S10" s="38" t="s">
@@ -1859,10 +1875,10 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4797297297297289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.5060975609756095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1928,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2071,50 +2087,50 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="85">
         <v>8</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="108">
         <v>7.5</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="106">
         <v>2</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="112">
-        <v>4</v>
-      </c>
-      <c r="H15" s="112" t="s">
+      <c r="G15" s="106">
+        <v>4</v>
+      </c>
+      <c r="H15" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="112">
+      <c r="I15" s="106">
         <v>8</v>
       </c>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="112">
+      <c r="K15" s="106">
         <v>8</v>
       </c>
-      <c r="L15" s="112" t="s">
+      <c r="L15" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="112">
+      <c r="M15" s="106">
         <v>8</v>
       </c>
-      <c r="N15" s="112" t="s">
+      <c r="N15" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="113">
+      <c r="O15" s="107">
         <v>8</v>
       </c>
       <c r="P15" s="50"/>
@@ -2126,7 +2142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
@@ -2134,87 +2150,87 @@
         <f>SUM(B11:B15)</f>
         <v>19</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="91">
         <f t="shared" ref="C16:K16" si="1">SUM(C11:C15)</f>
         <v>18.5</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97">
+      <c r="D16" s="91"/>
+      <c r="E16" s="91">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97">
+      <c r="F16" s="91"/>
+      <c r="G16" s="91">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97">
+      <c r="H16" s="91"/>
+      <c r="I16" s="91">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97">
+      <c r="J16" s="91"/>
+      <c r="K16" s="91">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97">
+      <c r="L16" s="91"/>
+      <c r="M16" s="91">
         <f>SUM(M11:M15)</f>
         <v>19</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="131">
+      <c r="N16" s="91"/>
+      <c r="O16" s="125">
         <f>SUM(O11:O15)</f>
         <v>18.5</v>
       </c>
-      <c r="P16" s="97"/>
+      <c r="P16" s="91"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="10"/>
       <c r="S16" s="78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
+    <row r="17" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2280,7 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2332,7 @@
       </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2384,7 @@
       </c>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2420,46 +2436,46 @@
       </c>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="108">
         <v>3</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="112">
-        <v>4</v>
-      </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112">
-        <v>4</v>
-      </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112">
-        <v>4</v>
-      </c>
-      <c r="J23" s="112" t="s">
+      <c r="E23" s="106">
+        <v>4</v>
+      </c>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106">
+        <v>4</v>
+      </c>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106">
+        <v>4</v>
+      </c>
+      <c r="J23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="112">
+      <c r="K23" s="106">
         <v>4</v>
       </c>
       <c r="L23" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="112">
+      <c r="M23" s="106">
         <v>4</v>
       </c>
       <c r="N23" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="107">
         <v>0</v>
       </c>
       <c r="P23" s="50"/>
@@ -2468,7 +2484,7 @@
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2476,83 +2492,83 @@
         <f>SUM(B18:B23)</f>
         <v>15</v>
       </c>
-      <c r="C24" s="96">
+      <c r="C24" s="90">
         <f t="shared" ref="C24:K24" si="2">SUM(C19:C23)</f>
         <v>13.5</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97">
+      <c r="F24" s="91"/>
+      <c r="G24" s="91">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97">
+      <c r="H24" s="91"/>
+      <c r="I24" s="91">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J24" s="133"/>
-      <c r="K24" s="97">
+      <c r="J24" s="127"/>
+      <c r="K24" s="91">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97">
+      <c r="L24" s="91"/>
+      <c r="M24" s="91">
         <f>SUM(M19:M23)</f>
         <v>15</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97">
+      <c r="N24" s="91"/>
+      <c r="O24" s="91">
         <f>SUM(O19:O23)</f>
         <v>4</v>
       </c>
-      <c r="P24" s="97"/>
+      <c r="P24" s="91"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+    </row>
+    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2608,7 @@
       </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2646,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2670,7 +2686,7 @@
       </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2708,279 +2724,279 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="114">
-        <v>4</v>
-      </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112">
-        <v>4</v>
-      </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112">
-        <v>4</v>
-      </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112">
-        <v>4</v>
-      </c>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112">
-        <v>4</v>
-      </c>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112">
-        <v>4</v>
-      </c>
-      <c r="N31" s="112"/>
-      <c r="O31" s="113">
+      <c r="C31" s="108">
+        <v>4</v>
+      </c>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106">
+        <v>4</v>
+      </c>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106">
+        <v>4</v>
+      </c>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106">
+        <v>4</v>
+      </c>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106">
+        <v>4</v>
+      </c>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106">
+        <v>4</v>
+      </c>
+      <c r="N31" s="106"/>
+      <c r="O31" s="107">
         <v>4</v>
       </c>
       <c r="P31" s="50"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="132">
+      <c r="B32" s="126">
         <f>SUM(B27:B31)</f>
         <v>17</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="90">
         <f t="shared" ref="C32:K32" si="3">SUM(C27:C31)</f>
         <v>17</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97">
+      <c r="D32" s="91"/>
+      <c r="E32" s="91">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97">
+      <c r="F32" s="91"/>
+      <c r="G32" s="91">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97">
+      <c r="H32" s="91"/>
+      <c r="I32" s="91">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97">
+      <c r="J32" s="91"/>
+      <c r="K32" s="91">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97">
+      <c r="L32" s="91"/>
+      <c r="M32" s="91">
         <f>SUM(M27:M31)</f>
         <v>17</v>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97">
+      <c r="N32" s="91"/>
+      <c r="O32" s="91">
         <f>SUM(O27:O31)</f>
         <v>13</v>
       </c>
-      <c r="P32" s="97"/>
+      <c r="P32" s="91"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+    </row>
+    <row r="34" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="122" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="122"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+    </row>
+    <row r="41" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2997,270 +3013,292 @@
         <v>4</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G42" s="49">
         <v>4</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I42" s="49">
         <v>4</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" s="49">
         <v>4</v>
       </c>
       <c r="L42" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M42" s="49">
         <v>4</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O42" s="50">
         <v>4</v>
       </c>
       <c r="P42" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10">
+        <v>4</v>
+      </c>
       <c r="C43" s="48">
-        <v>0</v>
-      </c>
-      <c r="D43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="E43" s="49">
-        <v>0</v>
-      </c>
-      <c r="F43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="G43" s="49">
-        <v>0</v>
-      </c>
-      <c r="H43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="I43" s="49">
-        <v>0</v>
-      </c>
-      <c r="J43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="K43" s="49">
-        <v>0</v>
-      </c>
-      <c r="L43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="M43" s="49">
-        <v>0</v>
-      </c>
-      <c r="N43" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="O43" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P43" s="50"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
       <c r="C44" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="49"/>
       <c r="M44" s="49">
         <v>0</v>
       </c>
-      <c r="N44" s="49"/>
+      <c r="N44" s="49" t="s">
+        <v>93</v>
+      </c>
       <c r="O44" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="2"/>
+      <c r="Q44" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
       <c r="C45" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="49"/>
       <c r="I45" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="49"/>
       <c r="M45" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="49"/>
       <c r="O45" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" s="50"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="114">
-        <v>0</v>
-      </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112">
-        <v>0</v>
-      </c>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112">
-        <v>0</v>
-      </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112">
-        <v>0</v>
-      </c>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112">
-        <v>0</v>
-      </c>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112">
-        <v>0</v>
-      </c>
-      <c r="N46" s="112"/>
-      <c r="O46" s="113">
-        <v>0</v>
-      </c>
-      <c r="P46" s="113"/>
+      <c r="C46" s="108">
+        <v>0</v>
+      </c>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106">
+        <v>0</v>
+      </c>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106">
+        <v>0</v>
+      </c>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106">
+        <v>0</v>
+      </c>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106">
+        <v>0</v>
+      </c>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106">
+        <v>0</v>
+      </c>
+      <c r="N46" s="106"/>
+      <c r="O46" s="107">
+        <v>0</v>
+      </c>
+      <c r="P46" s="107"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="42">
         <f>SUM(B42:B46)</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="96">
+        <v>12</v>
+      </c>
+      <c r="C47" s="90">
         <f t="shared" ref="C47:K47" si="4">SUM(C42:C46)</f>
-        <v>4</v>
-      </c>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97">
+        <v>12</v>
+      </c>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97">
+        <v>12</v>
+      </c>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97">
+        <v>12</v>
+      </c>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97">
+        <v>12</v>
+      </c>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97">
+        <v>12</v>
+      </c>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91">
         <f>SUM(M42:M46)</f>
-        <v>4</v>
-      </c>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97">
+        <v>10</v>
+      </c>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91">
         <f>SUM(O42:O46)</f>
-        <v>4</v>
-      </c>
-      <c r="P47" s="97"/>
+        <v>12</v>
+      </c>
+      <c r="P47" s="91"/>
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+    </row>
+    <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="95"/>
-      <c r="P49" s="95"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3334,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3370,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3406,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3404,126 +3442,126 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="114">
-        <v>0</v>
-      </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112">
-        <v>0</v>
-      </c>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112">
-        <v>0</v>
-      </c>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112">
-        <v>0</v>
-      </c>
-      <c r="J54" s="112"/>
-      <c r="K54" s="112">
-        <v>0</v>
-      </c>
-      <c r="L54" s="112"/>
-      <c r="M54" s="112">
-        <v>0</v>
-      </c>
-      <c r="N54" s="112"/>
-      <c r="O54" s="113">
-        <v>0</v>
-      </c>
-      <c r="P54" s="113"/>
+      <c r="C54" s="108">
+        <v>0</v>
+      </c>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106">
+        <v>0</v>
+      </c>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106">
+        <v>0</v>
+      </c>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106">
+        <v>0</v>
+      </c>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106">
+        <v>0</v>
+      </c>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106">
+        <v>0</v>
+      </c>
+      <c r="N54" s="106"/>
+      <c r="O54" s="107">
+        <v>0</v>
+      </c>
+      <c r="P54" s="107"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="46">
         <v>0</v>
       </c>
-      <c r="C55" s="96">
+      <c r="C55" s="90">
         <f t="shared" ref="C55:K55" si="5">SUM(C50:C54)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97">
+      <c r="D55" s="91"/>
+      <c r="E55" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97">
+      <c r="F55" s="91"/>
+      <c r="G55" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97">
+      <c r="H55" s="91"/>
+      <c r="I55" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97">
+      <c r="J55" s="91"/>
+      <c r="K55" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97">
+      <c r="L55" s="91"/>
+      <c r="M55" s="91">
         <f>SUM(M50:M54)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="97"/>
-      <c r="O55" s="98">
+      <c r="N55" s="91"/>
+      <c r="O55" s="92">
         <f>SUM(O50:O54)</f>
         <v>0</v>
       </c>
-      <c r="P55" s="98"/>
+      <c r="P55" s="92"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="93"/>
+    </row>
+    <row r="57" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +3597,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3633,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3631,7 +3669,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -3667,128 +3705,129 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="114">
-        <v>0</v>
-      </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112">
-        <v>0</v>
-      </c>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112">
-        <v>0</v>
-      </c>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112">
-        <v>0</v>
-      </c>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112">
-        <v>0</v>
-      </c>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112">
-        <v>0</v>
-      </c>
-      <c r="N62" s="112"/>
-      <c r="O62" s="113">
-        <v>0</v>
-      </c>
-      <c r="P62" s="113"/>
+      <c r="C62" s="108">
+        <v>0</v>
+      </c>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106">
+        <v>0</v>
+      </c>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106">
+        <v>0</v>
+      </c>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106">
+        <v>0</v>
+      </c>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106">
+        <v>0</v>
+      </c>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106">
+        <v>0</v>
+      </c>
+      <c r="N62" s="106"/>
+      <c r="O62" s="107">
+        <v>0</v>
+      </c>
+      <c r="P62" s="107"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="46">
         <v>0</v>
       </c>
-      <c r="C63" s="96">
+      <c r="C63" s="90">
         <f t="shared" ref="C63:K63" si="6">SUM(C58:C62)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97">
+      <c r="D63" s="91"/>
+      <c r="E63" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97">
+      <c r="F63" s="91"/>
+      <c r="G63" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97">
+      <c r="H63" s="91"/>
+      <c r="I63" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97">
+      <c r="J63" s="91"/>
+      <c r="K63" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L63" s="97"/>
-      <c r="M63" s="97">
+      <c r="L63" s="91"/>
+      <c r="M63" s="91">
         <f>SUM(M58:M62)</f>
         <v>0</v>
       </c>
-      <c r="N63" s="97"/>
-      <c r="O63" s="98">
+      <c r="N63" s="91"/>
+      <c r="O63" s="92">
         <f>SUM(O58:O62)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="44"/>
+      <c r="P63" s="92"/>
+      <c r="Q63" s="39"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115"/>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="35"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="24"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="26"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3863,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -3860,7 +3899,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3935,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -3932,126 +3971,126 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="37"/>
-      <c r="C70" s="114">
-        <v>0</v>
-      </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112">
-        <v>0</v>
-      </c>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112">
-        <v>0</v>
-      </c>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112">
-        <v>0</v>
-      </c>
-      <c r="J70" s="112"/>
-      <c r="K70" s="112">
-        <v>0</v>
-      </c>
-      <c r="L70" s="112"/>
-      <c r="M70" s="112">
-        <v>0</v>
-      </c>
-      <c r="N70" s="112"/>
-      <c r="O70" s="113">
-        <v>0</v>
-      </c>
-      <c r="P70" s="113"/>
+      <c r="C70" s="108">
+        <v>0</v>
+      </c>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106">
+        <v>0</v>
+      </c>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106">
+        <v>0</v>
+      </c>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106">
+        <v>0</v>
+      </c>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106">
+        <v>0</v>
+      </c>
+      <c r="N70" s="106"/>
+      <c r="O70" s="107">
+        <v>0</v>
+      </c>
+      <c r="P70" s="107"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="46">
         <v>0</v>
       </c>
-      <c r="C71" s="96">
+      <c r="C71" s="90">
         <f t="shared" ref="C71:K71" si="7">SUM(C66:C70)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97">
+      <c r="D71" s="91"/>
+      <c r="E71" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97">
+      <c r="F71" s="91"/>
+      <c r="G71" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97">
+      <c r="H71" s="91"/>
+      <c r="I71" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97">
+      <c r="J71" s="91"/>
+      <c r="K71" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L71" s="97"/>
-      <c r="M71" s="97">
+      <c r="L71" s="91"/>
+      <c r="M71" s="91">
         <f>SUM(M66:M70)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="97"/>
-      <c r="O71" s="98">
+      <c r="N71" s="91"/>
+      <c r="O71" s="92">
         <f>SUM(O66:O70)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="98"/>
+      <c r="P71" s="92"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+    </row>
+    <row r="73" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +4126,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -4123,7 +4162,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4159,7 +4198,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4195,126 +4234,126 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="114">
-        <v>0</v>
-      </c>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112">
-        <v>0</v>
-      </c>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112">
-        <v>0</v>
-      </c>
-      <c r="H78" s="112"/>
-      <c r="I78" s="112">
-        <v>0</v>
-      </c>
-      <c r="J78" s="112"/>
-      <c r="K78" s="112">
-        <v>0</v>
-      </c>
-      <c r="L78" s="112"/>
-      <c r="M78" s="112">
-        <v>0</v>
-      </c>
-      <c r="N78" s="112"/>
-      <c r="O78" s="113">
-        <v>0</v>
-      </c>
-      <c r="P78" s="113"/>
+      <c r="C78" s="108">
+        <v>0</v>
+      </c>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106">
+        <v>0</v>
+      </c>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106">
+        <v>0</v>
+      </c>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106">
+        <v>0</v>
+      </c>
+      <c r="J78" s="106"/>
+      <c r="K78" s="106">
+        <v>0</v>
+      </c>
+      <c r="L78" s="106"/>
+      <c r="M78" s="106">
+        <v>0</v>
+      </c>
+      <c r="N78" s="106"/>
+      <c r="O78" s="107">
+        <v>0</v>
+      </c>
+      <c r="P78" s="107"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="46">
         <v>0</v>
       </c>
-      <c r="C79" s="96">
+      <c r="C79" s="90">
         <f t="shared" ref="C79:K79" si="8">SUM(C74:C78)</f>
         <v>0</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97">
+      <c r="D79" s="91"/>
+      <c r="E79" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97">
+      <c r="F79" s="91"/>
+      <c r="G79" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97">
+      <c r="H79" s="91"/>
+      <c r="I79" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97">
+      <c r="J79" s="91"/>
+      <c r="K79" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97">
+      <c r="L79" s="91"/>
+      <c r="M79" s="91">
         <f>SUM(M74:M78)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="97"/>
-      <c r="O79" s="98">
+      <c r="N79" s="91"/>
+      <c r="O79" s="92">
         <f>SUM(O74:O78)</f>
         <v>0</v>
       </c>
-      <c r="P79" s="98"/>
+      <c r="P79" s="92"/>
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="99"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="99"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="99"/>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
+      <c r="O80" s="93"/>
+      <c r="P80" s="93"/>
+    </row>
+    <row r="81" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="95"/>
-      <c r="P81" s="95"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="88"/>
+      <c r="L81" s="88"/>
+      <c r="M81" s="88"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="89"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4389,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4386,7 +4425,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4422,7 +4461,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4458,126 +4497,126 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="114">
-        <v>0</v>
-      </c>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112">
-        <v>0</v>
-      </c>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112">
-        <v>0</v>
-      </c>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112">
-        <v>0</v>
-      </c>
-      <c r="J86" s="112"/>
-      <c r="K86" s="112">
-        <v>0</v>
-      </c>
-      <c r="L86" s="112"/>
-      <c r="M86" s="112">
-        <v>0</v>
-      </c>
-      <c r="N86" s="112"/>
-      <c r="O86" s="113">
-        <v>0</v>
-      </c>
-      <c r="P86" s="113"/>
+      <c r="C86" s="108">
+        <v>0</v>
+      </c>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106">
+        <v>0</v>
+      </c>
+      <c r="F86" s="106"/>
+      <c r="G86" s="106">
+        <v>0</v>
+      </c>
+      <c r="H86" s="106"/>
+      <c r="I86" s="106">
+        <v>0</v>
+      </c>
+      <c r="J86" s="106"/>
+      <c r="K86" s="106">
+        <v>0</v>
+      </c>
+      <c r="L86" s="106"/>
+      <c r="M86" s="106">
+        <v>0</v>
+      </c>
+      <c r="N86" s="106"/>
+      <c r="O86" s="107">
+        <v>0</v>
+      </c>
+      <c r="P86" s="107"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="46">
         <v>0</v>
       </c>
-      <c r="C87" s="96">
+      <c r="C87" s="90">
         <f t="shared" ref="C87:K87" si="9">SUM(C82:C86)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97">
+      <c r="D87" s="91"/>
+      <c r="E87" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F87" s="97"/>
-      <c r="G87" s="97">
+      <c r="F87" s="91"/>
+      <c r="G87" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H87" s="97"/>
-      <c r="I87" s="97">
+      <c r="H87" s="91"/>
+      <c r="I87" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J87" s="97"/>
-      <c r="K87" s="97">
+      <c r="J87" s="91"/>
+      <c r="K87" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L87" s="97"/>
-      <c r="M87" s="97">
+      <c r="L87" s="91"/>
+      <c r="M87" s="91">
         <f>SUM(M82:M86)</f>
         <v>0</v>
       </c>
-      <c r="N87" s="97"/>
-      <c r="O87" s="98">
+      <c r="N87" s="91"/>
+      <c r="O87" s="92">
         <f>SUM(O82:O86)</f>
         <v>0</v>
       </c>
-      <c r="P87" s="98"/>
+      <c r="P87" s="92"/>
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
-      <c r="O88" s="99"/>
-      <c r="P88" s="99"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+    </row>
+    <row r="89" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
-      <c r="I89" s="94"/>
-      <c r="J89" s="94"/>
-      <c r="K89" s="94"/>
-      <c r="L89" s="94"/>
-      <c r="M89" s="94"/>
-      <c r="N89" s="94"/>
-      <c r="O89" s="95"/>
-      <c r="P89" s="95"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="89"/>
+      <c r="P89" s="89"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +4652,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +4688,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -4685,7 +4724,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -4721,126 +4760,126 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="114">
-        <v>0</v>
-      </c>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112">
-        <v>0</v>
-      </c>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112">
-        <v>0</v>
-      </c>
-      <c r="H94" s="112"/>
-      <c r="I94" s="112">
-        <v>0</v>
-      </c>
-      <c r="J94" s="112"/>
-      <c r="K94" s="112">
-        <v>0</v>
-      </c>
-      <c r="L94" s="112"/>
-      <c r="M94" s="112">
-        <v>0</v>
-      </c>
-      <c r="N94" s="112"/>
-      <c r="O94" s="113">
-        <v>0</v>
-      </c>
-      <c r="P94" s="113"/>
+      <c r="C94" s="108">
+        <v>0</v>
+      </c>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106">
+        <v>0</v>
+      </c>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106">
+        <v>0</v>
+      </c>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106">
+        <v>0</v>
+      </c>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106">
+        <v>0</v>
+      </c>
+      <c r="L94" s="106"/>
+      <c r="M94" s="106">
+        <v>0</v>
+      </c>
+      <c r="N94" s="106"/>
+      <c r="O94" s="107">
+        <v>0</v>
+      </c>
+      <c r="P94" s="107"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="46">
         <v>0</v>
       </c>
-      <c r="C95" s="96">
+      <c r="C95" s="90">
         <f t="shared" ref="C95:K95" si="10">SUM(C90:C94)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97">
+      <c r="D95" s="91"/>
+      <c r="E95" s="91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97">
+      <c r="F95" s="91"/>
+      <c r="G95" s="91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H95" s="97"/>
-      <c r="I95" s="97">
+      <c r="H95" s="91"/>
+      <c r="I95" s="91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="97"/>
-      <c r="K95" s="97">
+      <c r="J95" s="91"/>
+      <c r="K95" s="91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L95" s="97"/>
-      <c r="M95" s="97">
+      <c r="L95" s="91"/>
+      <c r="M95" s="91">
         <f>SUM(M90:M94)</f>
         <v>0</v>
       </c>
-      <c r="N95" s="97"/>
-      <c r="O95" s="98">
+      <c r="N95" s="91"/>
+      <c r="O95" s="92">
         <f>SUM(O90:O94)</f>
         <v>0</v>
       </c>
-      <c r="P95" s="98"/>
+      <c r="P95" s="92"/>
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="99"/>
-      <c r="O96" s="99"/>
-      <c r="P96" s="99"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="93"/>
+      <c r="L96" s="93"/>
+      <c r="M96" s="93"/>
+      <c r="N96" s="93"/>
+      <c r="O96" s="93"/>
+      <c r="P96" s="93"/>
+    </row>
+    <row r="97" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94"/>
-      <c r="H97" s="94"/>
-      <c r="I97" s="94"/>
-      <c r="J97" s="94"/>
-      <c r="K97" s="94"/>
-      <c r="L97" s="94"/>
-      <c r="M97" s="94"/>
-      <c r="N97" s="94"/>
-      <c r="O97" s="95"/>
-      <c r="P97" s="95"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="88"/>
+      <c r="O97" s="89"/>
+      <c r="P97" s="89"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -4876,7 +4915,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4951,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -4948,7 +4987,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -4984,276 +5023,276 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="9"/>
-      <c r="C102" s="114">
-        <v>0</v>
-      </c>
-      <c r="D102" s="112"/>
-      <c r="E102" s="112">
-        <v>0</v>
-      </c>
-      <c r="F102" s="112"/>
-      <c r="G102" s="112">
-        <v>0</v>
-      </c>
-      <c r="H102" s="112"/>
-      <c r="I102" s="112">
-        <v>0</v>
-      </c>
-      <c r="J102" s="112"/>
-      <c r="K102" s="112">
-        <v>0</v>
-      </c>
-      <c r="L102" s="112"/>
-      <c r="M102" s="112">
-        <v>0</v>
-      </c>
-      <c r="N102" s="112"/>
-      <c r="O102" s="113">
-        <v>0</v>
-      </c>
-      <c r="P102" s="113"/>
+      <c r="C102" s="108">
+        <v>0</v>
+      </c>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106">
+        <v>0</v>
+      </c>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106">
+        <v>0</v>
+      </c>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106">
+        <v>0</v>
+      </c>
+      <c r="J102" s="106"/>
+      <c r="K102" s="106">
+        <v>0</v>
+      </c>
+      <c r="L102" s="106"/>
+      <c r="M102" s="106">
+        <v>0</v>
+      </c>
+      <c r="N102" s="106"/>
+      <c r="O102" s="107">
+        <v>0</v>
+      </c>
+      <c r="P102" s="107"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="46">
         <v>0</v>
       </c>
-      <c r="C103" s="96">
+      <c r="C103" s="90">
         <f t="shared" ref="C103:O103" si="11">SUM(C98:C102)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97">
+      <c r="D103" s="91"/>
+      <c r="E103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F103" s="97"/>
-      <c r="G103" s="97">
+      <c r="F103" s="91"/>
+      <c r="G103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97">
+      <c r="H103" s="91"/>
+      <c r="I103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J103" s="97"/>
-      <c r="K103" s="97">
+      <c r="J103" s="91"/>
+      <c r="K103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L103" s="97"/>
-      <c r="M103" s="97">
+      <c r="L103" s="91"/>
+      <c r="M103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N103" s="97"/>
-      <c r="O103" s="97">
+      <c r="N103" s="91"/>
+      <c r="O103" s="91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P103" s="97"/>
+      <c r="P103" s="91"/>
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="99"/>
-      <c r="O104" s="99"/>
-      <c r="P104" s="99"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="93"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="93"/>
+    </row>
+    <row r="105" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B105" s="22"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="100"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="100"/>
-      <c r="K105" s="100"/>
-      <c r="L105" s="100"/>
-      <c r="M105" s="100"/>
-      <c r="N105" s="100"/>
-      <c r="O105" s="101"/>
-      <c r="P105" s="101"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="94"/>
+      <c r="L105" s="94"/>
+      <c r="M105" s="94"/>
+      <c r="N105" s="94"/>
+      <c r="O105" s="95"/>
+      <c r="P105" s="95"/>
       <c r="Q105" s="17"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="55"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="105"/>
-      <c r="P106" s="105"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="98"/>
+      <c r="J106" s="98"/>
+      <c r="K106" s="98"/>
+      <c r="L106" s="98"/>
+      <c r="M106" s="98"/>
+      <c r="N106" s="98"/>
+      <c r="O106" s="99"/>
+      <c r="P106" s="99"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="55"/>
-      <c r="C107" s="102"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
-      <c r="G107" s="106"/>
-      <c r="H107" s="106"/>
-      <c r="I107" s="103"/>
-      <c r="J107" s="103"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="105"/>
-      <c r="P107" s="105"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="98"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="100"/>
+      <c r="H107" s="100"/>
+      <c r="I107" s="97"/>
+      <c r="J107" s="97"/>
+      <c r="K107" s="98"/>
+      <c r="L107" s="98"/>
+      <c r="M107" s="98"/>
+      <c r="N107" s="98"/>
+      <c r="O107" s="99"/>
+      <c r="P107" s="99"/>
       <c r="Q107" s="19"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="55"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-      <c r="G108" s="104"/>
-      <c r="H108" s="104"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="98"/>
+      <c r="G108" s="98"/>
+      <c r="H108" s="98"/>
       <c r="I108" s="45" t="s">
         <v>41</v>
       </c>
       <c r="J108" s="45"/>
-      <c r="K108" s="103"/>
-      <c r="L108" s="103"/>
-      <c r="M108" s="103"/>
-      <c r="N108" s="103"/>
-      <c r="O108" s="116"/>
-      <c r="P108" s="116"/>
+      <c r="K108" s="97"/>
+      <c r="L108" s="97"/>
+      <c r="M108" s="97"/>
+      <c r="N108" s="97"/>
+      <c r="O108" s="110"/>
+      <c r="P108" s="110"/>
       <c r="Q108" s="19"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="55"/>
-      <c r="C109" s="102"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104"/>
-      <c r="L109" s="104"/>
-      <c r="M109" s="104"/>
-      <c r="N109" s="104"/>
-      <c r="O109" s="105"/>
-      <c r="P109" s="105"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="98"/>
+      <c r="L109" s="98"/>
+      <c r="M109" s="98"/>
+      <c r="N109" s="98"/>
+      <c r="O109" s="99"/>
+      <c r="P109" s="99"/>
       <c r="Q109" s="19"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="123"/>
-      <c r="C110" s="117"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="118"/>
-      <c r="F110" s="118"/>
-      <c r="G110" s="110"/>
-      <c r="H110" s="110"/>
-      <c r="I110" s="118"/>
-      <c r="J110" s="118"/>
-      <c r="K110" s="109"/>
-      <c r="L110" s="109"/>
-      <c r="M110" s="109"/>
-      <c r="N110" s="109"/>
-      <c r="O110" s="119"/>
-      <c r="P110" s="119"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="104"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="104"/>
+      <c r="H110" s="104"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="103"/>
+      <c r="L110" s="103"/>
+      <c r="M110" s="103"/>
+      <c r="N110" s="103"/>
+      <c r="O110" s="113"/>
+      <c r="P110" s="113"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="99"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="99"/>
-      <c r="L111" s="99"/>
-      <c r="M111" s="99"/>
-      <c r="N111" s="99"/>
-      <c r="O111" s="99"/>
-      <c r="P111" s="99"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="93"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="93"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="93"/>
+      <c r="J111" s="93"/>
+      <c r="K111" s="93"/>
+      <c r="L111" s="93"/>
+      <c r="M111" s="93"/>
+      <c r="N111" s="93"/>
+      <c r="O111" s="93"/>
+      <c r="P111" s="93"/>
+    </row>
+    <row r="112" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B112" s="8"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
-      <c r="G112" s="94"/>
-      <c r="H112" s="94"/>
-      <c r="I112" s="94"/>
-      <c r="J112" s="94"/>
-      <c r="K112" s="94"/>
-      <c r="L112" s="94"/>
-      <c r="M112" s="94"/>
-      <c r="N112" s="94"/>
-      <c r="O112" s="95"/>
-      <c r="P112" s="95"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="88"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="88"/>
+      <c r="L112" s="88"/>
+      <c r="M112" s="88"/>
+      <c r="N112" s="88"/>
+      <c r="O112" s="89"/>
+      <c r="P112" s="89"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5328,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -5325,7 +5364,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5400,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -5397,126 +5436,126 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B117" s="9"/>
-      <c r="C117" s="114">
-        <v>0</v>
-      </c>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112">
-        <v>0</v>
-      </c>
-      <c r="F117" s="112"/>
-      <c r="G117" s="112">
-        <v>0</v>
-      </c>
-      <c r="H117" s="112"/>
-      <c r="I117" s="112">
-        <v>0</v>
-      </c>
-      <c r="J117" s="112"/>
-      <c r="K117" s="112">
-        <v>0</v>
-      </c>
-      <c r="L117" s="112"/>
-      <c r="M117" s="112">
-        <v>0</v>
-      </c>
-      <c r="N117" s="112"/>
-      <c r="O117" s="113">
-        <v>0</v>
-      </c>
-      <c r="P117" s="113"/>
+      <c r="C117" s="108">
+        <v>0</v>
+      </c>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106">
+        <v>0</v>
+      </c>
+      <c r="F117" s="106"/>
+      <c r="G117" s="106">
+        <v>0</v>
+      </c>
+      <c r="H117" s="106"/>
+      <c r="I117" s="106">
+        <v>0</v>
+      </c>
+      <c r="J117" s="106"/>
+      <c r="K117" s="106">
+        <v>0</v>
+      </c>
+      <c r="L117" s="106"/>
+      <c r="M117" s="106">
+        <v>0</v>
+      </c>
+      <c r="N117" s="106"/>
+      <c r="O117" s="107">
+        <v>0</v>
+      </c>
+      <c r="P117" s="107"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="46">
         <v>0</v>
       </c>
-      <c r="C118" s="96">
+      <c r="C118" s="90">
         <f>SUM(C113:C117)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97">
+      <c r="D118" s="91"/>
+      <c r="E118" s="91">
         <f t="shared" ref="E118:O118" si="12">SUM(E113:E117)</f>
         <v>0</v>
       </c>
-      <c r="F118" s="97"/>
-      <c r="G118" s="97">
+      <c r="F118" s="91"/>
+      <c r="G118" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H118" s="97"/>
-      <c r="I118" s="97">
+      <c r="H118" s="91"/>
+      <c r="I118" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J118" s="97"/>
-      <c r="K118" s="97">
+      <c r="J118" s="91"/>
+      <c r="K118" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L118" s="97"/>
-      <c r="M118" s="97">
+      <c r="L118" s="91"/>
+      <c r="M118" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N118" s="97"/>
-      <c r="O118" s="97">
+      <c r="N118" s="91"/>
+      <c r="O118" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P118" s="97"/>
+      <c r="P118" s="91"/>
       <c r="Q118" s="39"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="99"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="99"/>
-      <c r="H119" s="99"/>
-      <c r="I119" s="99"/>
-      <c r="J119" s="99"/>
-      <c r="K119" s="99"/>
-      <c r="L119" s="99"/>
-      <c r="M119" s="99"/>
-      <c r="N119" s="99"/>
-      <c r="O119" s="99"/>
-      <c r="P119" s="99"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="93"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="93"/>
+      <c r="H119" s="93"/>
+      <c r="I119" s="93"/>
+      <c r="J119" s="93"/>
+      <c r="K119" s="93"/>
+      <c r="L119" s="93"/>
+      <c r="M119" s="93"/>
+      <c r="N119" s="93"/>
+      <c r="O119" s="93"/>
+      <c r="P119" s="93"/>
+    </row>
+    <row r="120" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="8"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="94"/>
-      <c r="F120" s="94"/>
-      <c r="G120" s="94"/>
-      <c r="H120" s="94"/>
-      <c r="I120" s="94"/>
-      <c r="J120" s="94"/>
-      <c r="K120" s="94"/>
-      <c r="L120" s="94"/>
-      <c r="M120" s="94"/>
-      <c r="N120" s="94"/>
-      <c r="O120" s="95"/>
-      <c r="P120" s="95"/>
+      <c r="C120" s="87"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
+      <c r="K120" s="88"/>
+      <c r="L120" s="88"/>
+      <c r="M120" s="88"/>
+      <c r="N120" s="88"/>
+      <c r="O120" s="89"/>
+      <c r="P120" s="89"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5591,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5627,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5663,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -5660,126 +5699,126 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="114">
-        <v>0</v>
-      </c>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112">
-        <v>0</v>
-      </c>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112">
-        <v>0</v>
-      </c>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112">
-        <v>0</v>
-      </c>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112">
-        <v>0</v>
-      </c>
-      <c r="L125" s="112"/>
-      <c r="M125" s="112">
-        <v>0</v>
-      </c>
-      <c r="N125" s="112"/>
-      <c r="O125" s="113">
-        <v>0</v>
-      </c>
-      <c r="P125" s="113"/>
+      <c r="C125" s="108">
+        <v>0</v>
+      </c>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106">
+        <v>0</v>
+      </c>
+      <c r="F125" s="106"/>
+      <c r="G125" s="106">
+        <v>0</v>
+      </c>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106">
+        <v>0</v>
+      </c>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106">
+        <v>0</v>
+      </c>
+      <c r="L125" s="106"/>
+      <c r="M125" s="106">
+        <v>0</v>
+      </c>
+      <c r="N125" s="106"/>
+      <c r="O125" s="107">
+        <v>0</v>
+      </c>
+      <c r="P125" s="107"/>
       <c r="Q125" s="3"/>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="46">
         <v>0</v>
       </c>
-      <c r="C126" s="96">
+      <c r="C126" s="90">
         <f t="shared" ref="C126:O126" si="13">SUM(C121:C125)</f>
         <v>0</v>
       </c>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97">
+      <c r="D126" s="91"/>
+      <c r="E126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F126" s="97"/>
-      <c r="G126" s="97">
+      <c r="F126" s="91"/>
+      <c r="G126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H126" s="97"/>
-      <c r="I126" s="97">
+      <c r="H126" s="91"/>
+      <c r="I126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J126" s="97"/>
-      <c r="K126" s="97">
+      <c r="J126" s="91"/>
+      <c r="K126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L126" s="97"/>
-      <c r="M126" s="97">
+      <c r="L126" s="91"/>
+      <c r="M126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N126" s="97"/>
-      <c r="O126" s="97">
+      <c r="N126" s="91"/>
+      <c r="O126" s="91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P126" s="97"/>
+      <c r="P126" s="91"/>
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C127" s="99"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="99"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="99"/>
-      <c r="K127" s="99"/>
-      <c r="L127" s="99"/>
-      <c r="M127" s="99"/>
-      <c r="N127" s="99"/>
-      <c r="O127" s="99"/>
-      <c r="P127" s="99"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="93"/>
+      <c r="L127" s="93"/>
+      <c r="M127" s="93"/>
+      <c r="N127" s="93"/>
+      <c r="O127" s="93"/>
+      <c r="P127" s="93"/>
+    </row>
+    <row r="128" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B128" s="8"/>
-      <c r="C128" s="93"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="94"/>
-      <c r="F128" s="94"/>
-      <c r="G128" s="94"/>
-      <c r="H128" s="94"/>
-      <c r="I128" s="94"/>
-      <c r="J128" s="94"/>
-      <c r="K128" s="94"/>
-      <c r="L128" s="94"/>
-      <c r="M128" s="94"/>
-      <c r="N128" s="94"/>
-      <c r="O128" s="95"/>
-      <c r="P128" s="95"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="88"/>
+      <c r="G128" s="88"/>
+      <c r="H128" s="88"/>
+      <c r="I128" s="88"/>
+      <c r="J128" s="88"/>
+      <c r="K128" s="88"/>
+      <c r="L128" s="88"/>
+      <c r="M128" s="88"/>
+      <c r="N128" s="88"/>
+      <c r="O128" s="89"/>
+      <c r="P128" s="89"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5854,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5890,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -5887,7 +5926,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -5923,126 +5962,126 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="9"/>
-      <c r="C133" s="114">
-        <v>0</v>
-      </c>
-      <c r="D133" s="112"/>
-      <c r="E133" s="112">
-        <v>0</v>
-      </c>
-      <c r="F133" s="112"/>
-      <c r="G133" s="112">
-        <v>0</v>
-      </c>
-      <c r="H133" s="112"/>
-      <c r="I133" s="112">
-        <v>0</v>
-      </c>
-      <c r="J133" s="112"/>
-      <c r="K133" s="112">
-        <v>0</v>
-      </c>
-      <c r="L133" s="112"/>
-      <c r="M133" s="112">
-        <v>0</v>
-      </c>
-      <c r="N133" s="112"/>
-      <c r="O133" s="113">
-        <v>0</v>
-      </c>
-      <c r="P133" s="113"/>
+      <c r="C133" s="108">
+        <v>0</v>
+      </c>
+      <c r="D133" s="106"/>
+      <c r="E133" s="106">
+        <v>0</v>
+      </c>
+      <c r="F133" s="106"/>
+      <c r="G133" s="106">
+        <v>0</v>
+      </c>
+      <c r="H133" s="106"/>
+      <c r="I133" s="106">
+        <v>0</v>
+      </c>
+      <c r="J133" s="106"/>
+      <c r="K133" s="106">
+        <v>0</v>
+      </c>
+      <c r="L133" s="106"/>
+      <c r="M133" s="106">
+        <v>0</v>
+      </c>
+      <c r="N133" s="106"/>
+      <c r="O133" s="107">
+        <v>0</v>
+      </c>
+      <c r="P133" s="107"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="46">
         <v>0</v>
       </c>
-      <c r="C134" s="96">
+      <c r="C134" s="90">
         <f t="shared" ref="C134:O134" si="14">SUM(C129:C133)</f>
         <v>0</v>
       </c>
-      <c r="D134" s="97"/>
-      <c r="E134" s="97">
+      <c r="D134" s="91"/>
+      <c r="E134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F134" s="97"/>
-      <c r="G134" s="97">
+      <c r="F134" s="91"/>
+      <c r="G134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H134" s="97"/>
-      <c r="I134" s="97">
+      <c r="H134" s="91"/>
+      <c r="I134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J134" s="97"/>
-      <c r="K134" s="97">
+      <c r="J134" s="91"/>
+      <c r="K134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L134" s="97"/>
-      <c r="M134" s="97">
+      <c r="L134" s="91"/>
+      <c r="M134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N134" s="97"/>
-      <c r="O134" s="97">
+      <c r="N134" s="91"/>
+      <c r="O134" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P134" s="97"/>
+      <c r="P134" s="91"/>
       <c r="Q134" s="39"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C135" s="99"/>
-      <c r="D135" s="99"/>
-      <c r="E135" s="99"/>
-      <c r="F135" s="99"/>
-      <c r="G135" s="99"/>
-      <c r="H135" s="99"/>
-      <c r="I135" s="99"/>
-      <c r="J135" s="99"/>
-      <c r="K135" s="99"/>
-      <c r="L135" s="99"/>
-      <c r="M135" s="99"/>
-      <c r="N135" s="99"/>
-      <c r="O135" s="99"/>
-      <c r="P135" s="99"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="93"/>
+      <c r="D135" s="93"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="93"/>
+      <c r="G135" s="93"/>
+      <c r="H135" s="93"/>
+      <c r="I135" s="93"/>
+      <c r="J135" s="93"/>
+      <c r="K135" s="93"/>
+      <c r="L135" s="93"/>
+      <c r="M135" s="93"/>
+      <c r="N135" s="93"/>
+      <c r="O135" s="93"/>
+      <c r="P135" s="93"/>
+    </row>
+    <row r="136" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B136" s="23"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="94"/>
-      <c r="E136" s="94"/>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94"/>
-      <c r="H136" s="94"/>
-      <c r="I136" s="94"/>
-      <c r="J136" s="94"/>
-      <c r="K136" s="94"/>
-      <c r="L136" s="94"/>
-      <c r="M136" s="94"/>
-      <c r="N136" s="94"/>
-      <c r="O136" s="95"/>
-      <c r="P136" s="95"/>
+      <c r="C136" s="87"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="88"/>
+      <c r="H136" s="88"/>
+      <c r="I136" s="88"/>
+      <c r="J136" s="88"/>
+      <c r="K136" s="88"/>
+      <c r="L136" s="88"/>
+      <c r="M136" s="88"/>
+      <c r="N136" s="88"/>
+      <c r="O136" s="89"/>
+      <c r="P136" s="89"/>
       <c r="Q136" s="24"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +6117,7 @@
       <c r="Q137" s="26"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6153,7 @@
       <c r="Q138" s="26"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -6150,7 +6189,7 @@
       <c r="Q139" s="26"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -6186,128 +6225,128 @@
       <c r="Q140" s="26"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B141" s="27"/>
-      <c r="C141" s="114">
-        <v>0</v>
-      </c>
-      <c r="D141" s="112"/>
-      <c r="E141" s="112">
-        <v>0</v>
-      </c>
-      <c r="F141" s="112"/>
-      <c r="G141" s="112">
-        <v>0</v>
-      </c>
-      <c r="H141" s="112"/>
-      <c r="I141" s="112">
-        <v>0</v>
-      </c>
-      <c r="J141" s="112"/>
-      <c r="K141" s="112">
-        <v>0</v>
-      </c>
-      <c r="L141" s="112"/>
-      <c r="M141" s="112">
-        <v>0</v>
-      </c>
-      <c r="N141" s="112"/>
-      <c r="O141" s="113">
-        <v>0</v>
-      </c>
-      <c r="P141" s="113"/>
+      <c r="C141" s="108">
+        <v>0</v>
+      </c>
+      <c r="D141" s="106"/>
+      <c r="E141" s="106">
+        <v>0</v>
+      </c>
+      <c r="F141" s="106"/>
+      <c r="G141" s="106">
+        <v>0</v>
+      </c>
+      <c r="H141" s="106"/>
+      <c r="I141" s="106">
+        <v>0</v>
+      </c>
+      <c r="J141" s="106"/>
+      <c r="K141" s="106">
+        <v>0</v>
+      </c>
+      <c r="L141" s="106"/>
+      <c r="M141" s="106">
+        <v>0</v>
+      </c>
+      <c r="N141" s="106"/>
+      <c r="O141" s="107">
+        <v>0</v>
+      </c>
+      <c r="P141" s="107"/>
       <c r="Q141" s="28"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="46">
         <v>0</v>
       </c>
-      <c r="C142" s="96">
+      <c r="C142" s="90">
         <f t="shared" ref="C142:O142" si="15">SUM(C137:C141)</f>
         <v>0</v>
       </c>
-      <c r="D142" s="97"/>
-      <c r="E142" s="97">
+      <c r="D142" s="91"/>
+      <c r="E142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F142" s="97"/>
-      <c r="G142" s="97">
+      <c r="F142" s="91"/>
+      <c r="G142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H142" s="97"/>
-      <c r="I142" s="97">
+      <c r="H142" s="91"/>
+      <c r="I142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J142" s="97"/>
-      <c r="K142" s="97">
+      <c r="J142" s="91"/>
+      <c r="K142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L142" s="97"/>
-      <c r="M142" s="97">
+      <c r="L142" s="91"/>
+      <c r="M142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N142" s="97"/>
-      <c r="O142" s="97">
+      <c r="N142" s="91"/>
+      <c r="O142" s="91">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P142" s="97"/>
-      <c r="Q142" s="121"/>
+      <c r="P142" s="91"/>
+      <c r="Q142" s="115"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B143" s="29"/>
-      <c r="C143" s="99"/>
-      <c r="D143" s="99"/>
-      <c r="E143" s="99"/>
-      <c r="F143" s="99"/>
-      <c r="G143" s="99"/>
-      <c r="H143" s="99"/>
-      <c r="I143" s="99"/>
-      <c r="J143" s="99"/>
-      <c r="K143" s="99"/>
-      <c r="L143" s="99"/>
-      <c r="M143" s="99"/>
-      <c r="N143" s="99"/>
-      <c r="O143" s="99"/>
-      <c r="P143" s="99"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="93"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="93"/>
+      <c r="H143" s="93"/>
+      <c r="I143" s="93"/>
+      <c r="J143" s="93"/>
+      <c r="K143" s="93"/>
+      <c r="L143" s="93"/>
+      <c r="M143" s="93"/>
+      <c r="N143" s="93"/>
+      <c r="O143" s="93"/>
+      <c r="P143" s="93"/>
       <c r="Q143" s="30"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B144" s="23"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="94"/>
-      <c r="E144" s="94"/>
-      <c r="F144" s="94"/>
-      <c r="G144" s="94"/>
-      <c r="H144" s="94"/>
-      <c r="I144" s="94"/>
-      <c r="J144" s="94"/>
-      <c r="K144" s="94"/>
-      <c r="L144" s="94"/>
-      <c r="M144" s="94"/>
-      <c r="N144" s="94"/>
-      <c r="O144" s="95"/>
-      <c r="P144" s="95"/>
+      <c r="C144" s="87"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="88"/>
+      <c r="F144" s="88"/>
+      <c r="G144" s="88"/>
+      <c r="H144" s="88"/>
+      <c r="I144" s="88"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
+      <c r="O144" s="89"/>
+      <c r="P144" s="89"/>
       <c r="Q144" s="24"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -6343,7 +6382,7 @@
       <c r="Q145" s="26"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -6379,7 +6418,7 @@
       <c r="Q146" s="26"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -6415,7 +6454,7 @@
       <c r="Q147" s="26"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -6451,126 +6490,126 @@
       <c r="Q148" s="26"/>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="27"/>
-      <c r="C149" s="114">
-        <v>0</v>
-      </c>
-      <c r="D149" s="112"/>
-      <c r="E149" s="112">
-        <v>0</v>
-      </c>
-      <c r="F149" s="112"/>
-      <c r="G149" s="112">
-        <v>0</v>
-      </c>
-      <c r="H149" s="112"/>
-      <c r="I149" s="112">
-        <v>0</v>
-      </c>
-      <c r="J149" s="112"/>
-      <c r="K149" s="112">
-        <v>0</v>
-      </c>
-      <c r="L149" s="112"/>
-      <c r="M149" s="112">
-        <v>0</v>
-      </c>
-      <c r="N149" s="112"/>
-      <c r="O149" s="113">
-        <v>0</v>
-      </c>
-      <c r="P149" s="113"/>
+      <c r="C149" s="108">
+        <v>0</v>
+      </c>
+      <c r="D149" s="106"/>
+      <c r="E149" s="106">
+        <v>0</v>
+      </c>
+      <c r="F149" s="106"/>
+      <c r="G149" s="106">
+        <v>0</v>
+      </c>
+      <c r="H149" s="106"/>
+      <c r="I149" s="106">
+        <v>0</v>
+      </c>
+      <c r="J149" s="106"/>
+      <c r="K149" s="106">
+        <v>0</v>
+      </c>
+      <c r="L149" s="106"/>
+      <c r="M149" s="106">
+        <v>0</v>
+      </c>
+      <c r="N149" s="106"/>
+      <c r="O149" s="107">
+        <v>0</v>
+      </c>
+      <c r="P149" s="107"/>
       <c r="Q149" s="28"/>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B150" s="46">
         <v>0</v>
       </c>
-      <c r="C150" s="96">
+      <c r="C150" s="90">
         <f t="shared" ref="C150:O150" si="16">SUM(C145:C149)</f>
         <v>0</v>
       </c>
-      <c r="D150" s="97"/>
-      <c r="E150" s="97">
+      <c r="D150" s="91"/>
+      <c r="E150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F150" s="97"/>
-      <c r="G150" s="97">
+      <c r="F150" s="91"/>
+      <c r="G150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H150" s="97"/>
-      <c r="I150" s="97">
+      <c r="H150" s="91"/>
+      <c r="I150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J150" s="97"/>
-      <c r="K150" s="97">
+      <c r="J150" s="91"/>
+      <c r="K150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L150" s="97"/>
-      <c r="M150" s="97">
+      <c r="L150" s="91"/>
+      <c r="M150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N150" s="97"/>
-      <c r="O150" s="97">
+      <c r="N150" s="91"/>
+      <c r="O150" s="91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P150" s="97"/>
+      <c r="P150" s="91"/>
       <c r="Q150" s="39"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C151" s="99"/>
-      <c r="D151" s="99"/>
-      <c r="E151" s="99"/>
-      <c r="F151" s="99"/>
-      <c r="G151" s="99"/>
-      <c r="H151" s="99"/>
-      <c r="I151" s="99"/>
-      <c r="J151" s="99"/>
-      <c r="K151" s="99"/>
-      <c r="L151" s="99"/>
-      <c r="M151" s="99"/>
-      <c r="N151" s="99"/>
-      <c r="O151" s="99"/>
-      <c r="P151" s="99"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="93"/>
+      <c r="H151" s="93"/>
+      <c r="I151" s="93"/>
+      <c r="J151" s="93"/>
+      <c r="K151" s="93"/>
+      <c r="L151" s="93"/>
+      <c r="M151" s="93"/>
+      <c r="N151" s="93"/>
+      <c r="O151" s="93"/>
+      <c r="P151" s="93"/>
+    </row>
+    <row r="152" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B152" s="8"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="94"/>
-      <c r="F152" s="94"/>
-      <c r="G152" s="94"/>
-      <c r="H152" s="94"/>
-      <c r="I152" s="94"/>
-      <c r="J152" s="94"/>
-      <c r="K152" s="94"/>
-      <c r="L152" s="94"/>
-      <c r="M152" s="94"/>
-      <c r="N152" s="94"/>
-      <c r="O152" s="95"/>
-      <c r="P152" s="95"/>
+      <c r="C152" s="87"/>
+      <c r="D152" s="88"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="88"/>
+      <c r="G152" s="88"/>
+      <c r="H152" s="88"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="88"/>
+      <c r="L152" s="88"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
+      <c r="O152" s="89"/>
+      <c r="P152" s="89"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -6606,7 +6645,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -6642,7 +6681,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -6678,7 +6717,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -6714,126 +6753,126 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="9"/>
-      <c r="C157" s="114">
-        <v>0</v>
-      </c>
-      <c r="D157" s="112"/>
-      <c r="E157" s="112">
-        <v>0</v>
-      </c>
-      <c r="F157" s="112"/>
-      <c r="G157" s="112">
-        <v>0</v>
-      </c>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112">
-        <v>0</v>
-      </c>
-      <c r="J157" s="112"/>
-      <c r="K157" s="112">
-        <v>0</v>
-      </c>
-      <c r="L157" s="112"/>
-      <c r="M157" s="112">
-        <v>0</v>
-      </c>
-      <c r="N157" s="112"/>
-      <c r="O157" s="113">
-        <v>0</v>
-      </c>
-      <c r="P157" s="113"/>
+      <c r="C157" s="108">
+        <v>0</v>
+      </c>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106">
+        <v>0</v>
+      </c>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106">
+        <v>0</v>
+      </c>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106">
+        <v>0</v>
+      </c>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106">
+        <v>0</v>
+      </c>
+      <c r="L157" s="106"/>
+      <c r="M157" s="106">
+        <v>0</v>
+      </c>
+      <c r="N157" s="106"/>
+      <c r="O157" s="107">
+        <v>0</v>
+      </c>
+      <c r="P157" s="107"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="46">
         <v>0</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="90">
         <f t="shared" ref="C158:O158" si="17">SUM(C153:C157)</f>
         <v>0</v>
       </c>
-      <c r="D158" s="97"/>
-      <c r="E158" s="97">
+      <c r="D158" s="91"/>
+      <c r="E158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F158" s="97"/>
-      <c r="G158" s="97">
+      <c r="F158" s="91"/>
+      <c r="G158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H158" s="97"/>
-      <c r="I158" s="97">
+      <c r="H158" s="91"/>
+      <c r="I158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J158" s="97"/>
-      <c r="K158" s="97">
+      <c r="J158" s="91"/>
+      <c r="K158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L158" s="97"/>
-      <c r="M158" s="97">
+      <c r="L158" s="91"/>
+      <c r="M158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N158" s="97"/>
-      <c r="O158" s="97">
+      <c r="N158" s="91"/>
+      <c r="O158" s="91">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P158" s="97"/>
+      <c r="P158" s="91"/>
       <c r="Q158" s="39"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C159" s="99"/>
-      <c r="D159" s="99"/>
-      <c r="E159" s="99"/>
-      <c r="F159" s="99"/>
-      <c r="G159" s="99"/>
-      <c r="H159" s="99"/>
-      <c r="I159" s="99"/>
-      <c r="J159" s="99"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="99"/>
-      <c r="N159" s="99"/>
-      <c r="O159" s="99"/>
-      <c r="P159" s="99"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="93"/>
+      <c r="D159" s="93"/>
+      <c r="E159" s="93"/>
+      <c r="F159" s="93"/>
+      <c r="G159" s="93"/>
+      <c r="H159" s="93"/>
+      <c r="I159" s="93"/>
+      <c r="J159" s="93"/>
+      <c r="K159" s="93"/>
+      <c r="L159" s="93"/>
+      <c r="M159" s="93"/>
+      <c r="N159" s="93"/>
+      <c r="O159" s="93"/>
+      <c r="P159" s="93"/>
+    </row>
+    <row r="160" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B160" s="8"/>
-      <c r="C160" s="93"/>
-      <c r="D160" s="94"/>
-      <c r="E160" s="94"/>
-      <c r="F160" s="94"/>
-      <c r="G160" s="94"/>
-      <c r="H160" s="94"/>
-      <c r="I160" s="94"/>
-      <c r="J160" s="94"/>
-      <c r="K160" s="94"/>
-      <c r="L160" s="94"/>
-      <c r="M160" s="94"/>
-      <c r="N160" s="94"/>
-      <c r="O160" s="95"/>
-      <c r="P160" s="95"/>
+      <c r="C160" s="87"/>
+      <c r="D160" s="88"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="88"/>
+      <c r="G160" s="88"/>
+      <c r="H160" s="88"/>
+      <c r="I160" s="88"/>
+      <c r="J160" s="88"/>
+      <c r="K160" s="88"/>
+      <c r="L160" s="88"/>
+      <c r="M160" s="88"/>
+      <c r="N160" s="88"/>
+      <c r="O160" s="89"/>
+      <c r="P160" s="89"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
@@ -6869,7 +6908,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -6905,7 +6944,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -6941,7 +6980,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
@@ -6977,126 +7016,126 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B165" s="9"/>
-      <c r="C165" s="114">
-        <v>0</v>
-      </c>
-      <c r="D165" s="112"/>
-      <c r="E165" s="112">
-        <v>0</v>
-      </c>
-      <c r="F165" s="112"/>
-      <c r="G165" s="112">
-        <v>0</v>
-      </c>
-      <c r="H165" s="112"/>
-      <c r="I165" s="112">
-        <v>0</v>
-      </c>
-      <c r="J165" s="112"/>
-      <c r="K165" s="112">
-        <v>0</v>
-      </c>
-      <c r="L165" s="112"/>
-      <c r="M165" s="112">
-        <v>0</v>
-      </c>
-      <c r="N165" s="112"/>
-      <c r="O165" s="113">
-        <v>0</v>
-      </c>
-      <c r="P165" s="113"/>
+      <c r="C165" s="108">
+        <v>0</v>
+      </c>
+      <c r="D165" s="106"/>
+      <c r="E165" s="106">
+        <v>0</v>
+      </c>
+      <c r="F165" s="106"/>
+      <c r="G165" s="106">
+        <v>0</v>
+      </c>
+      <c r="H165" s="106"/>
+      <c r="I165" s="106">
+        <v>0</v>
+      </c>
+      <c r="J165" s="106"/>
+      <c r="K165" s="106">
+        <v>0</v>
+      </c>
+      <c r="L165" s="106"/>
+      <c r="M165" s="106">
+        <v>0</v>
+      </c>
+      <c r="N165" s="106"/>
+      <c r="O165" s="107">
+        <v>0</v>
+      </c>
+      <c r="P165" s="107"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="46">
         <v>0</v>
       </c>
-      <c r="C166" s="96">
+      <c r="C166" s="90">
         <f t="shared" ref="C166:O166" si="18">SUM(C161:C165)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="97"/>
-      <c r="E166" s="97">
+      <c r="D166" s="91"/>
+      <c r="E166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F166" s="97"/>
-      <c r="G166" s="97">
+      <c r="F166" s="91"/>
+      <c r="G166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H166" s="97"/>
-      <c r="I166" s="97">
+      <c r="H166" s="91"/>
+      <c r="I166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J166" s="97"/>
-      <c r="K166" s="97">
+      <c r="J166" s="91"/>
+      <c r="K166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L166" s="97"/>
-      <c r="M166" s="97">
+      <c r="L166" s="91"/>
+      <c r="M166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N166" s="97"/>
-      <c r="O166" s="97">
+      <c r="N166" s="91"/>
+      <c r="O166" s="91">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P166" s="97"/>
+      <c r="P166" s="91"/>
       <c r="Q166" s="39"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C167" s="99"/>
-      <c r="D167" s="99"/>
-      <c r="E167" s="99"/>
-      <c r="F167" s="99"/>
-      <c r="G167" s="99"/>
-      <c r="H167" s="99"/>
-      <c r="I167" s="99"/>
-      <c r="J167" s="99"/>
-      <c r="K167" s="99"/>
-      <c r="L167" s="99"/>
-      <c r="M167" s="99"/>
-      <c r="N167" s="99"/>
-      <c r="O167" s="99"/>
-      <c r="P167" s="99"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="93"/>
+      <c r="D167" s="93"/>
+      <c r="E167" s="93"/>
+      <c r="F167" s="93"/>
+      <c r="G167" s="93"/>
+      <c r="H167" s="93"/>
+      <c r="I167" s="93"/>
+      <c r="J167" s="93"/>
+      <c r="K167" s="93"/>
+      <c r="L167" s="93"/>
+      <c r="M167" s="93"/>
+      <c r="N167" s="93"/>
+      <c r="O167" s="93"/>
+      <c r="P167" s="93"/>
+    </row>
+    <row r="168" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B168" s="8"/>
-      <c r="C168" s="93"/>
-      <c r="D168" s="94"/>
-      <c r="E168" s="94"/>
-      <c r="F168" s="94"/>
-      <c r="G168" s="94"/>
-      <c r="H168" s="94"/>
-      <c r="I168" s="94"/>
-      <c r="J168" s="94"/>
-      <c r="K168" s="94"/>
-      <c r="L168" s="94"/>
-      <c r="M168" s="94"/>
-      <c r="N168" s="94"/>
-      <c r="O168" s="95"/>
-      <c r="P168" s="95"/>
+      <c r="C168" s="87"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
+      <c r="F168" s="88"/>
+      <c r="G168" s="88"/>
+      <c r="H168" s="88"/>
+      <c r="I168" s="88"/>
+      <c r="J168" s="88"/>
+      <c r="K168" s="88"/>
+      <c r="L168" s="88"/>
+      <c r="M168" s="88"/>
+      <c r="N168" s="88"/>
+      <c r="O168" s="89"/>
+      <c r="P168" s="89"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
@@ -7132,7 +7171,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -7168,7 +7207,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -7204,7 +7243,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -7240,102 +7279,102 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B173" s="9"/>
-      <c r="C173" s="114">
-        <v>0</v>
-      </c>
-      <c r="D173" s="112"/>
-      <c r="E173" s="112">
-        <v>0</v>
-      </c>
-      <c r="F173" s="112"/>
-      <c r="G173" s="112">
-        <v>0</v>
-      </c>
-      <c r="H173" s="112"/>
-      <c r="I173" s="112">
-        <v>0</v>
-      </c>
-      <c r="J173" s="112"/>
-      <c r="K173" s="112">
-        <v>0</v>
-      </c>
-      <c r="L173" s="112"/>
-      <c r="M173" s="112">
-        <v>0</v>
-      </c>
-      <c r="N173" s="112"/>
-      <c r="O173" s="113">
-        <v>0</v>
-      </c>
-      <c r="P173" s="113"/>
+      <c r="C173" s="108">
+        <v>0</v>
+      </c>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106">
+        <v>0</v>
+      </c>
+      <c r="F173" s="106"/>
+      <c r="G173" s="106">
+        <v>0</v>
+      </c>
+      <c r="H173" s="106"/>
+      <c r="I173" s="106">
+        <v>0</v>
+      </c>
+      <c r="J173" s="106"/>
+      <c r="K173" s="106">
+        <v>0</v>
+      </c>
+      <c r="L173" s="106"/>
+      <c r="M173" s="106">
+        <v>0</v>
+      </c>
+      <c r="N173" s="106"/>
+      <c r="O173" s="107">
+        <v>0</v>
+      </c>
+      <c r="P173" s="107"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="46">
         <v>0</v>
       </c>
-      <c r="C174" s="96">
+      <c r="C174" s="90">
         <f t="shared" ref="C174:O174" si="19">SUM(C169:C173)</f>
         <v>0</v>
       </c>
-      <c r="D174" s="97"/>
-      <c r="E174" s="97">
+      <c r="D174" s="91"/>
+      <c r="E174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F174" s="97"/>
-      <c r="G174" s="97">
+      <c r="F174" s="91"/>
+      <c r="G174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H174" s="97"/>
-      <c r="I174" s="97">
+      <c r="H174" s="91"/>
+      <c r="I174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J174" s="97"/>
-      <c r="K174" s="97">
+      <c r="J174" s="91"/>
+      <c r="K174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L174" s="97"/>
-      <c r="M174" s="97">
+      <c r="L174" s="91"/>
+      <c r="M174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N174" s="97"/>
-      <c r="O174" s="97">
+      <c r="N174" s="91"/>
+      <c r="O174" s="91">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P174" s="97"/>
+      <c r="P174" s="91"/>
       <c r="Q174" s="39"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C175" s="99"/>
-      <c r="D175" s="99"/>
-      <c r="E175" s="99"/>
-      <c r="F175" s="99"/>
-      <c r="G175" s="99"/>
-      <c r="H175" s="99"/>
-      <c r="I175" s="99"/>
-      <c r="J175" s="99"/>
-      <c r="K175" s="99"/>
-      <c r="L175" s="99"/>
-      <c r="M175" s="99"/>
-      <c r="N175" s="99"/>
-      <c r="O175" s="99"/>
-      <c r="P175" s="99"/>
+    <row r="175" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="93"/>
+      <c r="D175" s="93"/>
+      <c r="E175" s="93"/>
+      <c r="F175" s="93"/>
+      <c r="G175" s="93"/>
+      <c r="H175" s="93"/>
+      <c r="I175" s="93"/>
+      <c r="J175" s="93"/>
+      <c r="K175" s="93"/>
+      <c r="L175" s="93"/>
+      <c r="M175" s="93"/>
+      <c r="N175" s="93"/>
+      <c r="O175" s="93"/>
+      <c r="P175" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="98">
   <si>
     <t>Maandag</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Paco ziek</t>
+  </si>
+  <si>
+    <t>Roos en Danial kwartier te laat</t>
+  </si>
+  <si>
+    <t>goed doorgewerkt</t>
+  </si>
+  <si>
+    <t>kwartier te laat</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1351,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1360,20 +1369,20 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="76.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.109375" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="70.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="58.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.5546875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="70.88671875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
+    <col min="12" max="12" width="40" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="114" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
+    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1447,15 +1456,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.96341463414634143</v>
+        <v>1.0116279069767442</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1515,11 +1524,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.8902439024390244</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1579,11 +1588,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.92682926829268297</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1643,11 +1652,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>1</v>
+        <v>1.0465116279069768</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1707,11 +1716,11 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
-        <v>1</v>
+        <v>1.0465116279069768</v>
       </c>
       <c r="U6" s="40" t="str">
         <f>K1</f>
@@ -1763,11 +1772,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.91463414634146345</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1821,11 +1830,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>66.5</v>
+        <v>70.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.81097560975609762</v>
+        <v>0.81976744186046513</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1875,7 +1884,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.5060975609756095</v>
+        <v>6.808139534883721</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3108,23 +3117,33 @@
       <c r="C44" s="48">
         <v>2</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="E44" s="49">
         <v>2</v>
       </c>
-      <c r="F44" s="49"/>
+      <c r="F44" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="G44" s="49">
         <v>2</v>
       </c>
-      <c r="H44" s="49"/>
+      <c r="H44" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="I44" s="49">
         <v>2</v>
       </c>
-      <c r="J44" s="49"/>
+      <c r="J44" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="K44" s="49">
         <v>2</v>
       </c>
-      <c r="L44" s="49"/>
+      <c r="L44" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="M44" s="49">
         <v>0</v>
       </c>
@@ -3150,27 +3169,39 @@
       <c r="C45" s="48">
         <v>2</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="E45" s="49">
         <v>2</v>
       </c>
-      <c r="F45" s="49"/>
+      <c r="F45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="G45" s="49">
         <v>2</v>
       </c>
-      <c r="H45" s="49"/>
+      <c r="H45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="I45" s="49">
         <v>2</v>
       </c>
-      <c r="J45" s="49"/>
+      <c r="J45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="K45" s="49">
         <v>2</v>
       </c>
-      <c r="L45" s="49"/>
+      <c r="L45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="M45" s="49">
         <v>2</v>
       </c>
-      <c r="N45" s="49"/>
+      <c r="N45" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="O45" s="50">
         <v>2</v>
       </c>
@@ -3182,36 +3213,54 @@
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="9">
+        <v>4</v>
+      </c>
       <c r="C46" s="108">
-        <v>0</v>
-      </c>
-      <c r="D46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>96</v>
+      </c>
       <c r="E46" s="106">
-        <v>0</v>
-      </c>
-      <c r="F46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="G46" s="106">
-        <v>0</v>
-      </c>
-      <c r="H46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="I46" s="106">
-        <v>0</v>
-      </c>
-      <c r="J46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="K46" s="106">
-        <v>0</v>
-      </c>
-      <c r="L46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L46" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="M46" s="106">
-        <v>0</v>
-      </c>
-      <c r="N46" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="O46" s="107">
         <v>0</v>
       </c>
-      <c r="P46" s="107"/>
-      <c r="Q46" s="3"/>
+      <c r="P46" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="R46" s="10"/>
     </row>
     <row r="47" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3220,36 +3269,36 @@
       </c>
       <c r="B47" s="42">
         <f>SUM(B42:B46)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47" s="90">
         <f t="shared" ref="C47:K47" si="4">SUM(C42:C46)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47" s="91"/>
       <c r="E47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F47" s="91"/>
       <c r="G47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H47" s="91"/>
       <c r="I47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J47" s="91"/>
       <c r="K47" s="91">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L47" s="91"/>
       <c r="M47" s="91">
         <f>SUM(M42:M46)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N47" s="91"/>
       <c r="O47" s="91">
@@ -3260,7 +3309,7 @@
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -3276,7 +3325,7 @@
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3298,43 +3347,51 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="10">
+        <v>4</v>
+      </c>
       <c r="C50" s="48">
-        <v>0</v>
-      </c>
-      <c r="D50" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>97</v>
+      </c>
       <c r="E50" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" s="49"/>
       <c r="K50" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L50" s="49"/>
       <c r="M50" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N50" s="49"/>
       <c r="O50" s="50">
-        <v>0</v>
-      </c>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P50" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3370,7 +3427,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3406,7 +3463,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +3499,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3535,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -3487,43 +3544,43 @@
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:K55" si="5">SUM(C50:C54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" s="91"/>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" s="91"/>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" s="91"/>
       <c r="I55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="91"/>
       <c r="K55" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" s="91"/>
       <c r="M55" s="91">
         <f>SUM(M50:M54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N55" s="91"/>
       <c r="O55" s="92">
         <f>SUM(O50:O54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P55" s="92"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="110">
   <si>
     <t>Maandag</t>
   </si>
@@ -311,6 +311,42 @@
   </si>
   <si>
     <t>kwartier te laat</t>
+  </si>
+  <si>
+    <t>Goed gewerkt, liep wat vast bij het maken van de minerhelm</t>
+  </si>
+  <si>
+    <t>Thuis gewerkt, gekeken naar tutorials</t>
+  </si>
+  <si>
+    <t>Goed gewerkt</t>
+  </si>
+  <si>
+    <t>Thuis gewerkt, gewerkt mummy texture</t>
+  </si>
+  <si>
+    <t>Thuis gewerkt, main char rig weapon unwrap</t>
+  </si>
+  <si>
+    <t>Goed gewerkt.</t>
+  </si>
+  <si>
+    <t>Goed bezig</t>
+  </si>
+  <si>
+    <t>Thuis bezig</t>
+  </si>
+  <si>
+    <t>Git hub problemen</t>
+  </si>
+  <si>
+    <t>Thuis bezig, mummy rig af mummy normal map torch particle</t>
+  </si>
+  <si>
+    <t>verstands kiezen laten trekken</t>
+  </si>
+  <si>
+    <t>rijexamen</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1360,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1456,15 +1492,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>1.0116279069767442</v>
+        <v>0.96875</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1524,11 +1560,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.94186046511627908</v>
+        <v>0.90625</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1588,11 +1624,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.97674418604651159</v>
+        <v>0.9375</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1652,11 +1688,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>1.0465116279069768</v>
+        <v>1</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1716,11 +1752,11 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
-        <v>1.0465116279069768</v>
+        <v>1</v>
       </c>
       <c r="U6" s="40" t="str">
         <f>K1</f>
@@ -1772,11 +1808,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.96511627906976749</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1830,11 +1866,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>70.5</v>
+        <v>76.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.81976744186046513</v>
+        <v>0.796875</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1884,7 +1920,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.808139534883721</v>
+        <v>6.536458333333333</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2539,7 +2575,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2555,7 +2591,7 @@
       <c r="O25" s="93"/>
       <c r="P25" s="93"/>
     </row>
-    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2613,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2653,7 @@
       </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2691,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2731,7 @@
       </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +2769,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +2807,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2817,7 +2853,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -3395,33 +3431,47 @@
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="10">
+        <v>4</v>
+      </c>
       <c r="C51" s="48">
-        <v>0</v>
-      </c>
-      <c r="D51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>98</v>
+      </c>
       <c r="E51" s="49">
-        <v>0</v>
-      </c>
-      <c r="F51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>99</v>
+      </c>
       <c r="G51" s="49">
-        <v>0</v>
-      </c>
-      <c r="H51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="I51" s="49">
-        <v>0</v>
-      </c>
-      <c r="J51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>101</v>
+      </c>
       <c r="K51" s="49">
-        <v>0</v>
-      </c>
-      <c r="L51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L51" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="M51" s="49">
-        <v>0</v>
-      </c>
-      <c r="N51" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N51" s="49" t="s">
+        <v>102</v>
+      </c>
       <c r="O51" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P51" s="50"/>
       <c r="Q51" s="2"/>
@@ -3431,33 +3481,47 @@
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
       <c r="C52" s="48">
-        <v>0</v>
-      </c>
-      <c r="D52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="E52" s="49">
-        <v>0</v>
-      </c>
-      <c r="F52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>104</v>
+      </c>
       <c r="G52" s="49">
-        <v>0</v>
-      </c>
-      <c r="H52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>104</v>
+      </c>
       <c r="I52" s="49">
-        <v>0</v>
-      </c>
-      <c r="J52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>107</v>
+      </c>
       <c r="K52" s="49">
-        <v>0</v>
-      </c>
-      <c r="L52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L52" s="49" t="s">
+        <v>106</v>
+      </c>
       <c r="M52" s="49">
-        <v>0</v>
-      </c>
-      <c r="N52" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>105</v>
+      </c>
       <c r="O52" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" s="50"/>
       <c r="Q52" s="2"/>
@@ -3475,7 +3539,9 @@
       <c r="E53" s="49">
         <v>0</v>
       </c>
-      <c r="F53" s="49"/>
+      <c r="F53" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="G53" s="49">
         <v>0</v>
       </c>
@@ -3487,7 +3553,9 @@
       <c r="K53" s="49">
         <v>0</v>
       </c>
-      <c r="L53" s="49"/>
+      <c r="L53" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="M53" s="49">
         <v>0</v>
       </c>
@@ -3511,7 +3579,9 @@
       <c r="E54" s="106">
         <v>0</v>
       </c>
-      <c r="F54" s="106"/>
+      <c r="F54" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="G54" s="106">
         <v>0</v>
       </c>
@@ -3540,41 +3610,42 @@
         <v>5</v>
       </c>
       <c r="B55" s="46">
-        <v>0</v>
+        <f>SUM(B50:B54)</f>
+        <v>10</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:K55" si="5">SUM(C50:C54)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D55" s="91"/>
       <c r="E55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F55" s="91"/>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H55" s="91"/>
       <c r="I55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J55" s="91"/>
       <c r="K55" s="91">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L55" s="91"/>
       <c r="M55" s="91">
         <f>SUM(M50:M54)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N55" s="91"/>
       <c r="O55" s="92">
         <f>SUM(O50:O54)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P55" s="92"/>
       <c r="Q55" s="44"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$D$1:$D$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$U$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
   <si>
     <t>Maandag</t>
   </si>
@@ -1386,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1405,20 +1405,20 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="70.88671875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
-    <col min="12" max="12" width="40" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="114" customWidth="1"/>
-    <col min="14" max="14" width="58.6640625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
-    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="76.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.109375" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="70.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="58.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1492,22 +1492,22 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.96875</v>
+        <v>0.97</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1564,14 +1564,14 @@
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.90625</v>
+        <v>0.87</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1624,18 +1624,18 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.9375</v>
+        <v>0.94</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1688,18 +1688,18 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1763,7 +1763,7 @@
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1808,18 +1808,18 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.92708333333333337</v>
+        <v>0.93</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1866,18 +1866,18 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>76.5</v>
+        <v>80.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.796875</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1894,7 +1894,7 @@
       <c r="P9" s="93"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
@@ -1920,10 +1920,10 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.536458333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.4949999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -2253,7 +2253,7 @@
       <c r="P17" s="93"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="N20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="50">
         <v>0</v>
       </c>
       <c r="P20" s="50"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="N21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="50">
         <v>0</v>
       </c>
       <c r="P21" s="50"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="N22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="50">
         <v>0</v>
       </c>
       <c r="P22" s="50"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2591,7 +2591,7 @@
       <c r="O25" s="93"/>
       <c r="P25" s="93"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -3531,11 +3531,15 @@
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
       <c r="C53" s="48">
-        <v>0</v>
-      </c>
-      <c r="D53" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="E53" s="49">
         <v>0</v>
       </c>
@@ -3543,25 +3547,31 @@
         <v>108</v>
       </c>
       <c r="G53" s="49">
-        <v>0</v>
-      </c>
-      <c r="H53" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="I53" s="49">
         <v>0</v>
       </c>
-      <c r="J53" s="49"/>
+      <c r="J53" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="K53" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M53" s="49">
-        <v>0</v>
-      </c>
-      <c r="N53" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="O53" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" s="50"/>
       <c r="Q53" s="2"/>
@@ -3571,11 +3581,15 @@
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="9">
+        <v>2</v>
+      </c>
       <c r="C54" s="108">
-        <v>0</v>
-      </c>
-      <c r="D54" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="E54" s="106">
         <v>0</v>
       </c>
@@ -3583,23 +3597,31 @@
         <v>108</v>
       </c>
       <c r="G54" s="106">
-        <v>0</v>
-      </c>
-      <c r="H54" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="I54" s="106">
-        <v>0</v>
-      </c>
-      <c r="J54" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="K54" s="106">
-        <v>0</v>
-      </c>
-      <c r="L54" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="M54" s="106">
-        <v>0</v>
-      </c>
-      <c r="N54" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="N54" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="O54" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" s="107"/>
       <c r="Q54" s="3"/>
@@ -3611,11 +3633,11 @@
       </c>
       <c r="B55" s="46">
         <f>SUM(B50:B54)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:K55" si="5">SUM(C50:C54)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D55" s="91"/>
       <c r="E55" s="91">
@@ -3625,27 +3647,27 @@
       <c r="F55" s="91"/>
       <c r="G55" s="91">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H55" s="91"/>
       <c r="I55" s="91">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J55" s="91"/>
       <c r="K55" s="91">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L55" s="91"/>
       <c r="M55" s="91">
         <f>SUM(M50:M54)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N55" s="91"/>
       <c r="O55" s="92">
         <f>SUM(O50:O54)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P55" s="92"/>
       <c r="Q55" s="44"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="111">
   <si>
     <t>Maandag</t>
   </si>
@@ -334,12 +334,6 @@
     <t>Goed bezig</t>
   </si>
   <si>
-    <t>Thuis bezig</t>
-  </si>
-  <si>
-    <t>Git hub problemen</t>
-  </si>
-  <si>
     <t>Thuis bezig, mummy rig af mummy normal map torch particle</t>
   </si>
   <si>
@@ -347,6 +341,15 @@
   </si>
   <si>
     <t>rijexamen</t>
+  </si>
+  <si>
+    <t>Git hub problemen, wel gewerkt</t>
+  </si>
+  <si>
+    <t>Thuis bezig, weapon uv</t>
+  </si>
+  <si>
+    <t>Goed gewerkt, heeft zich aankunnen passen aan scripts waarvan hij een ander idee van aanpak had</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1396,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1405,18 +1408,18 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="76.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.109375" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="70.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="58.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.88671875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
+    <col min="10" max="10" width="30.21875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="114" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
     <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -1492,15 +1495,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97</v>
+        <v>0.97115384615384615</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1560,11 +1563,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1624,11 +1627,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.94</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1688,11 +1691,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.98</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1752,7 +1755,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1808,11 +1811,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93</v>
+        <v>0.93269230769230771</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1870,14 +1873,14 @@
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.80500000000000005</v>
+        <v>0.77403846153846156</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -1894,7 +1897,7 @@
       <c r="P9" s="93"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
@@ -1920,10 +1923,10 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4949999999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.4759615384615383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1976,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -2253,7 +2256,7 @@
       <c r="P17" s="93"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2328,7 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2380,7 @@
       </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2432,7 @@
       </c>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2484,7 @@
       </c>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2578,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2591,7 +2594,7 @@
       <c r="O25" s="93"/>
       <c r="P25" s="93"/>
     </row>
-    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2613,7 +2616,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2694,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2769,7 +2772,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2810,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2856,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -3506,19 +3509,19 @@
         <v>2</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K52" s="49">
         <v>2</v>
       </c>
       <c r="L52" s="49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M52" s="49">
         <v>2</v>
       </c>
       <c r="N52" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O52" s="50">
         <v>2</v>
@@ -3544,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G53" s="49">
         <v>2</v>
@@ -3556,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K53" s="49">
         <v>2</v>
@@ -3594,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" s="106">
         <v>2</v>
@@ -3673,7 +3676,7 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -3689,7 +3692,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="93"/>
     </row>
-    <row r="57" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -3711,35 +3714,49 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="10"/>
+      <c r="B58" s="10">
+        <v>4</v>
+      </c>
       <c r="C58" s="48">
-        <v>0</v>
-      </c>
-      <c r="D58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="E58" s="49">
-        <v>0</v>
-      </c>
-      <c r="F58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="G58" s="49">
-        <v>0</v>
-      </c>
-      <c r="H58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="I58" s="49">
-        <v>0</v>
-      </c>
-      <c r="J58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="K58" s="49">
-        <v>0</v>
-      </c>
-      <c r="L58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L58" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="M58" s="49">
-        <v>0</v>
-      </c>
-      <c r="N58" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N58" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="O58" s="50">
         <v>0</v>
       </c>
@@ -3747,7 +3764,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3783,7 +3800,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3819,7 +3836,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -3855,7 +3872,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -3891,41 +3908,42 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="46">
-        <v>0</v>
+        <f>SUM(B58:B62)</f>
+        <v>4</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:K63" si="6">SUM(C58:C62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D63" s="91"/>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="91"/>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" s="91"/>
       <c r="I63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" s="91"/>
       <c r="K63" s="91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L63" s="91"/>
       <c r="M63" s="91">
         <f>SUM(M58:M62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N63" s="91"/>
       <c r="O63" s="92">
@@ -3936,7 +3954,7 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="112">
   <si>
     <t>Maandag</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Goed gewerkt, heeft zich aankunnen passen aan scripts waarvan hij een ander idee van aanpak had</t>
+  </si>
+  <si>
+    <t>Geen opmerking, ik was er niet</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1495,15 +1498,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97115384615384615</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1563,11 +1566,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.875</v>
+        <v>0.87962962962962965</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1627,11 +1630,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.94230769230769229</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1691,11 +1694,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.98076923076923073</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1755,7 +1758,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1811,11 +1814,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93269230769230771</v>
+        <v>0.93518518518518523</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1873,7 +1876,7 @@
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.77403846153846156</v>
+        <v>0.74537037037037035</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4759615384615383</v>
+        <v>6.458333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3768,31 +3771,45 @@
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="10">
+        <v>4</v>
+      </c>
       <c r="C59" s="48">
-        <v>0</v>
-      </c>
-      <c r="D59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="E59" s="49">
-        <v>0</v>
-      </c>
-      <c r="F59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="G59" s="49">
-        <v>0</v>
-      </c>
-      <c r="H59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="I59" s="49">
-        <v>0</v>
-      </c>
-      <c r="J59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="K59" s="49">
-        <v>0</v>
-      </c>
-      <c r="L59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="M59" s="49">
-        <v>0</v>
-      </c>
-      <c r="N59" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="O59" s="50">
         <v>0</v>
       </c>
@@ -3914,36 +3931,36 @@
       </c>
       <c r="B63" s="46">
         <f>SUM(B58:B62)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:K63" si="6">SUM(C58:C62)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D63" s="91"/>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" s="91"/>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H63" s="91"/>
       <c r="I63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J63" s="91"/>
       <c r="K63" s="91">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L63" s="91"/>
       <c r="M63" s="91">
         <f>SUM(M58:M62)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N63" s="91"/>
       <c r="O63" s="92">

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="118">
   <si>
     <t>Maandag</t>
   </si>
@@ -353,6 +353,24 @@
   </si>
   <si>
     <t>Geen opmerking, ik was er niet</t>
+  </si>
+  <si>
+    <t>Vrij</t>
+  </si>
+  <si>
+    <t>danial half uur te laat</t>
+  </si>
+  <si>
+    <t>danial ziek</t>
+  </si>
+  <si>
+    <t>half uur te laat</t>
+  </si>
+  <si>
+    <t>vrij</t>
+  </si>
+  <si>
+    <t>Heb tot 17.15 op school gezeten voor gamelab</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1411,18 +1429,18 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="30.21875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="114" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.21875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.33203125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -1498,15 +1516,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97222222222222221</v>
+        <v>0.9732142857142857</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1566,11 +1584,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.87962962962962965</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1630,11 +1648,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.94444444444444442</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1694,11 +1712,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.98148148148148151</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1758,7 +1776,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1814,11 +1832,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93518518518518523</v>
+        <v>0.9375</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1872,11 +1890,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>80.5</v>
+        <v>88</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.74537037037037035</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.458333333333333</v>
+        <v>6.5089285714285721</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2859,7 +2877,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2875,7 +2893,7 @@
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
     </row>
-    <row r="34" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2915,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2937,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2959,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2983,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +3005,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3027,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -3629,7 +3647,9 @@
       <c r="O54" s="107">
         <v>2</v>
       </c>
-      <c r="P54" s="107"/>
+      <c r="P54" s="107" t="s">
+        <v>117</v>
+      </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
@@ -3761,7 +3781,7 @@
         <v>87</v>
       </c>
       <c r="O58" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P58" s="50"/>
       <c r="Q58" s="2"/>
@@ -3814,40 +3834,56 @@
         <v>0</v>
       </c>
       <c r="P59" s="50"/>
-      <c r="Q59" s="2"/>
+      <c r="Q59" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="10">
+        <v>2</v>
+      </c>
       <c r="C60" s="48">
-        <v>0</v>
-      </c>
-      <c r="D60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="E60" s="49">
-        <v>0</v>
-      </c>
-      <c r="F60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="G60" s="49">
-        <v>0</v>
-      </c>
-      <c r="H60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="I60" s="49">
-        <v>0</v>
-      </c>
-      <c r="J60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J60" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="K60" s="49">
-        <v>0</v>
-      </c>
-      <c r="L60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="M60" s="49">
-        <v>0</v>
-      </c>
-      <c r="N60" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="O60" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" s="50"/>
       <c r="Q60" s="2"/>
@@ -3857,72 +3893,108 @@
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="10">
+        <v>2</v>
+      </c>
       <c r="C61" s="48">
-        <v>0</v>
-      </c>
-      <c r="D61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="E61" s="49">
-        <v>0</v>
-      </c>
-      <c r="F61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="G61" s="49">
-        <v>0</v>
-      </c>
-      <c r="H61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="I61" s="49">
-        <v>0</v>
-      </c>
-      <c r="J61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J61" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="K61" s="49">
-        <v>0</v>
-      </c>
-      <c r="L61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L61" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="M61" s="49">
-        <v>0</v>
-      </c>
-      <c r="N61" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="O61" s="50">
-        <v>0</v>
-      </c>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P61" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="R61" s="10"/>
     </row>
     <row r="62" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
       <c r="C62" s="108">
         <v>0</v>
       </c>
-      <c r="D62" s="106"/>
+      <c r="D62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="E62" s="106">
         <v>0</v>
       </c>
-      <c r="F62" s="106"/>
+      <c r="F62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="G62" s="106">
         <v>0</v>
       </c>
-      <c r="H62" s="106"/>
+      <c r="H62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="I62" s="106">
         <v>0</v>
       </c>
-      <c r="J62" s="106"/>
+      <c r="J62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="K62" s="106">
         <v>0</v>
       </c>
-      <c r="L62" s="106"/>
+      <c r="L62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="M62" s="106">
         <v>0</v>
       </c>
-      <c r="N62" s="106"/>
+      <c r="N62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="O62" s="107">
         <v>0</v>
       </c>
-      <c r="P62" s="107"/>
-      <c r="Q62" s="3"/>
+      <c r="P62" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q62" s="106" t="s">
+        <v>112</v>
+      </c>
       <c r="R62" s="10"/>
     </row>
     <row r="63" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3931,47 +4003,47 @@
       </c>
       <c r="B63" s="46">
         <f>SUM(B58:B62)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" ref="C63:K63" si="6">SUM(C58:C62)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63" s="91"/>
       <c r="E63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F63" s="91"/>
       <c r="G63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" s="91"/>
       <c r="I63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J63" s="91"/>
       <c r="K63" s="91">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L63" s="91"/>
       <c r="M63" s="91">
         <f>SUM(M58:M62)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N63" s="91"/>
       <c r="O63" s="92">
         <f>SUM(O58:O62)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P63" s="92"/>
       <c r="Q63" s="39"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -3990,7 +4062,7 @@
       <c r="Q64" s="128"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -4012,11 +4084,13 @@
       <c r="Q65" s="26"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="C66" s="48">
         <v>0</v>
       </c>
@@ -4048,11 +4122,13 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="C67" s="48">
         <v>0</v>
       </c>
@@ -4084,11 +4160,13 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="C68" s="48">
         <v>0</v>
       </c>
@@ -4120,7 +4198,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -4156,7 +4234,7 @@
       <c r="Q69" s="26"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -4192,7 +4270,7 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
@@ -4237,7 +4315,7 @@
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="123">
   <si>
     <t>Maandag</t>
   </si>
@@ -371,6 +371,21 @@
   </si>
   <si>
     <t>Heb tot 17.15 op school gezeten voor gamelab</t>
+  </si>
+  <si>
+    <t>drie kwartier te laat</t>
+  </si>
+  <si>
+    <t>Harold ziek</t>
+  </si>
+  <si>
+    <t>Harold ziek, danial kwartier te laat, paco drie kwartier te laat</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
+  <si>
+    <t>ziek, zou proberen thuis te werken</t>
   </si>
 </sst>
 </file>
@@ -784,7 +799,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1132,6 +1147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1410,7 +1428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1420,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1441,8 +1459,8 @@
     <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="35.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1516,15 +1534,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.9732142857142857</v>
+        <v>0.97457627118644063</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1588,7 +1606,7 @@
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.8839285714285714</v>
+        <v>0.83898305084745761</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1648,11 +1666,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.9464285714285714</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1712,11 +1730,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.9821428571428571</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1776,7 +1794,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1832,11 +1850,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>105</v>
+        <v>110.15</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.9375</v>
+        <v>0.93347457627118646</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1890,11 +1908,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>88</v>
+        <v>93.75</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.7857142857142857</v>
+        <v>0.79449152542372881</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1944,7 +1962,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.5089285714285721</v>
+        <v>6.4737288135593225</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3027,7 +3045,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -3043,7 +3061,7 @@
       <c r="O40" s="93"/>
       <c r="P40" s="93"/>
     </row>
-    <row r="41" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3083,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3135,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3185,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3237,7 @@
       </c>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3287,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3341,7 @@
       </c>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3387,7 @@
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -3385,7 +3403,7 @@
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
     </row>
-    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3407,7 +3425,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3469,7 @@
       </c>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3519,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3569,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3601,7 +3619,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3671,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +3717,7 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -4088,7 +4106,7 @@
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="137" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="48">
@@ -4126,7 +4144,7 @@
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="137" t="s">
         <v>112</v>
       </c>
       <c r="C67" s="48">
@@ -4164,7 +4182,7 @@
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="137" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="48">
@@ -4202,72 +4220,88 @@
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="36">
+        <v>2</v>
+      </c>
       <c r="C69" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" s="49"/>
       <c r="E69" s="49">
         <v>0</v>
       </c>
-      <c r="F69" s="49"/>
+      <c r="F69" s="49" t="s">
+        <v>121</v>
+      </c>
       <c r="G69" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="49"/>
       <c r="I69" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" s="49"/>
       <c r="K69" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" s="49"/>
       <c r="M69" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" s="49"/>
       <c r="O69" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" s="50"/>
-      <c r="Q69" s="26"/>
+      <c r="Q69" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="R69" s="10"/>
     </row>
     <row r="70" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="37">
+        <v>4</v>
+      </c>
       <c r="C70" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D70" s="106"/>
       <c r="E70" s="106">
         <v>0</v>
       </c>
-      <c r="F70" s="106"/>
+      <c r="F70" s="106" t="s">
+        <v>122</v>
+      </c>
       <c r="G70" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70" s="106"/>
       <c r="I70" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70" s="106"/>
       <c r="K70" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70" s="106"/>
       <c r="M70" s="106">
-        <v>0</v>
-      </c>
-      <c r="N70" s="106"/>
+        <v>3.15</v>
+      </c>
+      <c r="N70" s="106" t="s">
+        <v>118</v>
+      </c>
       <c r="O70" s="107">
-        <v>0</v>
-      </c>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="28"/>
+        <v>3.75</v>
+      </c>
+      <c r="P70" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q70" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="R70" s="10"/>
     </row>
     <row r="71" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4275,11 +4309,12 @@
         <v>5</v>
       </c>
       <c r="B71" s="46">
-        <v>0</v>
+        <f>SUM(B69:B70)</f>
+        <v>6</v>
       </c>
       <c r="C71" s="90">
         <f t="shared" ref="C71:K71" si="7">SUM(C66:C70)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D71" s="91"/>
       <c r="E71" s="91">
@@ -4289,33 +4324,33 @@
       <c r="F71" s="91"/>
       <c r="G71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H71" s="91"/>
       <c r="I71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J71" s="91"/>
       <c r="K71" s="91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L71" s="91"/>
       <c r="M71" s="91">
         <f>SUM(M66:M70)</f>
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="N71" s="91"/>
       <c r="O71" s="92">
         <f>SUM(O66:O70)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="P71" s="92"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -4331,7 +4366,7 @@
       <c r="O72" s="93"/>
       <c r="P72" s="93"/>
     </row>
-    <row r="73" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -4353,7 +4388,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4424,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -4425,7 +4460,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4461,7 +4496,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4532,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4568,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -4578,7 +4613,7 @@
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="123">
   <si>
     <t>Maandag</t>
   </si>
@@ -1428,7 +1428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1453,14 +1453,14 @@
     <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="29.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.21875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.21875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
+    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1534,15 +1534,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97457627118644063</v>
+        <v>0.97540983606557374</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1602,11 +1602,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.83898305084745761</v>
+        <v>0.84426229508196726</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1666,11 +1666,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.94915254237288138</v>
+        <v>0.95081967213114749</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1730,11 +1730,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>116</v>
+        <v>119.5</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.98305084745762716</v>
+        <v>0.97950819672131151</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1794,7 +1794,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1850,11 +1850,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>110.15</v>
+        <v>113.65</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93347457627118646</v>
+        <v>0.9315573770491804</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1908,11 +1908,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>93.75</v>
+        <v>97.75</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.79449152542372881</v>
+        <v>0.80122950819672134</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4737288135593225</v>
+        <v>6.4827868852459014</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4392,33 +4392,39 @@
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="10">
+        <v>4</v>
+      </c>
       <c r="C74" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H74" s="49"/>
       <c r="I74" s="49">
-        <v>0</v>
-      </c>
-      <c r="J74" s="49"/>
+        <v>3.5</v>
+      </c>
+      <c r="J74" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="K74" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" s="49"/>
       <c r="M74" s="49">
-        <v>0</v>
-      </c>
-      <c r="N74" s="49"/>
+        <v>3.5</v>
+      </c>
+      <c r="N74" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="O74" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P74" s="50"/>
       <c r="Q74" s="2"/>
@@ -4573,41 +4579,42 @@
         <v>5</v>
       </c>
       <c r="B79" s="46">
-        <v>0</v>
+        <f>SUM(B74:B78)</f>
+        <v>4</v>
       </c>
       <c r="C79" s="90">
         <f t="shared" ref="C79:K79" si="8">SUM(C74:C78)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D79" s="91"/>
       <c r="E79" s="91">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" s="91"/>
       <c r="G79" s="91">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" s="91"/>
       <c r="I79" s="91">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J79" s="91"/>
       <c r="K79" s="91">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" s="91"/>
       <c r="M79" s="91">
         <f>SUM(M74:M78)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N79" s="91"/>
       <c r="O79" s="92">
         <f>SUM(O74:O78)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P79" s="92"/>
       <c r="Q79" s="44"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="133">
   <si>
     <t>Maandag</t>
   </si>
@@ -386,6 +386,36 @@
   </si>
   <si>
     <t>ziek, zou proberen thuis te werken</t>
+  </si>
+  <si>
+    <t>kwartier te laat, tot 17.15 op school gezet voor gamelab</t>
+  </si>
+  <si>
+    <t>goed gewerkt, nam de feedback op haar workflow goed op</t>
+  </si>
+  <si>
+    <t>goed gewerkt laat vaak van zijn werk dingen zien</t>
+  </si>
+  <si>
+    <t>goed gewerkt, toonde initiatatief voor meer werk heb met hem een kleine persoonlijke planning gemaakt voor extra assets waarin ik hem begelijd</t>
+  </si>
+  <si>
+    <t>half uur te laat, goed gewerkt</t>
+  </si>
+  <si>
+    <t>goed bezig, was de enige die feedback op mij gaf nadat ik het vroeg heb de feedback opgenomen</t>
+  </si>
+  <si>
+    <t>Erwin en Paco een half uur te laat</t>
+  </si>
+  <si>
+    <t>Ziekenhuis controlle</t>
+  </si>
+  <si>
+    <t>Greenlight presentation</t>
+  </si>
+  <si>
+    <t>Ziekenhuis</t>
   </si>
 </sst>
 </file>
@@ -449,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +835,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1152,6 +1188,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1428,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N84" sqref="M82:O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1447,20 +1499,20 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.88671875" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
     <col min="10" max="10" width="30.21875" style="114" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="35.44140625" style="114" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
-    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1534,15 +1586,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97540983606557374</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1602,11 +1654,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.84426229508196726</v>
+        <v>0.84920634920634919</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1666,11 +1718,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.95081967213114749</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1730,11 +1782,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>119.5</v>
+        <v>123.5</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.97950819672131151</v>
+        <v>0.98015873015873012</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1794,7 +1846,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1850,11 +1902,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>113.65</v>
+        <v>117.65</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.9315573770491804</v>
+        <v>0.93373015873015874</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1908,11 +1960,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>97.75</v>
+        <v>101.75</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.80122950819672134</v>
+        <v>0.80753968253968256</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -1962,7 +2014,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4827868852459014</v>
+        <v>6.4992063492063492</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4297,7 +4349,7 @@
         <v>3.75</v>
       </c>
       <c r="P70" s="107" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="Q70" s="28" t="s">
         <v>120</v>
@@ -4398,20 +4450,26 @@
       <c r="C74" s="48">
         <v>4</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="E74" s="49">
         <v>4</v>
       </c>
-      <c r="F74" s="49"/>
+      <c r="F74" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="G74" s="49">
         <v>4</v>
       </c>
-      <c r="H74" s="49"/>
+      <c r="H74" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="I74" s="49">
         <v>3.5</v>
       </c>
       <c r="J74" s="49" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K74" s="49">
         <v>4</v>
@@ -4421,46 +4479,60 @@
         <v>3.5</v>
       </c>
       <c r="N74" s="49" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O74" s="50">
         <v>4</v>
       </c>
       <c r="P74" s="50"/>
-      <c r="Q74" s="2"/>
+      <c r="Q74" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="R74" s="10"/>
     </row>
     <row r="75" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="10"/>
+      <c r="B75" s="10">
+        <v>4</v>
+      </c>
       <c r="C75" s="48">
-        <v>0</v>
-      </c>
-      <c r="D75" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>124</v>
+      </c>
       <c r="E75" s="49">
-        <v>0</v>
-      </c>
-      <c r="F75" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>125</v>
+      </c>
       <c r="G75" s="49">
-        <v>0</v>
-      </c>
-      <c r="H75" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H75" s="49" t="s">
+        <v>126</v>
+      </c>
       <c r="I75" s="49">
-        <v>0</v>
-      </c>
-      <c r="J75" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J75" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="K75" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" s="49"/>
       <c r="M75" s="49">
-        <v>0</v>
-      </c>
-      <c r="N75" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N75" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="O75" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P75" s="50"/>
       <c r="Q75" s="2"/>
@@ -4486,7 +4558,9 @@
       <c r="I76" s="49">
         <v>0</v>
       </c>
-      <c r="J76" s="49"/>
+      <c r="J76" s="49" t="s">
+        <v>130</v>
+      </c>
       <c r="K76" s="49">
         <v>0</v>
       </c>
@@ -4580,47 +4654,47 @@
       </c>
       <c r="B79" s="46">
         <f>SUM(B74:B78)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C79" s="90">
         <f t="shared" ref="C79:K79" si="8">SUM(C74:C78)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D79" s="91"/>
       <c r="E79" s="91">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F79" s="91"/>
       <c r="G79" s="91">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H79" s="91"/>
       <c r="I79" s="91">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J79" s="91"/>
       <c r="K79" s="91">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L79" s="91"/>
       <c r="M79" s="91">
         <f>SUM(M74:M78)</f>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N79" s="91"/>
       <c r="O79" s="92">
         <f>SUM(O74:O78)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P79" s="92"/>
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -4636,7 +4710,7 @@
       <c r="O80" s="93"/>
       <c r="P80" s="93"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4732,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4694,7 +4768,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4722,7 +4796,9 @@
       <c r="M83" s="49">
         <v>0</v>
       </c>
-      <c r="N83" s="49"/>
+      <c r="N83" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="O83" s="50">
         <v>0</v>
       </c>
@@ -4730,7 +4806,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4842,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4878,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -4838,7 +4914,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -4883,7 +4959,7 @@
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -4899,7 +4975,7 @@
       <c r="O88" s="93"/>
       <c r="P88" s="93"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -4921,7 +4997,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -4957,7 +5033,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4993,7 +5069,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -5029,7 +5105,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -5065,7 +5141,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5177,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -5146,7 +5222,8 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="143"/>
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
       <c r="E96" s="93"/>
@@ -5162,29 +5239,31 @@
       <c r="O96" s="93"/>
       <c r="P96" s="93"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="88"/>
-      <c r="O97" s="89"/>
-      <c r="P97" s="89"/>
-      <c r="Q97" s="1"/>
+      <c r="B97" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="138"/>
+      <c r="D97" s="139"/>
+      <c r="E97" s="139"/>
+      <c r="F97" s="139"/>
+      <c r="G97" s="139"/>
+      <c r="H97" s="139"/>
+      <c r="I97" s="139"/>
+      <c r="J97" s="139"/>
+      <c r="K97" s="139"/>
+      <c r="L97" s="139"/>
+      <c r="M97" s="139"/>
+      <c r="N97" s="139"/>
+      <c r="O97" s="140"/>
+      <c r="P97" s="140"/>
+      <c r="Q97" s="141"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5299,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -5256,8 +5335,8 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="145" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="10"/>
@@ -5292,7 +5371,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +5407,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -5364,7 +5443,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -5409,7 +5488,7 @@
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="134">
   <si>
     <t>Maandag</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Ziekenhuis</t>
+  </si>
+  <si>
+    <t>drie kwartier eerder weg vanwege "slechte focus"</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1491,7 +1494,7 @@
   <dimension ref="A1:U175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N84" sqref="M82:O87"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4780,7 +4783,9 @@
       <c r="E83" s="49">
         <v>0</v>
       </c>
-      <c r="F83" s="49"/>
+      <c r="F83" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="G83" s="49">
         <v>0</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="135">
   <si>
     <t>Maandag</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>drie kwartier eerder weg vanwege "slechte focus"</t>
+  </si>
+  <si>
+    <t>paar uur later vanwege OV (optijd gemeld in de whatsapp groep)</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1493,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5010,7 +5013,9 @@
       <c r="C90" s="48">
         <v>0</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="49" t="s">
+        <v>134</v>
+      </c>
       <c r="E90" s="49">
         <v>0</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1486,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="137">
   <si>
     <t>Maandag</t>
   </si>
@@ -388,9 +388,6 @@
     <t>ziek, zou proberen thuis te werken</t>
   </si>
   <si>
-    <t>kwartier te laat, tot 17.15 op school gezet voor gamelab</t>
-  </si>
-  <si>
     <t>goed gewerkt, nam de feedback op haar workflow goed op</t>
   </si>
   <si>
@@ -422,13 +419,22 @@
   </si>
   <si>
     <t>paar uur later vanwege OV (optijd gemeld in de whatsapp groep)</t>
+  </si>
+  <si>
+    <t>kwartier te laat, tot 17.15 op school gezeten voor gamelab</t>
+  </si>
+  <si>
+    <t>Paco ziekenhuis</t>
+  </si>
+  <si>
+    <t>Erwin Ziekenhuis controlle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +486,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,7 +855,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1210,6 +1224,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1486,7 +1503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1505,20 +1522,20 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1"/>
-    <col min="10" max="10" width="30.21875" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.21875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="28.33203125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.44140625" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1"/>
-    <col min="16" max="16" width="40" style="114" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1592,15 +1609,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97619047619047616</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
@@ -1660,11 +1677,11 @@
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>107</v>
+        <v>150.15</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.84920634920634919</v>
+        <v>0.88323529411764712</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
@@ -1724,11 +1741,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.95238095238095233</v>
+        <v>0.96470588235294119</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
@@ -1788,11 +1805,11 @@
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>123.5</v>
+        <v>165.5</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.98015873015873012</v>
+        <v>0.97352941176470587</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
@@ -1852,7 +1869,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
@@ -1908,11 +1925,11 @@
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>117.65</v>
+        <v>157.65</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.93373015873015874</v>
+        <v>0.9273529411764706</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
@@ -1966,11 +1983,11 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>101.75</v>
+        <v>145.75</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.80753968253968256</v>
+        <v>0.85735294117647054</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
@@ -2020,7 +2037,7 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.4992063492063492</v>
+        <v>6.5767647058823542</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4355,7 +4372,7 @@
         <v>3.75</v>
       </c>
       <c r="P70" s="107" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q70" s="28" t="s">
         <v>120</v>
@@ -4475,7 +4492,7 @@
         <v>3.5</v>
       </c>
       <c r="J74" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K74" s="49">
         <v>4</v>
@@ -4485,14 +4502,14 @@
         <v>3.5</v>
       </c>
       <c r="N74" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O74" s="50">
         <v>4</v>
       </c>
       <c r="P74" s="50"/>
       <c r="Q74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R74" s="10"/>
     </row>
@@ -4507,19 +4524,19 @@
         <v>4</v>
       </c>
       <c r="D75" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="49">
+        <v>4</v>
+      </c>
+      <c r="F75" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E75" s="49">
-        <v>4</v>
-      </c>
-      <c r="F75" s="49" t="s">
+      <c r="G75" s="49">
+        <v>4</v>
+      </c>
+      <c r="H75" s="49" t="s">
         <v>125</v>
-      </c>
-      <c r="G75" s="49">
-        <v>4</v>
-      </c>
-      <c r="H75" s="49" t="s">
-        <v>126</v>
       </c>
       <c r="I75" s="49">
         <v>4</v>
@@ -4535,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O75" s="50">
         <v>4</v>
@@ -4548,71 +4565,77 @@
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
       <c r="C76" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="49"/>
       <c r="G76" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="49"/>
       <c r="I76" s="49">
         <v>0</v>
       </c>
       <c r="J76" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K76" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" s="49"/>
       <c r="M76" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" s="49"/>
       <c r="O76" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P76" s="50"/>
-      <c r="Q76" s="2"/>
+      <c r="Q76" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="R76" s="10"/>
     </row>
     <row r="77" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="10">
+        <v>2</v>
+      </c>
       <c r="C77" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="49"/>
       <c r="G77" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="49"/>
       <c r="I77" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" s="49"/>
       <c r="K77" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77" s="49"/>
       <c r="M77" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" s="49"/>
       <c r="O77" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P77" s="50"/>
       <c r="Q77" s="2"/>
@@ -4622,33 +4645,35 @@
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="9">
+        <v>4</v>
+      </c>
       <c r="C78" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D78" s="106"/>
       <c r="E78" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F78" s="106"/>
       <c r="G78" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H78" s="106"/>
       <c r="I78" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" s="106"/>
       <c r="K78" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="106"/>
       <c r="M78" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N78" s="106"/>
       <c r="O78" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P78" s="107"/>
       <c r="Q78" s="3"/>
@@ -4658,43 +4683,43 @@
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="46">
+      <c r="B79" s="146">
         <f>SUM(B74:B78)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" s="90">
         <f t="shared" ref="C79:K79" si="8">SUM(C74:C78)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D79" s="91"/>
       <c r="E79" s="91">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F79" s="91"/>
       <c r="G79" s="91">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H79" s="91"/>
       <c r="I79" s="91">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="J79" s="91"/>
       <c r="K79" s="91">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L79" s="91"/>
       <c r="M79" s="91">
         <f>SUM(M74:M78)</f>
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="N79" s="91"/>
       <c r="O79" s="92">
         <f>SUM(O74:O78)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P79" s="92"/>
       <c r="Q79" s="44"/>
@@ -4742,33 +4767,35 @@
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="10">
+        <v>4</v>
+      </c>
       <c r="C82" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D82" s="49"/>
       <c r="E82" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" s="49"/>
       <c r="G82" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" s="49"/>
       <c r="I82" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" s="49"/>
       <c r="K82" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L82" s="49"/>
       <c r="M82" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N82" s="49"/>
       <c r="O82" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P82" s="50"/>
       <c r="Q82" s="2"/>
@@ -4778,73 +4805,79 @@
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="10"/>
+      <c r="B83" s="10">
+        <v>4</v>
+      </c>
       <c r="C83" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="49">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G83" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" s="49"/>
       <c r="I83" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" s="49"/>
       <c r="K83" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83" s="49"/>
       <c r="M83" s="49">
         <v>0</v>
       </c>
       <c r="N83" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O83" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P83" s="50"/>
-      <c r="Q83" s="2"/>
+      <c r="Q83" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="R83" s="10"/>
     </row>
     <row r="84" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="10"/>
+      <c r="B84" s="10">
+        <v>2</v>
+      </c>
       <c r="C84" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" s="49"/>
       <c r="E84" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="49"/>
       <c r="G84" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" s="49"/>
       <c r="I84" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" s="49"/>
       <c r="K84" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L84" s="49"/>
       <c r="M84" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N84" s="49"/>
       <c r="O84" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" s="50"/>
       <c r="Q84" s="2"/>
@@ -4854,33 +4887,35 @@
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="10">
+        <v>2</v>
+      </c>
       <c r="C85" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" s="49"/>
       <c r="E85" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" s="49"/>
       <c r="I85" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" s="49"/>
       <c r="K85" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85" s="49"/>
       <c r="M85" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85" s="49"/>
       <c r="O85" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" s="50"/>
       <c r="Q85" s="2"/>
@@ -4890,33 +4925,35 @@
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="9">
+        <v>4</v>
+      </c>
       <c r="C86" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D86" s="106"/>
       <c r="E86" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" s="106"/>
       <c r="G86" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86" s="106"/>
       <c r="I86" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J86" s="106"/>
       <c r="K86" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L86" s="106"/>
       <c r="M86" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N86" s="106"/>
       <c r="O86" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P86" s="107"/>
       <c r="Q86" s="3"/>
@@ -4926,42 +4963,43 @@
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="46">
-        <v>0</v>
+      <c r="B87" s="146">
+        <f>SUM(B82:B86)</f>
+        <v>16</v>
       </c>
       <c r="C87" s="90">
         <f t="shared" ref="C87:K87" si="9">SUM(C82:C86)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D87" s="91"/>
       <c r="E87" s="91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="F87" s="91"/>
       <c r="G87" s="91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H87" s="91"/>
       <c r="I87" s="91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J87" s="91"/>
       <c r="K87" s="91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L87" s="91"/>
       <c r="M87" s="91">
         <f>SUM(M82:M86)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N87" s="91"/>
       <c r="O87" s="92">
         <f>SUM(O82:O86)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P87" s="92"/>
       <c r="Q87" s="44"/>
@@ -5009,35 +5047,37 @@
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="10">
+        <v>4</v>
+      </c>
       <c r="C90" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90" s="49"/>
       <c r="I90" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" s="49"/>
       <c r="K90" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L90" s="49"/>
       <c r="M90" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N90" s="49"/>
       <c r="O90" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P90" s="50"/>
       <c r="Q90" s="2"/>
@@ -5047,33 +5087,35 @@
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="10"/>
+      <c r="B91" s="10">
+        <v>4</v>
+      </c>
       <c r="C91" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91" s="49"/>
       <c r="G91" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91" s="49"/>
       <c r="I91" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" s="49"/>
       <c r="K91" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L91" s="49"/>
       <c r="M91" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N91" s="49"/>
       <c r="O91" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P91" s="50"/>
       <c r="Q91" s="2"/>
@@ -5083,33 +5125,35 @@
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="10"/>
+      <c r="B92" s="10">
+        <v>2</v>
+      </c>
       <c r="C92" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="49"/>
       <c r="G92" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="49"/>
       <c r="I92" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" s="49"/>
       <c r="K92" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" s="49"/>
       <c r="M92" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92" s="49"/>
       <c r="O92" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P92" s="50"/>
       <c r="Q92" s="2"/>
@@ -5119,33 +5163,35 @@
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="10">
+        <v>2</v>
+      </c>
       <c r="C93" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" s="49"/>
       <c r="G93" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="49"/>
       <c r="I93" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" s="49"/>
       <c r="K93" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="49"/>
       <c r="M93" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93" s="49"/>
       <c r="O93" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P93" s="50"/>
       <c r="Q93" s="2"/>
@@ -5155,35 +5201,39 @@
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="9">
+        <v>4</v>
+      </c>
       <c r="C94" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94" s="106"/>
       <c r="E94" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F94" s="106"/>
       <c r="G94" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" s="106"/>
       <c r="I94" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" s="106"/>
       <c r="K94" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L94" s="106"/>
       <c r="M94" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N94" s="106"/>
       <c r="O94" s="107">
-        <v>0</v>
-      </c>
-      <c r="P94" s="107"/>
+        <v>4</v>
+      </c>
+      <c r="P94" s="107" t="s">
+        <v>134</v>
+      </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
@@ -5191,42 +5241,43 @@
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="46">
-        <v>0</v>
+      <c r="B95" s="146">
+        <f>SUM(B90:B94)</f>
+        <v>16</v>
       </c>
       <c r="C95" s="90">
         <f t="shared" ref="C95:K95" si="10">SUM(C90:C94)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D95" s="91"/>
       <c r="E95" s="91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F95" s="91"/>
       <c r="G95" s="91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H95" s="91"/>
       <c r="I95" s="91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J95" s="91"/>
       <c r="K95" s="91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L95" s="91"/>
       <c r="M95" s="91">
         <f>SUM(M90:M94)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N95" s="91"/>
       <c r="O95" s="92">
         <f>SUM(O90:O94)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P95" s="92"/>
       <c r="Q95" s="44"/>
@@ -5254,7 +5305,7 @@
         <v>23</v>
       </c>
       <c r="B97" s="144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="138"/>
       <c r="D97" s="139"/>
@@ -5277,76 +5328,96 @@
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="10">
+        <v>4</v>
+      </c>
       <c r="C98" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98" s="49"/>
       <c r="I98" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98" s="49"/>
       <c r="K98" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L98" s="49"/>
       <c r="M98" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N98" s="49"/>
       <c r="O98" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P98" s="50"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
     <row r="99" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="10">
+        <v>0</v>
+      </c>
       <c r="C99" s="48">
         <v>0</v>
       </c>
-      <c r="D99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="E99" s="49">
         <v>0</v>
       </c>
-      <c r="F99" s="49"/>
+      <c r="F99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="G99" s="49">
         <v>0</v>
       </c>
-      <c r="H99" s="49"/>
+      <c r="H99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="I99" s="49">
         <v>0</v>
       </c>
-      <c r="J99" s="49"/>
+      <c r="J99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="K99" s="49">
         <v>0</v>
       </c>
-      <c r="L99" s="49"/>
+      <c r="L99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="M99" s="49">
         <v>0</v>
       </c>
-      <c r="N99" s="49"/>
+      <c r="N99" s="49" t="s">
+        <v>90</v>
+      </c>
       <c r="O99" s="50">
         <v>0</v>
       </c>
-      <c r="P99" s="50"/>
-      <c r="Q99" s="2"/>
+      <c r="P99" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="R99" s="10"/>
     </row>
     <row r="100" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="145" t="s">
+      <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="10"/>
@@ -5458,41 +5529,42 @@
         <v>5</v>
       </c>
       <c r="B103" s="46">
-        <v>0</v>
+        <f>SUM(B98:B102)</f>
+        <v>4</v>
       </c>
       <c r="C103" s="90">
         <f t="shared" ref="C103:O103" si="11">SUM(C98:C102)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D103" s="91"/>
       <c r="E103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F103" s="91"/>
       <c r="G103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H103" s="91"/>
       <c r="I103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" s="91"/>
       <c r="K103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L103" s="91"/>
       <c r="M103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N103" s="91"/>
       <c r="O103" s="91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P103" s="91"/>
       <c r="Q103" s="39"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="138">
   <si>
     <t>Maandag</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>Erwin Ziekenhuis controlle</t>
+  </si>
+  <si>
+    <t>paco laat</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1513,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5570,7 +5573,7 @@
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -5586,7 +5589,7 @@
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>24</v>
       </c>
@@ -5608,7 +5611,7 @@
       <c r="Q105" s="17"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5633,7 @@
       <c r="Q106" s="19"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -5652,7 +5655,7 @@
       <c r="Q107" s="19"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>2</v>
       </c>
@@ -5676,7 +5679,7 @@
       <c r="Q108" s="19"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>3</v>
       </c>
@@ -5698,7 +5701,7 @@
       <c r="Q109" s="19"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="33" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5723,7 @@
       <c r="Q110" s="21"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -5736,7 +5739,7 @@
       <c r="O111" s="93"/>
       <c r="P111" s="93"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -5758,7 +5761,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5797,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
@@ -5830,7 +5833,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5869,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -5902,7 +5905,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
@@ -5938,7 +5941,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -5983,7 +5986,7 @@
       <c r="Q118" s="39"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -5999,7 +6002,7 @@
       <c r="O119" s="93"/>
       <c r="P119" s="93"/>
     </row>
-    <row r="120" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -6021,7 +6024,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -6054,10 +6057,12 @@
         <v>0</v>
       </c>
       <c r="P121" s="50"/>
-      <c r="Q121" s="2"/>
+      <c r="Q121" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -6093,7 +6098,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -6129,7 +6134,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -6165,7 +6170,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
@@ -6198,10 +6203,12 @@
         <v>0</v>
       </c>
       <c r="P125" s="107"/>
-      <c r="Q125" s="3"/>
+      <c r="Q125" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -6246,7 +6253,7 @@
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="139">
   <si>
     <t>Maandag</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>paco laat</t>
+  </si>
+  <si>
+    <t>Paco ziek,  harold ziek</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1516,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q121" sqref="Q121"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3795,7 +3798,7 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -3811,7 +3814,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="93"/>
     </row>
-    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -3833,7 +3836,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3886,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3935,7 +3938,7 @@
       </c>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>4</v>
       </c>
@@ -4093,7 +4096,7 @@
       </c>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -4139,7 +4142,7 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -4158,7 +4161,7 @@
       <c r="Q64" s="128"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -4177,10 +4180,10 @@
       <c r="N65" s="88"/>
       <c r="O65" s="89"/>
       <c r="P65" s="89"/>
-      <c r="Q65" s="26"/>
+      <c r="Q65" s="89"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4221,7 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -4256,7 +4259,7 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -4294,7 +4297,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -4336,7 +4339,7 @@
       </c>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -4382,7 +4385,7 @@
       </c>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
@@ -4428,7 +4431,7 @@
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -4444,7 +4447,7 @@
       <c r="O72" s="93"/>
       <c r="P72" s="93"/>
     </row>
-    <row r="73" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -4466,7 +4469,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -4516,7 +4519,7 @@
       </c>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -4564,7 +4567,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +4609,7 @@
       </c>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4644,7 +4647,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -4682,7 +4685,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -4728,7 +4731,7 @@
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -4744,7 +4747,7 @@
       <c r="O80" s="93"/>
       <c r="P80" s="93"/>
     </row>
-    <row r="81" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -4766,7 +4769,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4807,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4848,7 +4851,7 @@
       </c>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4889,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4924,7 +4927,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -4962,7 +4965,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -5008,7 +5011,7 @@
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -5024,7 +5027,7 @@
       <c r="O88" s="93"/>
       <c r="P88" s="93"/>
     </row>
-    <row r="89" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -5046,7 +5049,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -5086,7 +5089,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -5124,7 +5127,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -5162,7 +5165,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5203,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -5240,7 +5243,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -5286,7 +5289,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A96" s="143"/>
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
@@ -5303,7 +5306,7 @@
       <c r="O96" s="93"/>
       <c r="P96" s="93"/>
     </row>
-    <row r="97" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="142" t="s">
         <v>23</v>
       </c>
@@ -5327,7 +5330,7 @@
       <c r="Q97" s="141"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="145" t="s">
         <v>1</v>
       </c>
@@ -5419,7 +5422,7 @@
       </c>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -5455,7 +5458,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
@@ -5491,7 +5494,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
@@ -5527,7 +5530,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +5576,7 @@
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -6253,7 +6256,7 @@
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -6269,7 +6272,7 @@
       <c r="O127" s="93"/>
       <c r="P127" s="93"/>
     </row>
-    <row r="128" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -6291,7 +6294,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +6330,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
@@ -6363,7 +6366,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -6399,7 +6402,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
@@ -6435,7 +6438,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
@@ -6471,7 +6474,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -6516,7 +6519,7 @@
       <c r="Q134" s="39"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -6532,7 +6535,7 @@
       <c r="O135" s="93"/>
       <c r="P135" s="93"/>
     </row>
-    <row r="136" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -6554,7 +6557,7 @@
       <c r="Q136" s="24"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
@@ -6590,7 +6593,7 @@
       <c r="Q137" s="26"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="Q138" s="26"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -6662,7 +6665,7 @@
       <c r="Q139" s="26"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
@@ -6698,7 +6701,7 @@
       <c r="Q140" s="26"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -6734,7 +6737,7 @@
       <c r="Q141" s="28"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -6779,7 +6782,7 @@
       <c r="Q142" s="115"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="29"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -6797,7 +6800,7 @@
       <c r="P143" s="93"/>
       <c r="Q143" s="30"/>
     </row>
-    <row r="144" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -6819,7 +6822,7 @@
       <c r="Q144" s="24"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
@@ -6855,7 +6858,7 @@
       <c r="Q145" s="26"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
@@ -6891,7 +6894,7 @@
       <c r="Q146" s="26"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -6927,7 +6930,7 @@
       <c r="Q147" s="26"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
@@ -6960,10 +6963,12 @@
         <v>0</v>
       </c>
       <c r="P148" s="50"/>
-      <c r="Q148" s="26"/>
+      <c r="Q148" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -6996,10 +7001,12 @@
         <v>0</v>
       </c>
       <c r="P149" s="107"/>
-      <c r="Q149" s="28"/>
+      <c r="Q149" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -7044,7 +7051,7 @@
       <c r="Q150" s="39"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -7060,7 +7067,7 @@
       <c r="O151" s="93"/>
       <c r="P151" s="93"/>
     </row>
-    <row r="152" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -7082,7 +7089,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
@@ -7118,7 +7125,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
@@ -7154,7 +7161,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -7190,7 +7197,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -7226,7 +7233,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
@@ -7259,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="P157" s="107"/>
-      <c r="Q157" s="3"/>
+      <c r="Q157" s="2"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -7307,7 +7314,7 @@
       <c r="Q158" s="39"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23256" windowHeight="12588"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23250" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$176:$U$182</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="156">
   <si>
     <t>Maandag</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Afwezigheid Omschrijving</t>
   </si>
   <si>
-    <t>Totaal Project Game-Lab Uren</t>
-  </si>
-  <si>
     <t>100% Inzet</t>
   </si>
   <si>
@@ -430,10 +427,64 @@
     <t>Erwin Ziekenhuis controlle</t>
   </si>
   <si>
-    <t>paco laat</t>
-  </si>
-  <si>
     <t>Paco ziek,  harold ziek</t>
+  </si>
+  <si>
+    <t>Patrick vergissing gemaakt met gamelab uren</t>
+  </si>
+  <si>
+    <t>Danial thuis gewerkt</t>
+  </si>
+  <si>
+    <t>paco laat, sven laat</t>
+  </si>
+  <si>
+    <t>Danial Indievelopment</t>
+  </si>
+  <si>
+    <t>Danial laat, Sven laat, Paco laat</t>
+  </si>
+  <si>
+    <t>Danial buikloop thuisgewerkt</t>
+  </si>
+  <si>
+    <t>Patrick ziek thuis gewerkt</t>
+  </si>
+  <si>
+    <t>Paco laat</t>
+  </si>
+  <si>
+    <t>Danial laat</t>
+  </si>
+  <si>
+    <t>Harold voelt zich slecht</t>
+  </si>
+  <si>
+    <t>Total Gamelab Hours</t>
+  </si>
+  <si>
+    <t>Paco afwezig, Erwin later door afwezigheid Paco. Sven verslapen</t>
+  </si>
+  <si>
+    <t>Week 27:</t>
+  </si>
+  <si>
+    <t>Studiedag</t>
+  </si>
+  <si>
+    <t>Gold Master Presentation</t>
+  </si>
+  <si>
+    <t>Paco afwezig door verslapen</t>
+  </si>
+  <si>
+    <t>Paco Ziek vergeten te melden</t>
+  </si>
+  <si>
+    <t>Paco laat wissel storing</t>
+  </si>
+  <si>
+    <t>Presentatie en oplevering</t>
   </si>
 </sst>
 </file>
@@ -505,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +918,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1231,6 +1288,23 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1517,74 +1591,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S67" sqref="S67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.21875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.33203125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.44140625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="114" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.42578125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.28515625" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.42578125" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.85546875" style="114" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="40" style="114" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="42.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="131"/>
       <c r="E1" s="132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="132"/>
       <c r="G1" s="133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="133"/>
       <c r="I1" s="134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="134"/>
       <c r="K1" s="135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="135"/>
       <c r="M1" s="129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="136"/>
       <c r="O1" s="130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P1" s="118"/>
       <c r="Q1" s="51" t="s">
         <v>34</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>8</v>
@@ -1593,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1615,22 +1689,22 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="46">
         <f>B8+B16+B24+B32+B47+B55+B63+B71+B79+B87+B95+B103+B118+B126+B134+B142+B150+B158+B166+B174</f>
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="S2" s="62">
         <f>C8+C16+C24+C32+C47+C55+C63+C71+C79+C87+C95+C103+C118+C126+C134+C142+C150+C158+C166+C174</f>
-        <v>165</v>
+        <v>288.75</v>
       </c>
       <c r="T2" s="68">
         <f>S2/R2</f>
-        <v>0.97058823529411764</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="U2" s="57" t="str">
         <f>C1</f>
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1641,60 +1715,60 @@
         <v>4</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="49">
         <v>4</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="49">
         <v>4</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="49">
         <v>4</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="49">
         <v>4</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="49">
         <v>4</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="122">
         <v>4</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="119"/>
       <c r="R3" s="10"/>
       <c r="S3" s="63">
         <f>E8+E16+E24+E32+E47+E55+E63+E71+E79+E87+E95+E103+E118+E126+E134+E142+E150+E158+E166+E174</f>
-        <v>150.15</v>
+        <v>265</v>
       </c>
       <c r="T3" s="69">
         <f>S3/R2</f>
-        <v>0.88323529411764712</v>
+        <v>0.90136054421768708</v>
       </c>
       <c r="U3" s="58" t="str">
         <f>E1</f>
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1705,60 +1779,60 @@
         <v>3</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="49">
         <v>3</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="49">
         <v>3</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="49">
         <v>3</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="49">
         <v>3</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="49">
         <v>3</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="122">
         <v>3</v>
       </c>
       <c r="P4" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="119"/>
       <c r="R4" s="10"/>
       <c r="S4" s="64">
         <f>G8+G16+G24+G32+G47+G55+G63+G71+G79+G87+G95+G103+G118+G126+G134+G142+G150+G158+G166+G174</f>
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="T4" s="70">
         <f>S4/R2</f>
-        <v>0.96470588235294119</v>
+        <v>0.97278911564625847</v>
       </c>
       <c r="U4" s="59" t="str">
         <f>G1</f>
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1769,60 +1843,60 @@
         <v>2</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="49">
         <v>2</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="49">
         <v>2</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="49">
         <v>2</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="49">
         <v>2</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="49">
         <v>0</v>
       </c>
       <c r="N5" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="122">
         <v>2</v>
       </c>
       <c r="P5" s="49"/>
       <c r="Q5" s="119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="65">
         <f>I8+I16+I24+I32+I47+I55+I63+I71+I79+I87+I95+I103+I118+I126+I134+I142+I150+I158+I166+I174</f>
-        <v>165.5</v>
+        <v>289.5</v>
       </c>
       <c r="T5" s="71">
         <f>S5/R2</f>
-        <v>0.97352941176470587</v>
+        <v>0.98469387755102045</v>
       </c>
       <c r="U5" s="60" t="str">
         <f>I1</f>
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1833,60 +1907,60 @@
         <v>1</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="49">
         <v>2</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="49">
         <v>2</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="49">
         <v>2</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="49">
         <v>2</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="122">
         <v>2</v>
       </c>
       <c r="P6" s="49"/>
       <c r="Q6" s="119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="66">
         <f>K8+K16+K24+K32+K47+K55+K63+K71+K79+K87+K95+K103+K118+K126+K134+K142+K150+K158+K166+K174</f>
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="T6" s="72">
         <f>S6/R2</f>
-        <v>1</v>
+        <v>0.98639455782312924</v>
       </c>
       <c r="U6" s="40" t="str">
         <f>K1</f>
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1897,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="106">
         <v>8</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="106">
         <v>8</v>
@@ -1926,23 +2000,23 @@
       </c>
       <c r="P7" s="49"/>
       <c r="Q7" s="120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="67">
         <f>M8+M87+M24+M32+M47+M55+M63+M71+M79+M95+M103+M118+M126+M134+M142+M150+M158+M166+M174+M16</f>
-        <v>157.65</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="T7" s="73">
         <f>S7/R2</f>
-        <v>0.9273529411764706</v>
+        <v>0.89846938775510199</v>
       </c>
       <c r="U7" s="61" t="str">
         <f>M1</f>
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1989,18 +2063,18 @@
       <c r="R8" s="10"/>
       <c r="S8" s="52">
         <f>O8+O16+O24+O32+O47+O55+O63+O71+O79+O87+O95+O103+O118+O126+O134+O142+O150+O158+O166+O174</f>
-        <v>145.75</v>
+        <v>267.5</v>
       </c>
       <c r="T8" s="53">
         <f>S8/R2</f>
-        <v>0.85735294117647054</v>
+        <v>0.90986394557823125</v>
       </c>
       <c r="U8" s="56" t="str">
         <f>O1</f>
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -2017,7 +2091,7 @@
       <c r="P9" s="93"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
@@ -2043,10 +2117,10 @@
       </c>
       <c r="T10" s="41">
         <f>SUM(T2:T9)</f>
-        <v>6.5767647058823542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.6357142857142861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>0</v>
       </c>
@@ -2057,37 +2131,37 @@
         <v>4</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="49">
         <v>4</v>
       </c>
       <c r="F11" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="49">
+        <v>4</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="49">
-        <v>4</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>61</v>
-      </c>
       <c r="I11" s="49">
         <v>4</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="49">
         <v>4</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" s="49">
         <v>4</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O11" s="50">
         <v>4</v>
@@ -2096,7 +2170,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>1</v>
       </c>
@@ -2107,37 +2181,37 @@
         <v>4</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="49">
         <v>4</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="49">
         <v>2</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="49">
         <v>4</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="49">
         <v>4</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="49">
         <v>4</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O12" s="50">
         <v>4</v>
@@ -2146,10 +2220,10 @@
       <c r="Q12" s="83"/>
       <c r="R12" s="10"/>
       <c r="S12" s="74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
@@ -2160,13 +2234,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="49">
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="49">
         <v>2</v>
@@ -2176,33 +2250,33 @@
         <v>2</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="49">
         <v>2</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13" s="49">
         <v>2</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O13" s="50">
         <v>1.5</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="83"/>
       <c r="R13" s="10"/>
       <c r="S13" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>3</v>
       </c>
@@ -2213,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="49">
         <v>0</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="49">
         <v>1</v>
@@ -2229,33 +2303,33 @@
         <v>1</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="49">
         <v>1</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="49">
         <v>1</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O14" s="50">
         <v>1</v>
       </c>
       <c r="P14" s="50"/>
       <c r="Q14" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
@@ -2266,51 +2340,51 @@
         <v>7.5</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="106">
         <v>2</v>
       </c>
       <c r="F15" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="106">
         <v>4</v>
       </c>
       <c r="H15" s="106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="106">
         <v>8</v>
       </c>
       <c r="J15" s="106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="106">
         <v>8</v>
       </c>
       <c r="L15" s="106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="106">
         <v>8</v>
       </c>
       <c r="N15" s="106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O15" s="107">
         <v>8</v>
       </c>
       <c r="P15" s="50"/>
       <c r="Q15" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>5</v>
       </c>
@@ -2356,10 +2430,10 @@
       <c r="Q16" s="84"/>
       <c r="R16" s="10"/>
       <c r="S16" s="78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
@@ -2376,7 +2450,7 @@
       <c r="P17" s="93"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2398,7 +2472,7 @@
       <c r="Q18" s="82"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -2409,37 +2483,37 @@
         <v>3.5</v>
       </c>
       <c r="D19" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="49">
+        <v>4</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="49">
-        <v>4</v>
-      </c>
-      <c r="F19" s="49" t="s">
+      <c r="G19" s="49">
+        <v>4</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="49">
-        <v>4</v>
-      </c>
-      <c r="H19" s="49" t="s">
+      <c r="I19" s="49">
+        <v>4</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="49">
+        <v>4</v>
+      </c>
+      <c r="L19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="49">
-        <v>4</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="49">
-        <v>4</v>
-      </c>
-      <c r="L19" s="49" t="s">
+      <c r="M19" s="49">
+        <v>4</v>
+      </c>
+      <c r="N19" s="49" t="s">
         <v>79</v>
-      </c>
-      <c r="M19" s="49">
-        <v>4</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>80</v>
       </c>
       <c r="O19" s="50">
         <v>4</v>
@@ -2448,7 +2522,7 @@
       <c r="Q19" s="83"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2459,48 +2533,48 @@
         <v>4</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="10">
         <v>4</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="10">
         <v>4</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="10">
-        <v>4</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="K20" s="10">
         <v>4</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10">
         <v>4</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" s="50">
         <v>0</v>
       </c>
       <c r="P20" s="50"/>
       <c r="Q20" s="83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2511,48 +2585,48 @@
         <v>2</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="49">
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="49">
         <v>2</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="49">
         <v>2</v>
       </c>
       <c r="J21" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="49">
         <v>2</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="49">
         <v>2</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" s="50">
         <v>0</v>
       </c>
       <c r="P21" s="50"/>
       <c r="Q21" s="83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2563,48 +2637,48 @@
         <v>1</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="49">
         <v>1</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="49">
         <v>1</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="49">
         <v>1</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="49">
         <v>1</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="50">
         <v>0</v>
       </c>
       <c r="P22" s="50"/>
       <c r="Q22" s="83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="106">
         <v>4</v>
@@ -2629,30 +2703,30 @@
         <v>4</v>
       </c>
       <c r="J23" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="106">
         <v>4</v>
       </c>
       <c r="L23" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="106">
         <v>4</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" s="107">
         <v>0</v>
       </c>
       <c r="P23" s="50"/>
       <c r="Q23" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2772,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -2714,7 +2788,7 @@
       <c r="O25" s="93"/>
       <c r="P25" s="93"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2736,7 +2810,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -2772,11 +2846,11 @@
       </c>
       <c r="P27" s="50"/>
       <c r="Q27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2814,47 +2888,47 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="49"/>
       <c r="I29" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29" s="49"/>
       <c r="M29" s="49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="49"/>
       <c r="O29" s="50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P29" s="50"/>
       <c r="Q29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2892,7 +2966,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2930,53 +3004,53 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="126">
         <f>SUM(B27:B31)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:K32" si="3">SUM(C27:C31)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32" s="91"/>
       <c r="E32" s="91">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F32" s="91"/>
       <c r="G32" s="91">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H32" s="91"/>
       <c r="I32" s="91">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J32" s="91"/>
       <c r="K32" s="91">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L32" s="91"/>
       <c r="M32" s="91">
         <f>SUM(M27:M31)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N32" s="91"/>
       <c r="O32" s="91">
         <f>SUM(O27:O31)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P32" s="91"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -2992,7 +3066,7 @@
       <c r="O33" s="93"/>
       <c r="P33" s="93"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -3014,7 +3088,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3110,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3132,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3156,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3178,7 @@
       <c r="Q38" s="19"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3200,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -3142,7 +3216,7 @@
       <c r="O40" s="93"/>
       <c r="P40" s="93"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3164,7 +3238,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -3175,48 +3249,48 @@
         <v>4</v>
       </c>
       <c r="D42" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="49">
+        <v>4</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="49">
-        <v>4</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>92</v>
-      </c>
       <c r="G42" s="49">
         <v>4</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="49">
         <v>4</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="49">
         <v>4</v>
       </c>
       <c r="L42" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="49">
         <v>4</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="50">
         <v>4</v>
       </c>
       <c r="P42" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -3227,37 +3301,37 @@
         <v>4</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="49">
         <v>4</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" s="49">
         <v>4</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I43" s="49">
         <v>4</v>
       </c>
       <c r="J43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K43" s="49">
         <v>4</v>
       </c>
       <c r="L43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M43" s="49">
         <v>4</v>
       </c>
       <c r="N43" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O43" s="50">
         <v>4</v>
@@ -3266,7 +3340,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -3277,48 +3351,48 @@
         <v>2</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="49">
         <v>2</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" s="49">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" s="49">
         <v>2</v>
       </c>
       <c r="J44" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K44" s="49">
         <v>2</v>
       </c>
       <c r="L44" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M44" s="49">
         <v>0</v>
       </c>
       <c r="N44" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O44" s="50">
         <v>2</v>
       </c>
       <c r="P44" s="50"/>
       <c r="Q44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3329,37 +3403,37 @@
         <v>2</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="49">
         <v>2</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="49">
         <v>2</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45" s="49">
         <v>2</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K45" s="49">
         <v>2</v>
       </c>
       <c r="L45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M45" s="49">
         <v>2</v>
       </c>
       <c r="N45" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O45" s="50">
         <v>2</v>
@@ -3368,7 +3442,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -3379,50 +3453,50 @@
         <v>4</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="106">
         <v>4</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="106">
         <v>4</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I46" s="106">
         <v>4</v>
       </c>
       <c r="J46" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K46" s="106">
         <v>4</v>
       </c>
       <c r="L46" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M46" s="106">
         <v>4</v>
       </c>
       <c r="N46" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O46" s="107">
         <v>0</v>
       </c>
       <c r="P46" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3542,7 @@
       <c r="Q47" s="39"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
@@ -3484,7 +3558,7 @@
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3506,7 +3580,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -3514,10 +3588,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="49">
         <v>4</v>
@@ -3540,17 +3614,17 @@
       </c>
       <c r="N50" s="49"/>
       <c r="O50" s="50">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P50" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -3561,37 +3635,37 @@
         <v>4</v>
       </c>
       <c r="D51" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="49">
+        <v>4</v>
+      </c>
+      <c r="F51" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="49">
-        <v>4</v>
-      </c>
-      <c r="F51" s="49" t="s">
+      <c r="G51" s="49">
+        <v>4</v>
+      </c>
+      <c r="H51" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="49">
-        <v>4</v>
-      </c>
-      <c r="H51" s="49" t="s">
+      <c r="I51" s="49">
+        <v>4</v>
+      </c>
+      <c r="J51" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I51" s="49">
-        <v>4</v>
-      </c>
-      <c r="J51" s="49" t="s">
+      <c r="K51" s="49">
+        <v>4</v>
+      </c>
+      <c r="L51" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="M51" s="49">
+        <v>4</v>
+      </c>
+      <c r="N51" s="49" t="s">
         <v>101</v>
-      </c>
-      <c r="K51" s="49">
-        <v>4</v>
-      </c>
-      <c r="L51" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="M51" s="49">
-        <v>4</v>
-      </c>
-      <c r="N51" s="49" t="s">
-        <v>102</v>
       </c>
       <c r="O51" s="50">
         <v>4</v>
@@ -3600,7 +3674,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3611,37 +3685,37 @@
         <v>2</v>
       </c>
       <c r="D52" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="49">
+        <v>2</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="49">
-        <v>2</v>
-      </c>
-      <c r="F52" s="49" t="s">
+      <c r="G52" s="49">
+        <v>2</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="49">
+        <v>2</v>
+      </c>
+      <c r="J52" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="49">
-        <v>2</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="I52" s="49">
-        <v>2</v>
-      </c>
-      <c r="J52" s="49" t="s">
-        <v>105</v>
-      </c>
       <c r="K52" s="49">
         <v>2</v>
       </c>
       <c r="L52" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="49">
+        <v>2</v>
+      </c>
+      <c r="N52" s="49" t="s">
         <v>108</v>
-      </c>
-      <c r="M52" s="49">
-        <v>2</v>
-      </c>
-      <c r="N52" s="49" t="s">
-        <v>109</v>
       </c>
       <c r="O52" s="50">
         <v>2</v>
@@ -3650,7 +3724,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -3661,37 +3735,37 @@
         <v>2</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="49">
         <v>0</v>
       </c>
       <c r="F53" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="49">
+        <v>2</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="49">
+        <v>0</v>
+      </c>
+      <c r="J53" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G53" s="49">
-        <v>2</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="49">
-        <v>0</v>
-      </c>
-      <c r="J53" s="49" t="s">
-        <v>107</v>
-      </c>
       <c r="K53" s="49">
         <v>2</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M53" s="49">
         <v>2</v>
       </c>
       <c r="N53" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O53" s="50">
         <v>2</v>
@@ -3700,7 +3774,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -3711,48 +3785,48 @@
         <v>2</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="106">
         <v>0</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="106">
         <v>2</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I54" s="106">
         <v>2</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K54" s="106">
         <v>2</v>
       </c>
       <c r="L54" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M54" s="106">
         <v>2</v>
       </c>
       <c r="N54" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O54" s="107">
         <v>2</v>
       </c>
       <c r="P54" s="107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
@@ -3762,7 +3836,7 @@
       </c>
       <c r="C55" s="90">
         <f t="shared" ref="C55:K55" si="5">SUM(C50:C54)</f>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="D55" s="91"/>
       <c r="E55" s="91">
@@ -3792,13 +3866,13 @@
       <c r="N55" s="91"/>
       <c r="O55" s="92">
         <f>SUM(O50:O54)</f>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="P55" s="92"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -3814,7 +3888,7 @@
       <c r="O56" s="93"/>
       <c r="P56" s="93"/>
     </row>
-    <row r="57" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
@@ -3836,7 +3910,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -3847,37 +3921,37 @@
         <v>4</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E58" s="49">
         <v>4</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="49">
         <v>4</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" s="49">
         <v>4</v>
       </c>
       <c r="J58" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58" s="49">
         <v>4</v>
       </c>
       <c r="L58" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M58" s="49">
         <v>4</v>
       </c>
       <c r="N58" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O58" s="50">
         <v>4</v>
@@ -3886,7 +3960,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -3897,48 +3971,48 @@
         <v>4</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="49">
         <v>4</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G59" s="49">
         <v>4</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="49">
         <v>4</v>
       </c>
       <c r="J59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K59" s="49">
         <v>4</v>
       </c>
       <c r="L59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M59" s="49">
         <v>4</v>
       </c>
       <c r="N59" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O59" s="50">
         <v>0</v>
       </c>
       <c r="P59" s="50"/>
       <c r="Q59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3949,37 +4023,37 @@
         <v>2</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="49">
         <v>2</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="49">
         <v>2</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="49">
         <v>2</v>
       </c>
       <c r="J60" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" s="49">
         <v>2</v>
       </c>
       <c r="L60" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="49">
         <v>2</v>
       </c>
       <c r="N60" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O60" s="50">
         <v>2</v>
@@ -3988,7 +4062,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -3999,104 +4073,104 @@
         <v>2</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" s="49">
         <v>2</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="49">
         <v>2</v>
       </c>
       <c r="H61" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="49">
         <v>2</v>
       </c>
       <c r="J61" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K61" s="49">
         <v>2</v>
       </c>
       <c r="L61" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" s="49">
         <v>2</v>
       </c>
       <c r="N61" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O61" s="50">
         <v>1.5</v>
       </c>
       <c r="P61" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
+      <c r="C62" s="108">
+        <v>0</v>
+      </c>
+      <c r="D62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="106">
+        <v>0</v>
+      </c>
+      <c r="F62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="106">
+        <v>0</v>
+      </c>
+      <c r="H62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="106">
+        <v>0</v>
+      </c>
+      <c r="J62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="106">
+        <v>0</v>
+      </c>
+      <c r="L62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="M62" s="106">
+        <v>0</v>
+      </c>
+      <c r="N62" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="O62" s="107">
+        <v>0</v>
+      </c>
+      <c r="P62" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R61" s="10"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="9">
-        <v>0</v>
-      </c>
-      <c r="C62" s="108">
-        <v>0</v>
-      </c>
-      <c r="D62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="106">
-        <v>0</v>
-      </c>
-      <c r="F62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="106">
-        <v>0</v>
-      </c>
-      <c r="H62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="I62" s="106">
-        <v>0</v>
-      </c>
-      <c r="J62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="K62" s="106">
-        <v>0</v>
-      </c>
-      <c r="L62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="M62" s="106">
-        <v>0</v>
-      </c>
-      <c r="N62" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="O62" s="107">
-        <v>0</v>
-      </c>
-      <c r="P62" s="107" t="s">
-        <v>116</v>
-      </c>
       <c r="Q62" s="106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>5</v>
       </c>
@@ -4142,7 +4216,7 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="109"/>
       <c r="D64" s="109"/>
@@ -4161,7 +4235,7 @@
       <c r="Q64" s="128"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
@@ -4183,12 +4257,12 @@
       <c r="Q65" s="89"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="48">
         <v>0</v>
@@ -4221,12 +4295,12 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="48">
         <v>0</v>
@@ -4259,12 +4333,12 @@
       <c r="Q67" s="26"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="48">
         <v>0</v>
@@ -4297,7 +4371,7 @@
       <c r="Q68" s="26"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -4312,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G69" s="49">
         <v>2</v>
@@ -4335,11 +4409,11 @@
       </c>
       <c r="P69" s="50"/>
       <c r="Q69" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G70" s="106">
         <v>4</v>
@@ -4372,20 +4446,20 @@
         <v>3.15</v>
       </c>
       <c r="N70" s="106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O70" s="107">
         <v>3.75</v>
       </c>
       <c r="P70" s="107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4505,7 @@
       <c r="Q71" s="44"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -4447,7 +4521,7 @@
       <c r="O72" s="93"/>
       <c r="P72" s="93"/>
     </row>
-    <row r="73" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -4469,7 +4543,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
@@ -4480,25 +4554,25 @@
         <v>4</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E74" s="49">
         <v>4</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" s="49">
         <v>4</v>
       </c>
       <c r="H74" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I74" s="49">
         <v>3.5</v>
       </c>
       <c r="J74" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K74" s="49">
         <v>4</v>
@@ -4508,18 +4582,18 @@
         <v>3.5</v>
       </c>
       <c r="N74" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O74" s="50">
         <v>4</v>
       </c>
       <c r="P74" s="50"/>
       <c r="Q74" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
@@ -4530,25 +4604,25 @@
         <v>4</v>
       </c>
       <c r="D75" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="49">
+        <v>4</v>
+      </c>
+      <c r="F75" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="49">
-        <v>4</v>
-      </c>
-      <c r="F75" s="49" t="s">
+      <c r="G75" s="49">
+        <v>4</v>
+      </c>
+      <c r="H75" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="49">
-        <v>4</v>
-      </c>
-      <c r="H75" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="I75" s="49">
         <v>4</v>
       </c>
       <c r="J75" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K75" s="49">
         <v>4</v>
@@ -4558,7 +4632,7 @@
         <v>4</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O75" s="50">
         <v>4</v>
@@ -4567,7 +4641,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -4590,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K76" s="49">
         <v>2</v>
@@ -4605,11 +4679,11 @@
       </c>
       <c r="P76" s="50"/>
       <c r="Q76" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -4647,7 +4721,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
@@ -4685,7 +4759,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -4731,7 +4805,7 @@
       <c r="Q79" s="44"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C80" s="93"/>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -4747,7 +4821,7 @@
       <c r="O80" s="93"/>
       <c r="P80" s="93"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -4769,7 +4843,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4881,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
@@ -4819,10 +4893,10 @@
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="49">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G83" s="49">
         <v>4</v>
@@ -4840,18 +4914,18 @@
         <v>0</v>
       </c>
       <c r="N83" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O83" s="50">
         <v>4</v>
       </c>
       <c r="P83" s="50"/>
       <c r="Q83" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -4889,7 +4963,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
@@ -4917,17 +4991,19 @@
       </c>
       <c r="L85" s="49"/>
       <c r="M85" s="49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N85" s="49"/>
       <c r="O85" s="50">
         <v>2</v>
       </c>
       <c r="P85" s="50"/>
-      <c r="Q85" s="2"/>
+      <c r="Q85" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
@@ -4965,7 +5041,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
@@ -4980,7 +5056,7 @@
       <c r="D87" s="91"/>
       <c r="E87" s="91">
         <f t="shared" si="9"/>
-        <v>15.15</v>
+        <v>16</v>
       </c>
       <c r="F87" s="91"/>
       <c r="G87" s="91">
@@ -5000,7 +5076,7 @@
       <c r="L87" s="91"/>
       <c r="M87" s="91">
         <f>SUM(M82:M86)</f>
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="N87" s="91"/>
       <c r="O87" s="92">
@@ -5011,7 +5087,7 @@
       <c r="Q87" s="44"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
@@ -5027,7 +5103,7 @@
       <c r="O88" s="93"/>
       <c r="P88" s="93"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -5049,7 +5125,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
@@ -5060,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="49">
         <v>4</v>
@@ -5089,7 +5165,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
@@ -5127,7 +5203,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -5165,7 +5241,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -5203,7 +5279,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
@@ -5238,12 +5314,12 @@
         <v>4</v>
       </c>
       <c r="P94" s="107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>5</v>
       </c>
@@ -5289,7 +5365,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="143"/>
       <c r="C96" s="93"/>
       <c r="D96" s="93"/>
@@ -5306,12 +5382,12 @@
       <c r="O96" s="93"/>
       <c r="P96" s="93"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="142" t="s">
         <v>23</v>
       </c>
       <c r="B97" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="138"/>
       <c r="D97" s="139"/>
@@ -5330,7 +5406,7 @@
       <c r="Q97" s="141"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5444,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="145" t="s">
         <v>1</v>
       </c>
@@ -5379,54 +5455,56 @@
         <v>0</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E99" s="49">
         <v>0</v>
       </c>
       <c r="F99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G99" s="49">
         <v>0</v>
       </c>
       <c r="H99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I99" s="49">
         <v>0</v>
       </c>
       <c r="J99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K99" s="49">
         <v>0</v>
       </c>
       <c r="L99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M99" s="49">
         <v>0</v>
       </c>
       <c r="N99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O99" s="50">
         <v>0</v>
       </c>
       <c r="P99" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C100" s="48">
         <v>0</v>
       </c>
@@ -5458,125 +5536,151 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="10">
+        <v>2</v>
+      </c>
       <c r="C101" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="49">
-        <v>0</v>
-      </c>
-      <c r="F101" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F101" s="49">
+        <v>2</v>
+      </c>
       <c r="G101" s="49">
-        <v>0</v>
-      </c>
-      <c r="H101" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H101" s="49">
+        <v>2</v>
+      </c>
       <c r="I101" s="49">
-        <v>0</v>
-      </c>
-      <c r="J101" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J101" s="49">
+        <v>2</v>
+      </c>
       <c r="K101" s="49">
-        <v>0</v>
-      </c>
-      <c r="L101" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L101" s="49">
+        <v>2</v>
+      </c>
       <c r="M101" s="49">
-        <v>0</v>
-      </c>
-      <c r="N101" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N101" s="49">
+        <v>2</v>
+      </c>
       <c r="O101" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P101" s="50"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="9">
+        <v>4</v>
+      </c>
       <c r="C102" s="108">
-        <v>0</v>
-      </c>
-      <c r="D102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D102" s="108">
+        <v>4</v>
+      </c>
       <c r="E102" s="106">
-        <v>0</v>
-      </c>
-      <c r="F102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F102" s="106">
+        <v>4</v>
+      </c>
       <c r="G102" s="106">
-        <v>0</v>
-      </c>
-      <c r="H102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H102" s="106">
+        <v>4</v>
+      </c>
       <c r="I102" s="106">
-        <v>0</v>
-      </c>
-      <c r="J102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J102" s="106">
+        <v>4</v>
+      </c>
       <c r="K102" s="106">
-        <v>0</v>
-      </c>
-      <c r="L102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L102" s="106">
+        <v>4</v>
+      </c>
       <c r="M102" s="106">
-        <v>0</v>
-      </c>
-      <c r="N102" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="N102" s="106">
+        <v>4</v>
+      </c>
       <c r="O102" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P102" s="107"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="46">
         <f>SUM(B98:B102)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C103" s="90">
         <f t="shared" ref="C103:O103" si="11">SUM(C98:C102)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D103" s="91"/>
       <c r="E103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" s="91"/>
       <c r="G103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H103" s="91"/>
       <c r="I103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J103" s="91"/>
       <c r="K103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L103" s="91"/>
       <c r="M103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N103" s="91"/>
       <c r="O103" s="91">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P103" s="91"/>
       <c r="Q103" s="39"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -5592,7 +5696,7 @@
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
     </row>
-    <row r="105" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>24</v>
       </c>
@@ -5614,7 +5718,7 @@
       <c r="Q105" s="17"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5740,7 @@
       <c r="Q106" s="19"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -5658,7 +5762,7 @@
       <c r="Q107" s="19"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5774,7 @@
       <c r="G108" s="98"/>
       <c r="H108" s="98"/>
       <c r="I108" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J108" s="45"/>
       <c r="K108" s="97"/>
@@ -5682,7 +5786,7 @@
       <c r="Q108" s="19"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>3</v>
       </c>
@@ -5704,7 +5808,7 @@
       <c r="Q109" s="19"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>4</v>
       </c>
@@ -5726,7 +5830,7 @@
       <c r="Q110" s="21"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C111" s="93"/>
       <c r="D111" s="93"/>
       <c r="E111" s="93"/>
@@ -5742,7 +5846,7 @@
       <c r="O111" s="93"/>
       <c r="P111" s="93"/>
     </row>
-    <row r="112" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>25</v>
       </c>
@@ -5764,29 +5868,37 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="10"/>
+      <c r="B113" s="10">
+        <v>4</v>
+      </c>
       <c r="C113" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D113" s="49"/>
       <c r="E113" s="49">
-        <v>0</v>
-      </c>
-      <c r="F113" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F113" s="49">
+        <v>4</v>
+      </c>
       <c r="G113" s="49">
-        <v>0</v>
-      </c>
-      <c r="H113" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H113" s="49">
+        <v>4</v>
+      </c>
       <c r="I113" s="49">
-        <v>0</v>
-      </c>
-      <c r="J113" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J113" s="49">
+        <v>4</v>
+      </c>
       <c r="K113" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L113" s="49"/>
       <c r="M113" s="49">
@@ -5794,202 +5906,243 @@
       </c>
       <c r="N113" s="49"/>
       <c r="O113" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P113" s="50"/>
-      <c r="Q113" s="2"/>
+      <c r="Q113" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="10"/>
+      <c r="B114" s="10">
+        <v>4</v>
+      </c>
       <c r="C114" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D114" s="49"/>
       <c r="E114" s="49">
-        <v>0</v>
-      </c>
-      <c r="F114" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F114" s="49">
+        <v>4</v>
+      </c>
       <c r="G114" s="49">
-        <v>0</v>
-      </c>
-      <c r="H114" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H114" s="49">
+        <v>4</v>
+      </c>
       <c r="I114" s="49">
-        <v>0</v>
-      </c>
-      <c r="J114" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J114" s="49">
+        <v>4</v>
+      </c>
       <c r="K114" s="49">
-        <v>0</v>
-      </c>
-      <c r="L114" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L114" s="49">
+        <v>4</v>
+      </c>
       <c r="M114" s="49">
-        <v>0</v>
-      </c>
-      <c r="N114" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N114" s="49">
+        <v>4</v>
+      </c>
       <c r="O114" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P114" s="50"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="10"/>
+      <c r="B115" s="10">
+        <v>2</v>
+      </c>
       <c r="C115" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49">
-        <v>0</v>
-      </c>
-      <c r="F115" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="49">
+        <v>2</v>
+      </c>
       <c r="G115" s="49">
-        <v>0</v>
-      </c>
-      <c r="H115" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H115" s="49">
+        <v>2</v>
+      </c>
       <c r="I115" s="49">
-        <v>0</v>
-      </c>
-      <c r="J115" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J115" s="49">
+        <v>2</v>
+      </c>
       <c r="K115" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L115" s="49"/>
       <c r="M115" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N115" s="49"/>
       <c r="O115" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P115" s="50"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="10"/>
+      <c r="B116" s="10">
+        <v>2</v>
+      </c>
       <c r="C116" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D116" s="49"/>
       <c r="E116" s="49">
-        <v>0</v>
-      </c>
-      <c r="F116" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F116" s="49">
+        <v>2</v>
+      </c>
       <c r="G116" s="49">
         <v>0</v>
       </c>
-      <c r="H116" s="49"/>
+      <c r="H116" s="49">
+        <v>2</v>
+      </c>
       <c r="I116" s="49">
-        <v>0</v>
-      </c>
-      <c r="J116" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J116" s="49">
+        <v>2</v>
+      </c>
       <c r="K116" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L116" s="49"/>
       <c r="M116" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N116" s="49"/>
       <c r="O116" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P116" s="50"/>
-      <c r="Q116" s="2"/>
+      <c r="Q116" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="9">
+        <v>4</v>
+      </c>
       <c r="C117" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D117" s="106"/>
       <c r="E117" s="106">
-        <v>0</v>
-      </c>
-      <c r="F117" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F117" s="106">
+        <v>4</v>
+      </c>
       <c r="G117" s="106">
-        <v>0</v>
-      </c>
-      <c r="H117" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H117" s="106">
+        <v>4</v>
+      </c>
       <c r="I117" s="106">
-        <v>0</v>
-      </c>
-      <c r="J117" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J117" s="106">
+        <v>4</v>
+      </c>
       <c r="K117" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L117" s="106"/>
       <c r="M117" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N117" s="106"/>
       <c r="O117" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P117" s="107"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="46">
-        <v>0</v>
+        <f>SUM(B113:B117)</f>
+        <v>16</v>
       </c>
       <c r="C118" s="90">
         <f>SUM(C113:C117)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D118" s="91"/>
       <c r="E118" s="91">
         <f t="shared" ref="E118:O118" si="12">SUM(E113:E117)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F118" s="91"/>
       <c r="G118" s="91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H118" s="91"/>
       <c r="I118" s="91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J118" s="91"/>
       <c r="K118" s="91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L118" s="91"/>
       <c r="M118" s="91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N118" s="91"/>
       <c r="O118" s="91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P118" s="91"/>
       <c r="Q118" s="39"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
       <c r="E119" s="93"/>
@@ -6005,7 +6158,7 @@
       <c r="O119" s="93"/>
       <c r="P119" s="93"/>
     </row>
-    <row r="120" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
@@ -6027,11 +6180,13 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C121" s="48">
         <v>0</v>
       </c>
@@ -6039,15 +6194,21 @@
       <c r="E121" s="49">
         <v>0</v>
       </c>
-      <c r="F121" s="49"/>
+      <c r="F121" s="49">
+        <v>4</v>
+      </c>
       <c r="G121" s="49">
         <v>0</v>
       </c>
-      <c r="H121" s="49"/>
+      <c r="H121" s="49">
+        <v>4</v>
+      </c>
       <c r="I121" s="49">
         <v>0</v>
       </c>
-      <c r="J121" s="49"/>
+      <c r="J121" s="49">
+        <v>4</v>
+      </c>
       <c r="K121" s="49">
         <v>0</v>
       </c>
@@ -6061,202 +6222,241 @@
       </c>
       <c r="P121" s="50"/>
       <c r="Q121" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="10"/>
+      <c r="B122" s="10">
+        <v>4</v>
+      </c>
       <c r="C122" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D122" s="49"/>
       <c r="E122" s="49">
-        <v>0</v>
-      </c>
-      <c r="F122" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F122" s="49">
+        <v>4</v>
+      </c>
       <c r="G122" s="49">
-        <v>0</v>
-      </c>
-      <c r="H122" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H122" s="49">
+        <v>4</v>
+      </c>
       <c r="I122" s="49">
-        <v>0</v>
-      </c>
-      <c r="J122" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J122" s="49">
+        <v>4</v>
+      </c>
       <c r="K122" s="49">
-        <v>0</v>
-      </c>
-      <c r="L122" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L122" s="49">
+        <v>4</v>
+      </c>
       <c r="M122" s="49">
-        <v>0</v>
-      </c>
-      <c r="N122" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N122" s="49">
+        <v>4</v>
+      </c>
       <c r="O122" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P122" s="50"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="10">
+        <v>2</v>
+      </c>
       <c r="C123" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="49">
-        <v>0</v>
-      </c>
-      <c r="F123" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F123" s="49">
+        <v>2</v>
+      </c>
       <c r="G123" s="49">
-        <v>0</v>
-      </c>
-      <c r="H123" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H123" s="49">
+        <v>2</v>
+      </c>
       <c r="I123" s="49">
-        <v>0</v>
-      </c>
-      <c r="J123" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J123" s="49">
+        <v>2</v>
+      </c>
       <c r="K123" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123" s="49"/>
       <c r="M123" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N123" s="49"/>
       <c r="O123" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P123" s="50"/>
-      <c r="Q123" s="2"/>
+      <c r="Q123" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="10"/>
+      <c r="B124" s="10">
+        <v>2</v>
+      </c>
       <c r="C124" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="49">
-        <v>0</v>
-      </c>
-      <c r="F124" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F124" s="49">
+        <v>2</v>
+      </c>
       <c r="G124" s="49">
-        <v>0</v>
-      </c>
-      <c r="H124" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H124" s="49">
+        <v>2</v>
+      </c>
       <c r="I124" s="49">
-        <v>0</v>
-      </c>
-      <c r="J124" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J124" s="49">
+        <v>2</v>
+      </c>
       <c r="K124" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L124" s="49"/>
       <c r="M124" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N124" s="49"/>
       <c r="O124" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124" s="50"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="9">
+        <v>4</v>
+      </c>
       <c r="C125" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125" s="106"/>
       <c r="E125" s="106">
-        <v>0</v>
-      </c>
-      <c r="F125" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F125" s="106">
+        <v>4</v>
+      </c>
       <c r="G125" s="106">
-        <v>0</v>
-      </c>
-      <c r="H125" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H125" s="106">
+        <v>4</v>
+      </c>
       <c r="I125" s="106">
-        <v>0</v>
-      </c>
-      <c r="J125" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J125" s="106">
+        <v>4</v>
+      </c>
       <c r="K125" s="106">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L125" s="106"/>
       <c r="M125" s="106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N125" s="106"/>
       <c r="O125" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P125" s="107"/>
       <c r="Q125" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="46">
-        <v>0</v>
+        <f>SUM(B121:B125)</f>
+        <v>12</v>
       </c>
       <c r="C126" s="90">
         <f t="shared" ref="C126:O126" si="13">SUM(C121:C125)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D126" s="91"/>
       <c r="E126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F126" s="91"/>
       <c r="G126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H126" s="91"/>
       <c r="I126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J126" s="91"/>
       <c r="K126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L126" s="91"/>
       <c r="M126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N126" s="91"/>
       <c r="O126" s="91">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P126" s="91"/>
       <c r="Q126" s="39"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
@@ -6272,7 +6472,7 @@
       <c r="O127" s="93"/>
       <c r="P127" s="93"/>
     </row>
-    <row r="128" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -6294,232 +6494,301 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="10"/>
+      <c r="B129" s="10">
+        <v>4</v>
+      </c>
       <c r="C129" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D129" s="49"/>
       <c r="E129" s="49">
-        <v>0</v>
-      </c>
-      <c r="F129" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F129" s="49">
+        <v>4</v>
+      </c>
       <c r="G129" s="49">
-        <v>0</v>
-      </c>
-      <c r="H129" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H129" s="49">
+        <v>4</v>
+      </c>
       <c r="I129" s="49">
-        <v>0</v>
-      </c>
-      <c r="J129" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J129" s="49">
+        <v>4</v>
+      </c>
       <c r="K129" s="49">
-        <v>0</v>
-      </c>
-      <c r="L129" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L129" s="49">
+        <v>4</v>
+      </c>
       <c r="M129" s="49">
-        <v>0</v>
-      </c>
-      <c r="N129" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N129" s="49">
+        <v>4</v>
+      </c>
       <c r="O129" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P129" s="50"/>
-      <c r="Q129" s="2"/>
+      <c r="Q129" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="10"/>
+      <c r="B130" s="10">
+        <v>4</v>
+      </c>
       <c r="C130" s="48">
-        <v>0</v>
-      </c>
-      <c r="D130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D130" s="49">
+        <v>4</v>
+      </c>
       <c r="E130" s="49">
-        <v>0</v>
-      </c>
-      <c r="F130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F130" s="49">
+        <v>4</v>
+      </c>
       <c r="G130" s="49">
-        <v>0</v>
-      </c>
-      <c r="H130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H130" s="49">
+        <v>4</v>
+      </c>
       <c r="I130" s="49">
-        <v>0</v>
-      </c>
-      <c r="J130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J130" s="49">
+        <v>4</v>
+      </c>
       <c r="K130" s="49">
-        <v>0</v>
-      </c>
-      <c r="L130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L130" s="49">
+        <v>4</v>
+      </c>
       <c r="M130" s="49">
-        <v>0</v>
-      </c>
-      <c r="N130" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N130" s="49">
+        <v>4</v>
+      </c>
       <c r="O130" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P130" s="50"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="10"/>
+      <c r="B131" s="10">
+        <v>2</v>
+      </c>
       <c r="C131" s="48">
-        <v>0</v>
-      </c>
-      <c r="D131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D131" s="49">
+        <v>2</v>
+      </c>
       <c r="E131" s="49">
-        <v>0</v>
-      </c>
-      <c r="F131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F131" s="49">
+        <v>2</v>
+      </c>
       <c r="G131" s="49">
-        <v>0</v>
-      </c>
-      <c r="H131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H131" s="49">
+        <v>2</v>
+      </c>
       <c r="I131" s="49">
-        <v>0</v>
-      </c>
-      <c r="J131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J131" s="49">
+        <v>2</v>
+      </c>
       <c r="K131" s="49">
-        <v>0</v>
-      </c>
-      <c r="L131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L131" s="49">
+        <v>2</v>
+      </c>
       <c r="M131" s="49">
-        <v>0</v>
-      </c>
-      <c r="N131" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N131" s="49">
+        <v>2</v>
+      </c>
       <c r="O131" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P131" s="50"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="10"/>
+      <c r="B132" s="10">
+        <v>2</v>
+      </c>
       <c r="C132" s="48">
-        <v>0</v>
-      </c>
-      <c r="D132" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="49">
+        <v>2</v>
+      </c>
       <c r="E132" s="49">
-        <v>0</v>
-      </c>
-      <c r="F132" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F132" s="49">
+        <v>2</v>
+      </c>
       <c r="G132" s="49">
-        <v>0</v>
-      </c>
-      <c r="H132" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H132" s="49">
+        <v>2</v>
+      </c>
       <c r="I132" s="49">
-        <v>0</v>
-      </c>
-      <c r="J132" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J132" s="49">
+        <v>2</v>
+      </c>
       <c r="K132" s="49">
         <v>0</v>
       </c>
-      <c r="L132" s="49"/>
+      <c r="L132" s="49">
+        <v>2</v>
+      </c>
       <c r="M132" s="49">
-        <v>0</v>
-      </c>
-      <c r="N132" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N132" s="49">
+        <v>2</v>
+      </c>
       <c r="O132" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P132" s="50"/>
-      <c r="Q132" s="2"/>
+      <c r="Q132" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="9">
+        <v>4</v>
+      </c>
       <c r="C133" s="108">
-        <v>0</v>
-      </c>
-      <c r="D133" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D133" s="106">
+        <v>4</v>
+      </c>
       <c r="E133" s="106">
-        <v>0</v>
-      </c>
-      <c r="F133" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F133" s="106">
+        <v>4</v>
+      </c>
       <c r="G133" s="106">
-        <v>0</v>
-      </c>
-      <c r="H133" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H133" s="106">
+        <v>4</v>
+      </c>
       <c r="I133" s="106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J133" s="106"/>
       <c r="K133" s="106">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L133" s="106"/>
       <c r="M133" s="106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N133" s="106"/>
       <c r="O133" s="107">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P133" s="107"/>
-      <c r="Q133" s="3"/>
+      <c r="Q133" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="46">
-        <v>0</v>
+        <f>SUM(B129:B133)</f>
+        <v>16</v>
       </c>
       <c r="C134" s="90">
         <f t="shared" ref="C134:O134" si="14">SUM(C129:C133)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D134" s="91"/>
       <c r="E134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F134" s="91"/>
       <c r="G134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H134" s="91"/>
       <c r="I134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J134" s="91"/>
       <c r="K134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L134" s="91"/>
       <c r="M134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N134" s="91"/>
       <c r="O134" s="91">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="P134" s="91"/>
       <c r="Q134" s="39"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
       <c r="E135" s="93"/>
@@ -6535,7 +6804,7 @@
       <c r="O135" s="93"/>
       <c r="P135" s="93"/>
     </row>
-    <row r="136" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -6557,232 +6826,307 @@
       <c r="Q136" s="24"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="25"/>
+      <c r="B137" s="25">
+        <v>4</v>
+      </c>
       <c r="C137" s="48">
-        <v>0</v>
-      </c>
-      <c r="D137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D137" s="49">
+        <v>4</v>
+      </c>
       <c r="E137" s="49">
-        <v>0</v>
-      </c>
-      <c r="F137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F137" s="49">
+        <v>4</v>
+      </c>
       <c r="G137" s="49">
-        <v>0</v>
-      </c>
-      <c r="H137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H137" s="49">
+        <v>4</v>
+      </c>
       <c r="I137" s="49">
-        <v>0</v>
-      </c>
-      <c r="J137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J137" s="49">
+        <v>4</v>
+      </c>
       <c r="K137" s="49">
-        <v>0</v>
-      </c>
-      <c r="L137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L137" s="49">
+        <v>4</v>
+      </c>
       <c r="M137" s="49">
-        <v>0</v>
-      </c>
-      <c r="N137" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N137" s="49">
+        <v>4</v>
+      </c>
       <c r="O137" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P137" s="50"/>
       <c r="Q137" s="26"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="25"/>
+      <c r="B138" s="25">
+        <v>4</v>
+      </c>
       <c r="C138" s="48">
-        <v>0</v>
-      </c>
-      <c r="D138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D138" s="49">
+        <v>4</v>
+      </c>
       <c r="E138" s="49">
-        <v>0</v>
-      </c>
-      <c r="F138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F138" s="49">
+        <v>4</v>
+      </c>
       <c r="G138" s="49">
-        <v>0</v>
-      </c>
-      <c r="H138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H138" s="49">
+        <v>4</v>
+      </c>
       <c r="I138" s="49">
-        <v>0</v>
-      </c>
-      <c r="J138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J138" s="49">
+        <v>4</v>
+      </c>
       <c r="K138" s="49">
-        <v>0</v>
-      </c>
-      <c r="L138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L138" s="49">
+        <v>4</v>
+      </c>
       <c r="M138" s="49">
-        <v>0</v>
-      </c>
-      <c r="N138" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N138" s="49">
+        <v>4</v>
+      </c>
       <c r="O138" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P138" s="50"/>
       <c r="Q138" s="26"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="25"/>
+      <c r="B139" s="25">
+        <v>2</v>
+      </c>
       <c r="C139" s="48">
-        <v>0</v>
-      </c>
-      <c r="D139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="49">
+        <v>2</v>
+      </c>
       <c r="E139" s="49">
-        <v>0</v>
-      </c>
-      <c r="F139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F139" s="49">
+        <v>2</v>
+      </c>
       <c r="G139" s="49">
-        <v>0</v>
-      </c>
-      <c r="H139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H139" s="49">
+        <v>2</v>
+      </c>
       <c r="I139" s="49">
-        <v>0</v>
-      </c>
-      <c r="J139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J139" s="49">
+        <v>2</v>
+      </c>
       <c r="K139" s="49">
-        <v>0</v>
-      </c>
-      <c r="L139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L139" s="49">
+        <v>2</v>
+      </c>
       <c r="M139" s="49">
-        <v>0</v>
-      </c>
-      <c r="N139" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N139" s="49">
+        <v>2</v>
+      </c>
       <c r="O139" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P139" s="50"/>
       <c r="Q139" s="26"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="25"/>
+      <c r="B140" s="25">
+        <v>2</v>
+      </c>
       <c r="C140" s="48">
-        <v>0</v>
-      </c>
-      <c r="D140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="49">
+        <v>2</v>
+      </c>
       <c r="E140" s="49">
-        <v>0</v>
-      </c>
-      <c r="F140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F140" s="49">
+        <v>2</v>
+      </c>
       <c r="G140" s="49">
-        <v>0</v>
-      </c>
-      <c r="H140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H140" s="49">
+        <v>2</v>
+      </c>
       <c r="I140" s="49">
-        <v>0</v>
-      </c>
-      <c r="J140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J140" s="49">
+        <v>2</v>
+      </c>
       <c r="K140" s="49">
-        <v>0</v>
-      </c>
-      <c r="L140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L140" s="49">
+        <v>2</v>
+      </c>
       <c r="M140" s="49">
-        <v>0</v>
-      </c>
-      <c r="N140" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N140" s="49">
+        <v>2</v>
+      </c>
       <c r="O140" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P140" s="50"/>
-      <c r="Q140" s="26"/>
+      <c r="Q140" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="27"/>
+      <c r="B141" s="27">
+        <v>4</v>
+      </c>
       <c r="C141" s="108">
-        <v>0</v>
-      </c>
-      <c r="D141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D141" s="106">
+        <v>4</v>
+      </c>
       <c r="E141" s="106">
-        <v>0</v>
-      </c>
-      <c r="F141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F141" s="106">
+        <v>4</v>
+      </c>
       <c r="G141" s="106">
-        <v>0</v>
-      </c>
-      <c r="H141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H141" s="106">
+        <v>4</v>
+      </c>
       <c r="I141" s="106">
-        <v>0</v>
-      </c>
-      <c r="J141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J141" s="106">
+        <v>4</v>
+      </c>
       <c r="K141" s="106">
-        <v>0</v>
-      </c>
-      <c r="L141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L141" s="106">
+        <v>4</v>
+      </c>
       <c r="M141" s="106">
-        <v>0</v>
-      </c>
-      <c r="N141" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="N141" s="106">
+        <v>4</v>
+      </c>
       <c r="O141" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P141" s="107"/>
-      <c r="Q141" s="28"/>
+      <c r="Q141" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="46">
-        <v>0</v>
+        <f>SUM(B137:B141)</f>
+        <v>16</v>
       </c>
       <c r="C142" s="90">
         <f t="shared" ref="C142:O142" si="15">SUM(C137:C141)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D142" s="91"/>
       <c r="E142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F142" s="91"/>
       <c r="G142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H142" s="91"/>
       <c r="I142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J142" s="91"/>
       <c r="K142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L142" s="91"/>
       <c r="M142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N142" s="91"/>
       <c r="O142" s="91">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P142" s="91"/>
       <c r="Q142" s="115"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B143" s="29"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -6800,7 +7144,7 @@
       <c r="P143" s="93"/>
       <c r="Q143" s="30"/>
     </row>
-    <row r="144" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -6822,236 +7166,311 @@
       <c r="Q144" s="24"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="25"/>
+      <c r="B145" s="25">
+        <v>4</v>
+      </c>
       <c r="C145" s="48">
-        <v>0</v>
-      </c>
-      <c r="D145" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D145" s="49">
+        <v>4</v>
+      </c>
       <c r="E145" s="49">
-        <v>0</v>
-      </c>
-      <c r="F145" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F145" s="49">
+        <v>4</v>
+      </c>
       <c r="G145" s="49">
-        <v>0</v>
-      </c>
-      <c r="H145" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H145" s="49">
+        <v>4</v>
+      </c>
       <c r="I145" s="49">
-        <v>0</v>
-      </c>
-      <c r="J145" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J145" s="49">
+        <v>4</v>
+      </c>
       <c r="K145" s="49">
-        <v>0</v>
-      </c>
-      <c r="L145" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L145" s="49">
+        <v>4</v>
+      </c>
       <c r="M145" s="49">
-        <v>0</v>
-      </c>
-      <c r="N145" s="49"/>
+        <v>3</v>
+      </c>
+      <c r="N145" s="49">
+        <v>4</v>
+      </c>
       <c r="O145" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P145" s="50"/>
-      <c r="Q145" s="26"/>
+      <c r="Q145" s="26" t="s">
+        <v>144</v>
+      </c>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="25"/>
+      <c r="B146" s="25">
+        <v>4</v>
+      </c>
       <c r="C146" s="48">
-        <v>0</v>
-      </c>
-      <c r="D146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D146" s="49">
+        <v>4</v>
+      </c>
       <c r="E146" s="49">
-        <v>0</v>
-      </c>
-      <c r="F146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F146" s="49">
+        <v>4</v>
+      </c>
       <c r="G146" s="49">
-        <v>0</v>
-      </c>
-      <c r="H146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H146" s="49">
+        <v>4</v>
+      </c>
       <c r="I146" s="49">
-        <v>0</v>
-      </c>
-      <c r="J146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J146" s="49">
+        <v>4</v>
+      </c>
       <c r="K146" s="49">
-        <v>0</v>
-      </c>
-      <c r="L146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L146" s="49">
+        <v>4</v>
+      </c>
       <c r="M146" s="49">
-        <v>0</v>
-      </c>
-      <c r="N146" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N146" s="49">
+        <v>4</v>
+      </c>
       <c r="O146" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P146" s="50"/>
       <c r="Q146" s="26"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="25"/>
+      <c r="B147" s="25">
+        <v>2</v>
+      </c>
       <c r="C147" s="48">
-        <v>0</v>
-      </c>
-      <c r="D147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D147" s="49">
+        <v>2</v>
+      </c>
       <c r="E147" s="49">
-        <v>0</v>
-      </c>
-      <c r="F147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F147" s="49">
+        <v>2</v>
+      </c>
       <c r="G147" s="49">
-        <v>0</v>
-      </c>
-      <c r="H147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H147" s="49">
+        <v>2</v>
+      </c>
       <c r="I147" s="49">
-        <v>0</v>
-      </c>
-      <c r="J147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J147" s="49">
+        <v>2</v>
+      </c>
       <c r="K147" s="49">
-        <v>0</v>
-      </c>
-      <c r="L147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L147" s="49">
+        <v>2</v>
+      </c>
       <c r="M147" s="49">
-        <v>0</v>
-      </c>
-      <c r="N147" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N147" s="49">
+        <v>2</v>
+      </c>
       <c r="O147" s="50">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P147" s="50"/>
-      <c r="Q147" s="26"/>
+      <c r="Q147" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="25"/>
+      <c r="B148" s="25">
+        <v>2</v>
+      </c>
       <c r="C148" s="48">
-        <v>0</v>
-      </c>
-      <c r="D148" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D148" s="49">
+        <v>2</v>
+      </c>
       <c r="E148" s="49">
         <v>0</v>
       </c>
-      <c r="F148" s="49"/>
+      <c r="F148" s="49">
+        <v>2</v>
+      </c>
       <c r="G148" s="49">
-        <v>0</v>
-      </c>
-      <c r="H148" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H148" s="49">
+        <v>2</v>
+      </c>
       <c r="I148" s="49">
-        <v>0</v>
-      </c>
-      <c r="J148" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J148" s="49">
+        <v>2</v>
+      </c>
       <c r="K148" s="49">
-        <v>0</v>
-      </c>
-      <c r="L148" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L148" s="49">
+        <v>2</v>
+      </c>
       <c r="M148" s="49">
         <v>0</v>
       </c>
-      <c r="N148" s="49"/>
+      <c r="N148" s="49">
+        <v>2</v>
+      </c>
       <c r="O148" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P148" s="50"/>
       <c r="Q148" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="27"/>
+      <c r="B149" s="27">
+        <v>4</v>
+      </c>
       <c r="C149" s="108">
-        <v>0</v>
-      </c>
-      <c r="D149" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D149" s="106">
+        <v>4</v>
+      </c>
       <c r="E149" s="106">
         <v>0</v>
       </c>
-      <c r="F149" s="106"/>
+      <c r="F149" s="106">
+        <v>4</v>
+      </c>
       <c r="G149" s="106">
-        <v>0</v>
-      </c>
-      <c r="H149" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H149" s="106">
+        <v>4</v>
+      </c>
       <c r="I149" s="106">
-        <v>0</v>
-      </c>
-      <c r="J149" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J149" s="106">
+        <v>4</v>
+      </c>
       <c r="K149" s="106">
-        <v>0</v>
-      </c>
-      <c r="L149" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L149" s="106">
+        <v>4</v>
+      </c>
       <c r="M149" s="106">
         <v>0</v>
       </c>
-      <c r="N149" s="106"/>
+      <c r="N149" s="106">
+        <v>4</v>
+      </c>
       <c r="O149" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P149" s="107"/>
       <c r="Q149" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B150" s="46">
-        <v>0</v>
+        <f>SUM(B145:B149)</f>
+        <v>16</v>
       </c>
       <c r="C150" s="90">
         <f t="shared" ref="C150:O150" si="16">SUM(C145:C149)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D150" s="91"/>
       <c r="E150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F150" s="91"/>
       <c r="G150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H150" s="91"/>
       <c r="I150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J150" s="91"/>
       <c r="K150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L150" s="91"/>
       <c r="M150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N150" s="91"/>
       <c r="O150" s="91">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="P150" s="91"/>
       <c r="Q150" s="39"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
       <c r="E151" s="93"/>
@@ -7067,7 +7486,7 @@
       <c r="O151" s="93"/>
       <c r="P151" s="93"/>
     </row>
-    <row r="152" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>30</v>
       </c>
@@ -7089,232 +7508,307 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="10"/>
+      <c r="B153" s="25">
+        <v>4</v>
+      </c>
       <c r="C153" s="48">
-        <v>0</v>
-      </c>
-      <c r="D153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D153" s="49">
+        <v>4</v>
+      </c>
       <c r="E153" s="49">
-        <v>0</v>
-      </c>
-      <c r="F153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F153" s="49">
+        <v>4</v>
+      </c>
       <c r="G153" s="49">
-        <v>0</v>
-      </c>
-      <c r="H153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H153" s="49">
+        <v>4</v>
+      </c>
       <c r="I153" s="49">
-        <v>0</v>
-      </c>
-      <c r="J153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J153" s="49">
+        <v>4</v>
+      </c>
       <c r="K153" s="49">
-        <v>0</v>
-      </c>
-      <c r="L153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L153" s="49">
+        <v>4</v>
+      </c>
       <c r="M153" s="49">
-        <v>0</v>
-      </c>
-      <c r="N153" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N153" s="49">
+        <v>4</v>
+      </c>
       <c r="O153" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P153" s="50"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="25">
+        <v>4</v>
+      </c>
       <c r="C154" s="48">
-        <v>0</v>
-      </c>
-      <c r="D154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D154" s="49">
+        <v>4</v>
+      </c>
       <c r="E154" s="49">
-        <v>0</v>
-      </c>
-      <c r="F154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F154" s="49">
+        <v>4</v>
+      </c>
       <c r="G154" s="49">
-        <v>0</v>
-      </c>
-      <c r="H154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H154" s="49">
+        <v>4</v>
+      </c>
       <c r="I154" s="49">
-        <v>0</v>
-      </c>
-      <c r="J154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J154" s="49">
+        <v>4</v>
+      </c>
       <c r="K154" s="49">
-        <v>0</v>
-      </c>
-      <c r="L154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L154" s="49">
+        <v>4</v>
+      </c>
       <c r="M154" s="49">
-        <v>0</v>
-      </c>
-      <c r="N154" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N154" s="49">
+        <v>4</v>
+      </c>
       <c r="O154" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P154" s="50"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="25">
+        <v>2</v>
+      </c>
       <c r="C155" s="48">
-        <v>0</v>
-      </c>
-      <c r="D155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="49">
+        <v>2</v>
+      </c>
       <c r="E155" s="49">
-        <v>0</v>
-      </c>
-      <c r="F155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F155" s="49">
+        <v>2</v>
+      </c>
       <c r="G155" s="49">
-        <v>0</v>
-      </c>
-      <c r="H155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H155" s="49">
+        <v>2</v>
+      </c>
       <c r="I155" s="49">
-        <v>0</v>
-      </c>
-      <c r="J155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J155" s="49">
+        <v>2</v>
+      </c>
       <c r="K155" s="49">
-        <v>0</v>
-      </c>
-      <c r="L155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L155" s="49">
+        <v>2</v>
+      </c>
       <c r="M155" s="49">
-        <v>0</v>
-      </c>
-      <c r="N155" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N155" s="49">
+        <v>2</v>
+      </c>
       <c r="O155" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P155" s="50"/>
-      <c r="Q155" s="2"/>
+      <c r="Q155" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="25">
+        <v>2</v>
+      </c>
       <c r="C156" s="48">
-        <v>0</v>
-      </c>
-      <c r="D156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D156" s="49">
+        <v>2</v>
+      </c>
       <c r="E156" s="49">
-        <v>0</v>
-      </c>
-      <c r="F156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F156" s="49">
+        <v>2</v>
+      </c>
       <c r="G156" s="49">
-        <v>0</v>
-      </c>
-      <c r="H156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H156" s="49">
+        <v>2</v>
+      </c>
       <c r="I156" s="49">
-        <v>0</v>
-      </c>
-      <c r="J156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J156" s="49">
+        <v>2</v>
+      </c>
       <c r="K156" s="49">
-        <v>0</v>
-      </c>
-      <c r="L156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L156" s="49">
+        <v>2</v>
+      </c>
       <c r="M156" s="49">
-        <v>0</v>
-      </c>
-      <c r="N156" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N156" s="49">
+        <v>2</v>
+      </c>
       <c r="O156" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P156" s="50"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="27">
+        <v>4</v>
+      </c>
       <c r="C157" s="108">
-        <v>0</v>
-      </c>
-      <c r="D157" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D157" s="106">
+        <v>4</v>
+      </c>
       <c r="E157" s="106">
         <v>0</v>
       </c>
-      <c r="F157" s="106"/>
+      <c r="F157" s="106">
+        <v>4</v>
+      </c>
       <c r="G157" s="106">
-        <v>0</v>
-      </c>
-      <c r="H157" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H157" s="106">
+        <v>4</v>
+      </c>
       <c r="I157" s="106">
-        <v>0</v>
-      </c>
-      <c r="J157" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J157" s="106">
+        <v>4</v>
+      </c>
       <c r="K157" s="106">
-        <v>0</v>
-      </c>
-      <c r="L157" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L157" s="106">
+        <v>4</v>
+      </c>
       <c r="M157" s="106">
-        <v>0</v>
-      </c>
-      <c r="N157" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="N157" s="106">
+        <v>4</v>
+      </c>
       <c r="O157" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P157" s="107"/>
-      <c r="Q157" s="2"/>
+      <c r="Q157" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="46">
-        <v>0</v>
+        <f>SUM(B153:B157)</f>
+        <v>16</v>
       </c>
       <c r="C158" s="90">
         <f t="shared" ref="C158:O158" si="17">SUM(C153:C157)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D158" s="91"/>
       <c r="E158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F158" s="91"/>
       <c r="G158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H158" s="91"/>
       <c r="I158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J158" s="91"/>
       <c r="K158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L158" s="91"/>
       <c r="M158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N158" s="91"/>
       <c r="O158" s="91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P158" s="91"/>
       <c r="Q158" s="39"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C159" s="93"/>
       <c r="D159" s="93"/>
       <c r="E159" s="93"/>
@@ -7330,7 +7824,7 @@
       <c r="O159" s="93"/>
       <c r="P159" s="93"/>
     </row>
-    <row r="160" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>31</v>
       </c>
@@ -7352,232 +7846,305 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="10"/>
+      <c r="B161" s="25">
+        <v>4</v>
+      </c>
       <c r="C161" s="48">
-        <v>0</v>
-      </c>
-      <c r="D161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D161" s="49">
+        <v>4</v>
+      </c>
       <c r="E161" s="49">
-        <v>0</v>
-      </c>
-      <c r="F161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F161" s="49">
+        <v>4</v>
+      </c>
       <c r="G161" s="49">
-        <v>0</v>
-      </c>
-      <c r="H161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H161" s="49">
+        <v>4</v>
+      </c>
       <c r="I161" s="49">
-        <v>0</v>
-      </c>
-      <c r="J161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J161" s="49">
+        <v>4</v>
+      </c>
       <c r="K161" s="49">
-        <v>0</v>
-      </c>
-      <c r="L161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L161" s="49">
+        <v>4</v>
+      </c>
       <c r="M161" s="49">
-        <v>0</v>
-      </c>
-      <c r="N161" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N161" s="49">
+        <v>4</v>
+      </c>
       <c r="O161" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P161" s="50"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="10"/>
+      <c r="B162" s="25">
+        <v>4</v>
+      </c>
       <c r="C162" s="48">
-        <v>0</v>
-      </c>
-      <c r="D162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D162" s="49">
+        <v>4</v>
+      </c>
       <c r="E162" s="49">
-        <v>0</v>
-      </c>
-      <c r="F162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F162" s="49">
+        <v>4</v>
+      </c>
       <c r="G162" s="49">
-        <v>0</v>
-      </c>
-      <c r="H162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H162" s="49">
+        <v>4</v>
+      </c>
       <c r="I162" s="49">
-        <v>0</v>
-      </c>
-      <c r="J162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J162" s="49">
+        <v>4</v>
+      </c>
       <c r="K162" s="49">
-        <v>0</v>
-      </c>
-      <c r="L162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L162" s="49">
+        <v>4</v>
+      </c>
       <c r="M162" s="49">
-        <v>0</v>
-      </c>
-      <c r="N162" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N162" s="49">
+        <v>4</v>
+      </c>
       <c r="O162" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P162" s="50"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="10"/>
+      <c r="B163" s="25">
+        <v>2</v>
+      </c>
       <c r="C163" s="48">
-        <v>0</v>
-      </c>
-      <c r="D163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D163" s="49">
+        <v>2</v>
+      </c>
       <c r="E163" s="49">
-        <v>0</v>
-      </c>
-      <c r="F163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F163" s="49">
+        <v>2</v>
+      </c>
       <c r="G163" s="49">
-        <v>0</v>
-      </c>
-      <c r="H163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H163" s="49">
+        <v>2</v>
+      </c>
       <c r="I163" s="49">
-        <v>0</v>
-      </c>
-      <c r="J163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J163" s="49">
+        <v>2</v>
+      </c>
       <c r="K163" s="49">
-        <v>0</v>
-      </c>
-      <c r="L163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L163" s="49">
+        <v>2</v>
+      </c>
       <c r="M163" s="49">
-        <v>0</v>
-      </c>
-      <c r="N163" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N163" s="49">
+        <v>2</v>
+      </c>
       <c r="O163" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P163" s="50"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="10"/>
+      <c r="B164" s="25">
+        <v>2</v>
+      </c>
       <c r="C164" s="48">
-        <v>0</v>
-      </c>
-      <c r="D164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="49">
+        <v>2</v>
+      </c>
       <c r="E164" s="49">
-        <v>0</v>
-      </c>
-      <c r="F164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F164" s="49">
+        <v>2</v>
+      </c>
       <c r="G164" s="49">
-        <v>0</v>
-      </c>
-      <c r="H164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H164" s="49">
+        <v>2</v>
+      </c>
       <c r="I164" s="49">
-        <v>0</v>
-      </c>
-      <c r="J164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J164" s="49">
+        <v>2</v>
+      </c>
       <c r="K164" s="49">
-        <v>0</v>
-      </c>
-      <c r="L164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L164" s="49">
+        <v>2</v>
+      </c>
       <c r="M164" s="49">
-        <v>0</v>
-      </c>
-      <c r="N164" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N164" s="49">
+        <v>2</v>
+      </c>
       <c r="O164" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P164" s="50"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="9"/>
+      <c r="B165" s="27">
+        <v>4</v>
+      </c>
       <c r="C165" s="108">
-        <v>0</v>
-      </c>
-      <c r="D165" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D165" s="106">
+        <v>4</v>
+      </c>
       <c r="E165" s="106">
-        <v>0</v>
-      </c>
-      <c r="F165" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F165" s="106">
+        <v>4</v>
+      </c>
       <c r="G165" s="106">
-        <v>0</v>
-      </c>
-      <c r="H165" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H165" s="106">
+        <v>4</v>
+      </c>
       <c r="I165" s="106">
-        <v>0</v>
-      </c>
-      <c r="J165" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J165" s="106">
+        <v>4</v>
+      </c>
       <c r="K165" s="106">
-        <v>0</v>
-      </c>
-      <c r="L165" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="L165" s="106">
+        <v>4</v>
+      </c>
       <c r="M165" s="106">
         <v>0</v>
       </c>
-      <c r="N165" s="106"/>
+      <c r="N165" s="106">
+        <v>4</v>
+      </c>
       <c r="O165" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P165" s="107"/>
-      <c r="Q165" s="3"/>
+      <c r="Q165" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="46">
-        <v>0</v>
+        <f>SUM(B161:B165)</f>
+        <v>16</v>
       </c>
       <c r="C166" s="90">
         <f t="shared" ref="C166:O166" si="18">SUM(C161:C165)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D166" s="91"/>
       <c r="E166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F166" s="91"/>
       <c r="G166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H166" s="91"/>
       <c r="I166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J166" s="91"/>
       <c r="K166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L166" s="91"/>
       <c r="M166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N166" s="91"/>
       <c r="O166" s="91">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P166" s="91"/>
       <c r="Q166" s="39"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C167" s="93"/>
       <c r="D167" s="93"/>
       <c r="E167" s="93"/>
@@ -7593,7 +8160,7 @@
       <c r="O167" s="93"/>
       <c r="P167" s="93"/>
     </row>
-    <row r="168" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>32</v>
       </c>
@@ -7615,232 +8182,305 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="10"/>
+      <c r="B169" s="25">
+        <v>4</v>
+      </c>
       <c r="C169" s="48">
-        <v>0</v>
-      </c>
-      <c r="D169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D169" s="49">
+        <v>4</v>
+      </c>
       <c r="E169" s="49">
-        <v>0</v>
-      </c>
-      <c r="F169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F169" s="49">
+        <v>4</v>
+      </c>
       <c r="G169" s="49">
-        <v>0</v>
-      </c>
-      <c r="H169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H169" s="49">
+        <v>4</v>
+      </c>
       <c r="I169" s="49">
-        <v>0</v>
-      </c>
-      <c r="J169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J169" s="49">
+        <v>4</v>
+      </c>
       <c r="K169" s="49">
-        <v>0</v>
-      </c>
-      <c r="L169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L169" s="49">
+        <v>4</v>
+      </c>
       <c r="M169" s="49">
-        <v>0</v>
-      </c>
-      <c r="N169" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N169" s="49">
+        <v>4</v>
+      </c>
       <c r="O169" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P169" s="50"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="10"/>
+      <c r="B170" s="25">
+        <v>4</v>
+      </c>
       <c r="C170" s="48">
-        <v>0</v>
-      </c>
-      <c r="D170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="D170" s="49">
+        <v>4</v>
+      </c>
       <c r="E170" s="49">
-        <v>0</v>
-      </c>
-      <c r="F170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="F170" s="49">
+        <v>4</v>
+      </c>
       <c r="G170" s="49">
-        <v>0</v>
-      </c>
-      <c r="H170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="H170" s="49">
+        <v>4</v>
+      </c>
       <c r="I170" s="49">
-        <v>0</v>
-      </c>
-      <c r="J170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="J170" s="49">
+        <v>4</v>
+      </c>
       <c r="K170" s="49">
-        <v>0</v>
-      </c>
-      <c r="L170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="L170" s="49">
+        <v>4</v>
+      </c>
       <c r="M170" s="49">
-        <v>0</v>
-      </c>
-      <c r="N170" s="49"/>
+        <v>4</v>
+      </c>
+      <c r="N170" s="49">
+        <v>4</v>
+      </c>
       <c r="O170" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P170" s="50"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="48">
-        <v>0</v>
-      </c>
-      <c r="D171" s="49"/>
+      <c r="B171" s="25">
+        <v>2</v>
+      </c>
+      <c r="C171" s="25">
+        <v>2</v>
+      </c>
+      <c r="D171" s="49">
+        <v>2</v>
+      </c>
       <c r="E171" s="49">
-        <v>0</v>
-      </c>
-      <c r="F171" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="F171" s="49">
+        <v>2</v>
+      </c>
       <c r="G171" s="49">
-        <v>0</v>
-      </c>
-      <c r="H171" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="H171" s="49">
+        <v>2</v>
+      </c>
       <c r="I171" s="49">
-        <v>0</v>
-      </c>
-      <c r="J171" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J171" s="49">
+        <v>2</v>
+      </c>
       <c r="K171" s="49">
-        <v>0</v>
-      </c>
-      <c r="L171" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L171" s="49">
+        <v>2</v>
+      </c>
       <c r="M171" s="49">
-        <v>0</v>
-      </c>
-      <c r="N171" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="N171" s="49">
+        <v>2</v>
+      </c>
       <c r="O171" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P171" s="50"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="10"/>
-      <c r="C172" s="48">
-        <v>0</v>
-      </c>
-      <c r="D172" s="49"/>
+      <c r="B172" s="25">
+        <v>0</v>
+      </c>
+      <c r="C172" s="25">
+        <v>0</v>
+      </c>
+      <c r="D172" s="49">
+        <v>2</v>
+      </c>
       <c r="E172" s="49">
         <v>0</v>
       </c>
-      <c r="F172" s="49"/>
+      <c r="F172" s="49">
+        <v>2</v>
+      </c>
       <c r="G172" s="49">
         <v>0</v>
       </c>
-      <c r="H172" s="49"/>
+      <c r="H172" s="49">
+        <v>2</v>
+      </c>
       <c r="I172" s="49">
         <v>0</v>
       </c>
-      <c r="J172" s="49"/>
+      <c r="J172" s="49">
+        <v>2</v>
+      </c>
       <c r="K172" s="49">
         <v>0</v>
       </c>
-      <c r="L172" s="49"/>
+      <c r="L172" s="49">
+        <v>2</v>
+      </c>
       <c r="M172" s="49">
         <v>0</v>
       </c>
-      <c r="N172" s="49"/>
+      <c r="N172" s="49">
+        <v>2</v>
+      </c>
       <c r="O172" s="50">
         <v>0</v>
       </c>
       <c r="P172" s="50"/>
-      <c r="Q172" s="2"/>
+      <c r="Q172" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="9"/>
+      <c r="B173" s="27">
+        <v>4</v>
+      </c>
       <c r="C173" s="108">
-        <v>0</v>
-      </c>
-      <c r="D173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="D173" s="106">
+        <v>4</v>
+      </c>
       <c r="E173" s="106">
-        <v>0</v>
-      </c>
-      <c r="F173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="F173" s="106">
+        <v>4</v>
+      </c>
       <c r="G173" s="106">
-        <v>0</v>
-      </c>
-      <c r="H173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H173" s="106">
+        <v>4</v>
+      </c>
       <c r="I173" s="106">
-        <v>0</v>
-      </c>
-      <c r="J173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="J173" s="106">
+        <v>4</v>
+      </c>
       <c r="K173" s="106">
-        <v>0</v>
-      </c>
-      <c r="L173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L173" s="106">
+        <v>4</v>
+      </c>
       <c r="M173" s="106">
-        <v>0</v>
-      </c>
-      <c r="N173" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="N173" s="106">
+        <v>4</v>
+      </c>
       <c r="O173" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P173" s="107"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="46">
-        <v>0</v>
+        <f>SUM(B169:B173)</f>
+        <v>14</v>
       </c>
       <c r="C174" s="90">
         <f t="shared" ref="C174:O174" si="19">SUM(C169:C173)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D174" s="91"/>
       <c r="E174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F174" s="91"/>
       <c r="G174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H174" s="91"/>
       <c r="I174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J174" s="91"/>
       <c r="K174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L174" s="91"/>
       <c r="M174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N174" s="91"/>
       <c r="O174" s="91">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P174" s="91"/>
       <c r="Q174" s="39"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C175" s="93"/>
       <c r="D175" s="93"/>
       <c r="E175" s="93"/>
@@ -7856,6 +8496,285 @@
       <c r="O175" s="93"/>
       <c r="P175" s="93"/>
     </row>
+    <row r="176" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="149"/>
+      <c r="D176" s="150"/>
+      <c r="E176" s="150"/>
+      <c r="F176" s="150"/>
+      <c r="G176" s="150"/>
+      <c r="H176" s="150"/>
+      <c r="I176" s="150"/>
+      <c r="J176" s="150"/>
+      <c r="K176" s="150"/>
+      <c r="L176" s="150"/>
+      <c r="M176" s="150"/>
+      <c r="N176" s="150"/>
+      <c r="O176" s="151"/>
+      <c r="P176" s="151"/>
+      <c r="Q176" s="152"/>
+    </row>
+    <row r="177" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="25">
+        <v>4</v>
+      </c>
+      <c r="C177" s="48">
+        <v>4</v>
+      </c>
+      <c r="D177" s="49">
+        <v>3</v>
+      </c>
+      <c r="E177" s="49">
+        <v>4</v>
+      </c>
+      <c r="F177" s="49">
+        <v>3</v>
+      </c>
+      <c r="G177" s="49">
+        <v>4</v>
+      </c>
+      <c r="H177" s="49">
+        <v>3</v>
+      </c>
+      <c r="I177" s="49">
+        <v>4</v>
+      </c>
+      <c r="J177" s="49">
+        <v>3</v>
+      </c>
+      <c r="K177" s="49">
+        <v>4</v>
+      </c>
+      <c r="L177" s="49">
+        <v>3</v>
+      </c>
+      <c r="M177" s="49">
+        <v>4</v>
+      </c>
+      <c r="N177" s="49">
+        <v>3</v>
+      </c>
+      <c r="O177" s="50">
+        <v>4</v>
+      </c>
+      <c r="P177" s="50"/>
+      <c r="Q177" s="2"/>
+    </row>
+    <row r="178" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="153">
+        <v>0</v>
+      </c>
+      <c r="C178" s="48">
+        <v>0</v>
+      </c>
+      <c r="D178" s="49">
+        <v>4</v>
+      </c>
+      <c r="E178" s="49">
+        <v>0</v>
+      </c>
+      <c r="F178" s="49">
+        <v>4</v>
+      </c>
+      <c r="G178" s="49">
+        <v>0</v>
+      </c>
+      <c r="H178" s="49">
+        <v>4</v>
+      </c>
+      <c r="I178" s="49">
+        <v>0</v>
+      </c>
+      <c r="J178" s="49">
+        <v>4</v>
+      </c>
+      <c r="K178" s="49">
+        <v>0</v>
+      </c>
+      <c r="L178" s="49">
+        <v>4</v>
+      </c>
+      <c r="M178" s="49">
+        <v>0</v>
+      </c>
+      <c r="N178" s="49">
+        <v>4</v>
+      </c>
+      <c r="O178" s="50">
+        <v>0</v>
+      </c>
+      <c r="P178" s="50"/>
+      <c r="Q178" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="25">
+        <v>0</v>
+      </c>
+      <c r="C179" s="48">
+        <v>0</v>
+      </c>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49">
+        <v>0</v>
+      </c>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49">
+        <v>0</v>
+      </c>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49">
+        <v>0</v>
+      </c>
+      <c r="J179" s="49"/>
+      <c r="K179" s="49">
+        <v>0</v>
+      </c>
+      <c r="L179" s="49"/>
+      <c r="M179" s="49">
+        <v>0</v>
+      </c>
+      <c r="N179" s="49"/>
+      <c r="O179" s="50">
+        <v>0</v>
+      </c>
+      <c r="P179" s="50"/>
+      <c r="Q179" s="2"/>
+    </row>
+    <row r="180" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="25">
+        <v>0</v>
+      </c>
+      <c r="C180" s="48">
+        <v>0</v>
+      </c>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49">
+        <v>0</v>
+      </c>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49">
+        <v>0</v>
+      </c>
+      <c r="H180" s="49"/>
+      <c r="I180" s="49">
+        <v>0</v>
+      </c>
+      <c r="J180" s="49"/>
+      <c r="K180" s="49">
+        <v>0</v>
+      </c>
+      <c r="L180" s="49"/>
+      <c r="M180" s="49">
+        <v>0</v>
+      </c>
+      <c r="N180" s="49"/>
+      <c r="O180" s="50">
+        <v>0</v>
+      </c>
+      <c r="P180" s="50"/>
+      <c r="Q180" s="2"/>
+    </row>
+    <row r="181" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="27">
+        <v>0</v>
+      </c>
+      <c r="C181" s="108">
+        <v>0</v>
+      </c>
+      <c r="D181" s="106"/>
+      <c r="E181" s="106">
+        <v>0</v>
+      </c>
+      <c r="F181" s="106"/>
+      <c r="G181" s="106">
+        <v>0</v>
+      </c>
+      <c r="H181" s="106"/>
+      <c r="I181" s="106">
+        <v>0</v>
+      </c>
+      <c r="J181" s="106"/>
+      <c r="K181" s="106">
+        <v>0</v>
+      </c>
+      <c r="L181" s="106"/>
+      <c r="M181" s="106">
+        <v>0</v>
+      </c>
+      <c r="N181" s="106"/>
+      <c r="O181" s="107">
+        <v>0</v>
+      </c>
+      <c r="P181" s="107"/>
+      <c r="Q181" s="3"/>
+    </row>
+    <row r="182" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="46">
+        <f>SUM(B177:B181)</f>
+        <v>4</v>
+      </c>
+      <c r="C182" s="90">
+        <f t="shared" ref="C182:O182" si="20">SUM(C177:C181)</f>
+        <v>4</v>
+      </c>
+      <c r="D182" s="91"/>
+      <c r="E182" s="91">
+        <f t="shared" ref="E182:Q182" si="21">SUM(E177:E181)</f>
+        <v>4</v>
+      </c>
+      <c r="F182" s="91"/>
+      <c r="G182" s="91">
+        <f t="shared" ref="G182:Q182" si="22">SUM(G177:G181)</f>
+        <v>4</v>
+      </c>
+      <c r="H182" s="91"/>
+      <c r="I182" s="91">
+        <f t="shared" ref="I182:Q182" si="23">SUM(I177:I181)</f>
+        <v>4</v>
+      </c>
+      <c r="J182" s="91"/>
+      <c r="K182" s="91">
+        <f t="shared" ref="K182:Q182" si="24">SUM(K177:K181)</f>
+        <v>4</v>
+      </c>
+      <c r="L182" s="91"/>
+      <c r="M182" s="91">
+        <f t="shared" ref="M182:Q182" si="25">SUM(M177:M181)</f>
+        <v>4</v>
+      </c>
+      <c r="N182" s="91"/>
+      <c r="O182" s="91">
+        <f t="shared" ref="O182:Q182" si="26">SUM(O177:O181)</f>
+        <v>4</v>
+      </c>
+      <c r="P182" s="91"/>
+      <c r="Q182" s="39"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -1583,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q188" sqref="Q188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>Roos</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>Harold</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>Patrick</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>Erwin</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>Sven</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>Paco</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>Danial</v>
       </c>
     </row>
-    <row r="9" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
@@ -8739,37 +8739,37 @@
         <v>4</v>
       </c>
       <c r="C182" s="90">
-        <f t="shared" ref="C182:O182" si="20">SUM(C177:C181)</f>
+        <f t="shared" ref="C182" si="20">SUM(C177:C181)</f>
         <v>4</v>
       </c>
       <c r="D182" s="91"/>
       <c r="E182" s="91">
-        <f t="shared" ref="E182:Q182" si="21">SUM(E177:E181)</f>
+        <f t="shared" ref="E182" si="21">SUM(E177:E181)</f>
         <v>4</v>
       </c>
       <c r="F182" s="91"/>
       <c r="G182" s="91">
-        <f t="shared" ref="G182:Q182" si="22">SUM(G177:G181)</f>
+        <f t="shared" ref="G182" si="22">SUM(G177:G181)</f>
         <v>4</v>
       </c>
       <c r="H182" s="91"/>
       <c r="I182" s="91">
-        <f t="shared" ref="I182:Q182" si="23">SUM(I177:I181)</f>
+        <f t="shared" ref="I182" si="23">SUM(I177:I181)</f>
         <v>4</v>
       </c>
       <c r="J182" s="91"/>
       <c r="K182" s="91">
-        <f t="shared" ref="K182:Q182" si="24">SUM(K177:K181)</f>
+        <f t="shared" ref="K182" si="24">SUM(K177:K181)</f>
         <v>4</v>
       </c>
       <c r="L182" s="91"/>
       <c r="M182" s="91">
-        <f t="shared" ref="M182:Q182" si="25">SUM(M177:M181)</f>
+        <f t="shared" ref="M182" si="25">SUM(M177:M181)</f>
         <v>4</v>
       </c>
       <c r="N182" s="91"/>
       <c r="O182" s="91">
-        <f t="shared" ref="O182:Q182" si="26">SUM(O177:O181)</f>
+        <f t="shared" ref="O182" si="26">SUM(O177:O181)</f>
         <v>4</v>
       </c>
       <c r="P182" s="91"/>
